--- a/Lifetime_Sinton_Mode.xlsx
+++ b/Lifetime_Sinton_Mode.xlsx
@@ -393,2402 +393,2402 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2.177876458991416E+16</v>
+        <v>2.029498807102842E+16</v>
       </c>
       <c r="B2">
-        <v>99.88149398692623</v>
+        <v>96.823678788411</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2.023083062343331E+16</v>
+        <v>1.883143759659196E+16</v>
       </c>
       <c r="B3">
-        <v>103.5550960471302</v>
+        <v>100.8283613502906</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1.866486449095914E+16</v>
+        <v>1.735300191366612E+16</v>
       </c>
       <c r="B4">
-        <v>104.2855823338901</v>
+        <v>101.8904006031313</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>1.716819681641593E+16</v>
+        <v>1.594216199176305E+16</v>
       </c>
       <c r="B5">
-        <v>106.9812304457184</v>
+        <v>104.7694263539641</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1.579975752370825E+16</v>
+        <v>1.465418155447296E+16</v>
       </c>
       <c r="B6">
-        <v>111.0016038993388</v>
+        <v>108.8946298525309</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1.455638901902797E+16</v>
+        <v>1.348567375152574E+16</v>
       </c>
       <c r="B7">
-        <v>114.6833609623756</v>
+        <v>112.660724739436</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1.342540531852966E+16</v>
+        <v>1.242433198390352E+16</v>
       </c>
       <c r="B8">
-        <v>117.9266375674038</v>
+        <v>115.9781448213224</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1.23962345843971E+16</v>
+        <v>1.145989746170802E+16</v>
       </c>
       <c r="B9">
-        <v>122.6200715289071</v>
+        <v>120.7005063624061</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>1.148824595517162E+16</v>
+        <v>1.061016785146037E+16</v>
       </c>
       <c r="B10">
-        <v>128.3828959618398</v>
+        <v>126.465082239819</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>1.067013758770351E+16</v>
+        <v>9845525217272062</v>
       </c>
       <c r="B11">
-        <v>131.6620291115175</v>
+        <v>129.7782779241508</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>9916908340469848</v>
+        <v>9142383721148630</v>
       </c>
       <c r="B12">
-        <v>135.6924291845779</v>
+        <v>133.8231474949245</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>9247446412126236</v>
+        <v>8518170395694137</v>
       </c>
       <c r="B13">
-        <v>142.3061072620684</v>
+        <v>140.4132729209766</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>8648335857427324</v>
+        <v>7960166946067989</v>
       </c>
       <c r="B14">
-        <v>147.5204514432476</v>
+        <v>145.6304207159895</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>8099587849625943</v>
+        <v>7449603852749927</v>
       </c>
       <c r="B15">
-        <v>150.7232005485998</v>
+        <v>148.8657244953637</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>7592937814494487</v>
+        <v>6978683385287186</v>
       </c>
       <c r="B16">
-        <v>155.6440305472372</v>
+        <v>153.7949278968827</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>7138957290655847</v>
+        <v>6557122200830397</v>
       </c>
       <c r="B17">
-        <v>162.5444357939415</v>
+        <v>160.6802050092383</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6726344079312741</v>
+        <v>6174319843139646</v>
       </c>
       <c r="B18">
-        <v>166.4169637494836</v>
+        <v>164.5784826201601</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6339744863757464</v>
+        <v>5815962972352836</v>
       </c>
       <c r="B19">
-        <v>170.4244973439285</v>
+        <v>168.6079693758144</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5989288996228481</v>
+        <v>5491379348784380</v>
       </c>
       <c r="B20">
-        <v>178.484349561613</v>
+        <v>176.6446784706577</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5673888059796345</v>
+        <v>5199490836588972</v>
       </c>
       <c r="B21">
-        <v>183.793369792736</v>
+        <v>181.9636869327499</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5375884153724921</v>
+        <v>4923908182543817</v>
       </c>
       <c r="B22">
-        <v>186.9632624795821</v>
+        <v>185.1683175832235</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5101565459600779</v>
+        <v>4670411560396624</v>
       </c>
       <c r="B23">
-        <v>194.2741850956965</v>
+        <v>192.4690407301573</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>4852597764223266</v>
+        <v>4440498492198954</v>
       </c>
       <c r="B24">
-        <v>199.5903995097944</v>
+        <v>197.8055425721938</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>4616332843583527</v>
+        <v>4222458429127240</v>
       </c>
       <c r="B25">
-        <v>200.9897248282698</v>
+        <v>199.2479470045897</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>4393809711402572</v>
+        <v>4017230931248834</v>
       </c>
       <c r="B26">
-        <v>206.4285501147893</v>
+        <v>204.687786301513</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>4190971782053371</v>
+        <v>3830272459658670</v>
       </c>
       <c r="B27">
-        <v>212.681346933654</v>
+        <v>210.9457394354501</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>3999701639164270</v>
+        <v>3654078542401392</v>
       </c>
       <c r="B28">
-        <v>218.6704701072452</v>
+        <v>216.9259754416912</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>3825151775611473</v>
+        <v>3493376102736804</v>
       </c>
       <c r="B29">
-        <v>228.7548999867479</v>
+        <v>226.9719448478901</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>3665269303434363</v>
+        <v>3346254057302323</v>
       </c>
       <c r="B30">
-        <v>232.0168867661793</v>
+        <v>230.2522776049665</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>3509203281127266</v>
+        <v>3202716301920993</v>
       </c>
       <c r="B31">
-        <v>233.5087875894306</v>
+        <v>231.7704672698763</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>3364706458039666</v>
+        <v>3069884393846304</v>
       </c>
       <c r="B32">
-        <v>238.3677819822503</v>
+        <v>236.634824180551</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>3226891096984006</v>
+        <v>2943254542268576</v>
       </c>
       <c r="B33">
-        <v>244.1235931164027</v>
+        <v>242.3868995137277</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>3100341096561034</v>
+        <v>2827028484704904</v>
       </c>
       <c r="B34">
-        <v>251.597040755449</v>
+        <v>249.8482484336067</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>2980438190602286</v>
+        <v>2716954898190332</v>
       </c>
       <c r="B35">
-        <v>253.2920010114118</v>
+        <v>251.5708611952826</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>2865004948660493</v>
+        <v>2611029311725861</v>
       </c>
       <c r="B36">
-        <v>257.3365524907082</v>
+        <v>255.624939890757</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>2757772197689060</v>
+        <v>2512668938233396</v>
       </c>
       <c r="B37">
-        <v>263.7871128666095</v>
+        <v>262.0719256465763</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>2655914203648730</v>
+        <v>2419275163925846</v>
       </c>
       <c r="B38">
-        <v>275.6869713957413</v>
+        <v>273.9301941274014</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>2565096120890623</v>
+        <v>2336034509770160</v>
       </c>
       <c r="B39">
-        <v>278.3758032714671</v>
+        <v>276.6450280604</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>2471624039723154</v>
+        <v>2250391990702134</v>
       </c>
       <c r="B40">
-        <v>277.7002291747646</v>
+        <v>276.0051466161297</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>2387089495035972</v>
+        <v>2172965667156729</v>
       </c>
       <c r="B41">
-        <v>280.074238157833</v>
+        <v>278.4057311757032</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>2301162842667912</v>
+        <v>2094291348809432</v>
       </c>
       <c r="B42">
-        <v>274.6984876682685</v>
+        <v>273.0949677851402</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>2219548504024268</v>
+        <v>2019591083524186</v>
       </c>
       <c r="B43">
-        <v>289.9724751836619</v>
+        <v>288.3133501229134</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>2148076002089787</v>
+        <v>1954194396471762</v>
       </c>
       <c r="B44">
-        <v>308.7032029910844</v>
+        <v>306.9763582632285</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>2080380786859258</v>
+        <v>1892272197631608</v>
       </c>
       <c r="B45">
-        <v>302.6723722955236</v>
+        <v>301.0166616392287</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>2010608497468784</v>
+        <v>1828468983976190</v>
       </c>
       <c r="B46">
-        <v>300.4023898503881</v>
+        <v>298.7891875042938</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>1946519768079072</v>
+        <v>1769880286515352</v>
       </c>
       <c r="B47">
-        <v>310.3811231277296</v>
+        <v>308.7503559483205</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>1885180781474726</v>
+        <v>1713821000424611</v>
       </c>
       <c r="B48">
-        <v>309.8991450620195</v>
+        <v>308.3053321464154</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>1824855619499543</v>
+        <v>1658703422431100</v>
       </c>
       <c r="B49">
-        <v>306.087536852832</v>
+        <v>304.5459911496912</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>1765943282407462</v>
+        <v>1604891415361329</v>
       </c>
       <c r="B50">
-        <v>320.5113521245937</v>
+        <v>318.9268997250282</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>1714660253831436</v>
+        <v>1558060208155664</v>
       </c>
       <c r="B51">
-        <v>335.9016336227956</v>
+        <v>334.278602184142</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>1663850283612645</v>
+        <v>1511672154662291</v>
       </c>
       <c r="B52">
-        <v>345.1841639682277</v>
+        <v>343.545507360511</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>1618256626012299</v>
+        <v>1470056021096046</v>
       </c>
       <c r="B53">
-        <v>352.1262795976004</v>
+        <v>350.4904894444554</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>1571936858243678</v>
+        <v>1427786510665152</v>
       </c>
       <c r="B54">
-        <v>326.7001561145708</v>
+        <v>325.2143558433444</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>1522025459370774</v>
+        <v>1382250148753011</v>
       </c>
       <c r="B55">
-        <v>327.1265914484214</v>
+        <v>325.6629913374213</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>1478882640142258</v>
+        <v>1342898133077238</v>
       </c>
       <c r="B56">
-        <v>359.294901481986</v>
+        <v>357.7211494465384</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>1439704077461801</v>
+        <v>1307169425393212</v>
       </c>
       <c r="B57">
-        <v>360.6460228014972</v>
+        <v>359.1003038676467</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>1399042354297530</v>
+        <v>1270095664724274</v>
       </c>
       <c r="B58">
-        <v>348.1016504066919</v>
+        <v>346.6370935108927</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>1359322823729565</v>
+        <v>1233888424109698</v>
       </c>
       <c r="B59">
-        <v>350.6944128333362</v>
+        <v>349.2475687338716</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>1321520570431782</v>
+        <v>1199435850049949</v>
       </c>
       <c r="B60">
-        <v>347.0099147008303</v>
+        <v>345.6087253024554</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>1283156667406849</v>
+        <v>1164478379615000</v>
       </c>
       <c r="B61">
-        <v>355.4217076444619</v>
+        <v>354.0115636998191</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>1249315826612902</v>
+        <v>1133648260094136</v>
       </c>
       <c r="B62">
-        <v>379.4870080910021</v>
+        <v>378.0125050489091</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>1217314317077253</v>
+        <v>1104498974439108</v>
       </c>
       <c r="B63">
-        <v>366.0451626521905</v>
+        <v>364.6534847792096</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>1182804125802152</v>
+        <v>1073070258207887</v>
       </c>
       <c r="B64">
-        <v>357.6319621430333</v>
+        <v>356.295168893765</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>1151167873190390</v>
+        <v>1044264070803474</v>
       </c>
       <c r="B65">
-        <v>383.545130067438</v>
+        <v>382.1390640719784</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>1122776359422326</v>
+        <v>1018416642862936</v>
       </c>
       <c r="B66">
-        <v>373.681911575169</v>
+        <v>372.3435951211695</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>1091075247636773</v>
+        <v>989561013938402.1</v>
       </c>
       <c r="B67">
-        <v>360.2870920009675</v>
+        <v>359.0176438507411</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>1062209368716268</v>
+        <v>963290604859644.6</v>
       </c>
       <c r="B68">
-        <v>375.5732928521584</v>
+        <v>374.2777508689081</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>1034510556327138</v>
+        <v>938086374977186.1</v>
       </c>
       <c r="B69">
-        <v>386.8287668881738</v>
+        <v>385.5196081506471</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>1008722624974369</v>
+        <v>914624526395972</v>
       </c>
       <c r="B70">
-        <v>391.814865593617</v>
+        <v>390.5157284295624</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>983020798609747.2</v>
+        <v>891244495902349.2</v>
       </c>
       <c r="B71">
-        <v>425.6604807652935</v>
+        <v>424.2699941780755</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>962534602217716.4</v>
+        <v>872611444720048.8</v>
       </c>
       <c r="B72">
-        <v>441.6351806734266</v>
+        <v>440.2253326717442</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>939431218597122.4</v>
+        <v>851600641723211.5</v>
       </c>
       <c r="B73">
-        <v>388.866986543204</v>
+        <v>387.6478731689479</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>914218275499004.1</v>
+        <v>828674629859616.8</v>
       </c>
       <c r="B74">
-        <v>381.5789746042064</v>
+        <v>380.4022056809866</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>891513574473922</v>
+        <v>808032301819601.4</v>
       </c>
       <c r="B75">
-        <v>387.476500464086</v>
+        <v>386.3079922347215</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>868201881038636</v>
+        <v>786841050536275.4</v>
       </c>
       <c r="B76">
-        <v>395.6277637124803</v>
+        <v>394.4549036316832</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>847623738589219.1</v>
+        <v>768137193745549.9</v>
       </c>
       <c r="B77">
-        <v>436.8000910823553</v>
+        <v>435.5295051264993</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>829391278390231</v>
+        <v>751567334992138</v>
       </c>
       <c r="B78">
-        <v>454.1033169136751</v>
+        <v>452.807906471083</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>811094990725089.5</v>
+        <v>734941336330010.9</v>
       </c>
       <c r="B79">
-        <v>425.0197493615037</v>
+        <v>423.8303129690251</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>791223875960411</v>
+        <v>716886411337499.8</v>
       </c>
       <c r="B80">
-        <v>395.8750942683894</v>
+        <v>394.7870505799531</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>771121580555265</v>
+        <v>698623710902106.1</v>
       </c>
       <c r="B81">
-        <v>405.2813817187323</v>
+        <v>404.1869103856681</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>753170236423106.6</v>
+        <v>682317072600849.8</v>
       </c>
       <c r="B82">
-        <v>413.1604546892736</v>
+        <v>412.0688420280727</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>734662610299288.1</v>
+        <v>665507056449772.5</v>
       </c>
       <c r="B83">
-        <v>398.0922069280459</v>
+        <v>397.0602618951659</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>716261068269906.6</v>
+        <v>648795357117496.8</v>
       </c>
       <c r="B84">
-        <v>428.6273030854703</v>
+        <v>427.5340602455476</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>701241451025769.8</v>
+        <v>635156475410925.1</v>
       </c>
       <c r="B85">
-        <v>462.1967814686367</v>
+        <v>461.0432007072771</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>685917219972323.6</v>
+        <v>621242343671618.1</v>
       </c>
       <c r="B86">
-        <v>434.1081888573442</v>
+        <v>433.0447955404246</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>669640240194995.6</v>
+        <v>606464647218124.5</v>
       </c>
       <c r="B87">
-        <v>396.7023303895093</v>
+        <v>395.7496650365329</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>652156881859991.4</v>
+        <v>590593441054750.9</v>
       </c>
       <c r="B88">
-        <v>418.4978995155775</v>
+        <v>417.5074761116938</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>638473685590306.5</v>
+        <v>578173252460117.4</v>
       </c>
       <c r="B89">
-        <v>453.8853820747635</v>
+        <v>452.8363521447915</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>624023185080784.2</v>
+        <v>565057803302981.1</v>
       </c>
       <c r="B90">
-        <v>425.1378580000144</v>
+        <v>424.1731306616961</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>609117410991926.2</v>
+        <v>551530461464775.1</v>
       </c>
       <c r="B91">
-        <v>457.5350477412303</v>
+        <v>456.5117148716602</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>597397141283744.8</v>
+        <v>540894985855028.9</v>
       </c>
       <c r="B92">
-        <v>491.5028033881857</v>
+        <v>490.4275507183304</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>584808408594968.4</v>
+        <v>529472361952919.4</v>
       </c>
       <c r="B93">
-        <v>423.7553813806061</v>
+        <v>422.8468040051725</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>569795914996557.6</v>
+        <v>515851761834518.5</v>
       </c>
       <c r="B94">
-        <v>411.6657517922011</v>
+        <v>410.7954171186795</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>557125954442980.6</v>
+        <v>504357585091351.4</v>
       </c>
       <c r="B95">
-        <v>457.2063013466786</v>
+        <v>456.2596915789145</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>545425036782412.4</v>
+        <v>493743405808326.8</v>
       </c>
       <c r="B96">
-        <v>427.6462855563013</v>
+        <v>426.7809384192631</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>531617722279902.2</v>
+        <v>481219559872273.6</v>
       </c>
       <c r="B97">
-        <v>398.6871084030436</v>
+        <v>397.8934356556988</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>518756618813779.8</v>
+        <v>469555041952599.8</v>
       </c>
       <c r="B98">
-        <v>466.260921273736</v>
+        <v>465.347564819077</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>509365948856702.5</v>
+        <v>461038728276640.1</v>
       </c>
       <c r="B99">
-        <v>534.7767938372415</v>
+        <v>533.7520835140633</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>499706953430890</v>
+        <v>452279653527273.1</v>
       </c>
       <c r="B100">
-        <v>513.2429255748267</v>
+        <v>512.2751090768627</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>489893417291996.6</v>
+        <v>443381042181280.2</v>
       </c>
       <c r="B101">
-        <v>482.2100829646401</v>
+        <v>481.3168932834719</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>479388281773088.1</v>
+        <v>433855989269133.2</v>
       </c>
       <c r="B102">
-        <v>404.0894497835351</v>
+        <v>403.3575682087646</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>466166577502940.4</v>
+        <v>421868814646003.9</v>
       </c>
       <c r="B103">
-        <v>378.644141258704</v>
+        <v>377.9685727777021</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>454765342886285.7</v>
+        <v>411533032016593.5</v>
       </c>
       <c r="B104">
-        <v>391.6740571867636</v>
+        <v>390.9929764648995</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>442944955619036.1</v>
+        <v>400818153545264.7</v>
       </c>
       <c r="B105">
-        <v>423.5803018326238</v>
+        <v>422.8554915444173</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>433851010765427.9</v>
+        <v>392575342613940.4</v>
       </c>
       <c r="B106">
-        <v>520.7285110880931</v>
+        <v>519.8553994206303</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>426281723184965.3</v>
+        <v>385714902023727.9</v>
       </c>
       <c r="B107">
-        <v>563.0409786945776</v>
+        <v>562.1142240154919</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>418708890056085.9</v>
+        <v>378851622930479.9</v>
       </c>
       <c r="B108">
-        <v>492.0047824052117</v>
+        <v>491.2107708253308</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>409261202042500.4</v>
+        <v>370289685581753.9</v>
       </c>
       <c r="B109">
-        <v>438.2142597852602</v>
+        <v>437.5176908357465</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>400030301082598.2</v>
+        <v>361924778903925.1</v>
       </c>
       <c r="B110">
-        <v>442.3141788684029</v>
+        <v>441.6246683286473</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>391173140651114.8</v>
+        <v>353899080397779.4</v>
       </c>
       <c r="B111">
-        <v>477.1079163276138</v>
+        <v>476.3769085359779</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>383632621343303.8</v>
+        <v>347066834530198.1</v>
       </c>
       <c r="B112">
-        <v>466.8415929733691</v>
+        <v>466.1429377103929</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>374737903212226.6</v>
+        <v>339008075667130.6</v>
       </c>
       <c r="B113">
-        <v>447.4973116883614</v>
+        <v>446.8373581814535</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>366884458016986.8</v>
+        <v>331893166999496.1</v>
       </c>
       <c r="B114">
-        <v>473.0073085141777</v>
+        <v>472.3240554002794</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>359225058001887.2</v>
+        <v>324954454505776.7</v>
       </c>
       <c r="B115">
-        <v>537.2545688068756</v>
+        <v>536.4893108093045</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>353511838076326.4</v>
+        <v>319779059674018.3</v>
       </c>
       <c r="B116">
-        <v>559.2655206830257</v>
+        <v>558.4866340137887</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>346583054338060.9</v>
+        <v>313502826473936.5</v>
       </c>
       <c r="B117">
-        <v>452.0581836545082</v>
+        <v>451.4400300751601</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>338178278509448</v>
+        <v>305890046490063.8</v>
       </c>
       <c r="B118">
-        <v>427.406923037032</v>
+        <v>426.8311897888246</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>330758402921258.8</v>
+        <v>299169757391454.3</v>
       </c>
       <c r="B119">
-        <v>433.5389431521335</v>
+        <v>432.9686159318503</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>322919745999477.2</v>
+        <v>292070580303233</v>
       </c>
       <c r="B120">
-        <v>457.6665570891587</v>
+        <v>457.0738142155841</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>316646830161680.1</v>
+        <v>286389739319122.8</v>
       </c>
       <c r="B121">
-        <v>547.5515760573944</v>
+        <v>546.8558871847127</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>311353828047357.6</v>
+        <v>281596532349082</v>
       </c>
       <c r="B122">
-        <v>563.8819660906627</v>
+        <v>563.1793006440004</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>305603603147135.2</v>
+        <v>276389494919974.2</v>
       </c>
       <c r="B123">
-        <v>455.8065954840935</v>
+        <v>455.2505622698616</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>297944473896939.2</v>
+        <v>269454230160946</v>
       </c>
       <c r="B124">
-        <v>418.6588327641572</v>
+        <v>418.1549208724394</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>291370320551385.9</v>
+        <v>263501724540577.2</v>
       </c>
       <c r="B125">
-        <v>444.1129315857377</v>
+        <v>443.590775231567</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>284823022129658.9</v>
+        <v>257573833216125.8</v>
       </c>
       <c r="B126">
-        <v>493.2781856556401</v>
+        <v>492.7071107510947</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>279822150354032.2</v>
+        <v>253046270271874.8</v>
       </c>
       <c r="B127">
-        <v>481.8964651253755</v>
+        <v>481.3532501621108</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>273209649938550.1</v>
+        <v>247059880305798.3</v>
       </c>
       <c r="B128">
-        <v>378.8948169481568</v>
+        <v>378.4763161298621</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>265400752239423.8</v>
+        <v>239990770111012.6</v>
       </c>
       <c r="B129">
-        <v>391.2107354055156</v>
+        <v>390.7849784974688</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>259641476664147.5</v>
+        <v>234777383110857.2</v>
       </c>
       <c r="B130">
-        <v>541.8576837196002</v>
+        <v>541.2797682421838</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>255817369574004.1</v>
+        <v>231315870479227</v>
       </c>
       <c r="B131">
-        <v>689.5088565015465</v>
+        <v>688.7878519862625</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>252221198674623.8</v>
+        <v>228060775963615</v>
       </c>
       <c r="B132">
-        <v>630.7959426448936</v>
+        <v>630.1473384024983</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>247820450709336.9</v>
+        <v>224077538677595.3</v>
       </c>
       <c r="B133">
-        <v>547.2926314324392</v>
+        <v>546.7377178811292</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>243164966725704.2</v>
+        <v>219863882595950.4</v>
       </c>
       <c r="B134">
-        <v>469.263868876573</v>
+        <v>468.79773740436</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>237456773347691.8</v>
+        <v>214697634934318.2</v>
       </c>
       <c r="B135">
-        <v>368.394283987748</v>
+        <v>368.0368831469468</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>230273519509026.5</v>
+        <v>208196702225411.5</v>
       </c>
       <c r="B136">
-        <v>347.3634808332062</v>
+        <v>347.0323730247925</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>224198412453985.9</v>
+        <v>202698944413849.8</v>
       </c>
       <c r="B137">
-        <v>366.0953937121216</v>
+        <v>365.756619100768</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>218025432463698.4</v>
+        <v>197112886713763.6</v>
       </c>
       <c r="B138">
-        <v>365.0840022938538</v>
+        <v>364.7540291949203</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>212254562211640.4</v>
+        <v>191890954868192</v>
       </c>
       <c r="B139">
-        <v>467.7845139833526</v>
+        <v>467.3681908724847</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>208950546234386.7</v>
+        <v>188901332799066.6</v>
       </c>
       <c r="B140">
-        <v>579.1937038440107</v>
+        <v>578.6926802027282</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>205039340607965.6</v>
+        <v>185362400446771.2</v>
       </c>
       <c r="B141">
-        <v>618.8522408129407</v>
+        <v>618.3217610534449</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>202324106929953.7</v>
+        <v>182905671248000.8</v>
       </c>
       <c r="B142">
-        <v>694.6644120243607</v>
+        <v>694.0806500686377</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>199214251444686</v>
+        <v>180091956119302.6</v>
       </c>
       <c r="B143">
-        <v>556.6535593381157</v>
+        <v>556.1936860985494</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>195166540141678.4</v>
+        <v>176429799240802.5</v>
       </c>
       <c r="B144">
-        <v>506.564094335058</v>
+        <v>506.150845246942</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>191508749127240.3</v>
+        <v>173120524543218.7</v>
       </c>
       <c r="B145">
-        <v>448.8018852822522</v>
+        <v>448.4450501368005</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>186632318009041.8</v>
+        <v>168708874481329.3</v>
       </c>
       <c r="B146">
-        <v>414.8614947138329</v>
+        <v>414.5362235299879</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>182511417710027.1</v>
+        <v>164980880048719</v>
       </c>
       <c r="B147">
-        <v>464.319845291231</v>
+        <v>463.9639795090416</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>178770865626124.6</v>
+        <v>161597077560227.9</v>
       </c>
       <c r="B148">
-        <v>443.42943637975</v>
+        <v>443.0978171086237</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>174448314498582.8</v>
+        <v>157686911479218.6</v>
       </c>
       <c r="B149">
-        <v>429.7214967980632</v>
+        <v>429.4054971438719</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>170651731917504.9</v>
+        <v>154252648458688.7</v>
       </c>
       <c r="B150">
-        <v>418.0957672541853</v>
+        <v>417.7964436171841</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>166285030137286.9</v>
+        <v>150302806094155.7</v>
       </c>
       <c r="B151">
-        <v>400.8704721601788</v>
+        <v>400.5887547183145</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>162355534433004.5</v>
+        <v>146748553332511.4</v>
       </c>
       <c r="B152">
-        <v>482.3881664993914</v>
+        <v>482.0553119082932</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>159553706870748.6</v>
+        <v>144214353183987.2</v>
       </c>
       <c r="B153">
-        <v>520.8834507026381</v>
+        <v>520.5333588270335</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>156229261591910.4</v>
+        <v>141207530812496.2</v>
       </c>
       <c r="B154">
-        <v>461.6578547932894</v>
+        <v>461.352921758694</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>152785523032011</v>
+        <v>138092899340183.2</v>
       </c>
       <c r="B155">
-        <v>416.4339350769702</v>
+        <v>416.1651702148819</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>148891457913458</v>
+        <v>134571084073386.4</v>
       </c>
       <c r="B156">
-        <v>460.0138329663563</v>
+        <v>459.7207664943929</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>146312176047928.2</v>
+        <v>132238428805838.7</v>
       </c>
       <c r="B157">
-        <v>548.0191169771347</v>
+        <v>547.6790395924254</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>143551783748257.9</v>
+        <v>129742035698475.1</v>
       </c>
       <c r="B158">
-        <v>500.2595334768104</v>
+        <v>499.9547256536016</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>140573083671194.4</v>
+        <v>127048277416476</v>
       </c>
       <c r="B159">
-        <v>436.112687962293</v>
+        <v>435.8526915258882</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>137105143347676.5</v>
+        <v>123912163363779.2</v>
       </c>
       <c r="B160">
-        <v>429.059928558072</v>
+        <v>428.8083066226015</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>134182128272099.4</v>
+        <v>121268904141749</v>
       </c>
       <c r="B161">
-        <v>456.9569845412401</v>
+        <v>456.6954952883437</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>131232287354160.5</v>
+        <v>118601451723622.4</v>
       </c>
       <c r="B162">
-        <v>446.8284669737589</v>
+        <v>446.5780243923153</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>128308183478789.4</v>
+        <v>115957337282407.4</v>
       </c>
       <c r="B163">
-        <v>416.832287273633</v>
+        <v>416.6041946960667</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>125075941629696.1</v>
+        <v>113034664890522.8</v>
       </c>
       <c r="B164">
-        <v>433.4827800936874</v>
+        <v>433.2494720539506</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>122537437909488.4</v>
+        <v>110739342931270.8</v>
       </c>
       <c r="B165">
-        <v>508.7111245280659</v>
+        <v>508.4435232897281</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>120258376925438.2</v>
+        <v>108678651376386</v>
       </c>
       <c r="B166">
-        <v>480.525416002207</v>
+        <v>480.2785450164218</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>117532151074675.7</v>
+        <v>106213692035386.2</v>
       </c>
       <c r="B167">
-        <v>361.738370994814</v>
+        <v>361.5574808066324</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>113760191468835.8</v>
+        <v>102803309408717.4</v>
       </c>
       <c r="B168">
-        <v>335.4485950850476</v>
+        <v>335.2835036699867</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>110749580324007.1</v>
+        <v>100081370684443.4</v>
       </c>
       <c r="B169">
-        <v>367.0440135721719</v>
+        <v>366.8691197543256</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>107725515722667.8</v>
+        <v>97347338039338.41</v>
       </c>
       <c r="B170">
-        <v>480.9198638530631</v>
+        <v>480.6935021600233</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>106269602522317.3</v>
+        <v>96031083438957.36</v>
       </c>
       <c r="B171">
-        <v>636.108238976411</v>
+        <v>635.8180240691986</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>104384272958910.6</v>
+        <v>94326628345569.03</v>
       </c>
       <c r="B172">
-        <v>408.8541391056055</v>
+        <v>408.6723658404426</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>101163416086868.4</v>
+        <v>91414836477820.92</v>
       </c>
       <c r="B173">
-        <v>430.5452600721995</v>
+        <v>430.3539866262328</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>99684956744401.34</v>
+        <v>90078272837375.92</v>
       </c>
       <c r="B174">
-        <v>560.9918871275934</v>
+        <v>560.7516666524742</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>97609533792605.19</v>
+        <v>88202067682139.31</v>
       </c>
       <c r="B175">
-        <v>421.0238014668322</v>
+        <v>420.8469557545404</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>95048186402556.66</v>
+        <v>85886627087010.39</v>
       </c>
       <c r="B176">
-        <v>318.0665307508517</v>
+        <v>317.9368262253722</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>91632910840282.67</v>
+        <v>82799319714457.89</v>
       </c>
       <c r="B177">
-        <v>361.0696030101589</v>
+        <v>360.9235047637101</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>89972549457415.94</v>
+        <v>81298434928748.75</v>
       </c>
       <c r="B178">
-        <v>601.7514112751385</v>
+        <v>601.5157556091264</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>88642554763950.08</v>
+        <v>80096200663272.88</v>
       </c>
       <c r="B179">
-        <v>484.4435372947149</v>
+        <v>484.2592697567759</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>86312987591488.02</v>
+        <v>77990446598303.34</v>
       </c>
       <c r="B180">
-        <v>642.0395559801846</v>
+        <v>641.7934787390101</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>85953842307294.2</v>
+        <v>77665809916656.48</v>
       </c>
       <c r="B181">
-        <v>774.237029355028</v>
+        <v>773.952935983536</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>84092638033190.66</v>
+        <v>75983456087492.52</v>
       </c>
       <c r="B182">
-        <v>527.6174918664253</v>
+        <v>527.4234270302802</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>82766205834677.78</v>
+        <v>74784502329872.69</v>
       </c>
       <c r="B183">
-        <v>491.6552739878548</v>
+        <v>491.4798085091781</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>80725799103004.69</v>
+        <v>72940218052680.09</v>
       </c>
       <c r="B184">
-        <v>433.1517531652355</v>
+        <v>432.998912000449</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>79038837838907.02</v>
+        <v>71415430674902.59</v>
       </c>
       <c r="B185">
-        <v>454.2649666860509</v>
+        <v>454.1088039060675</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>77245942911781.73</v>
+        <v>69794917628613.66</v>
       </c>
       <c r="B186">
-        <v>330.0210749618221</v>
+        <v>329.911527151164</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>74357564503819.67</v>
+        <v>67184301303261.45</v>
       </c>
       <c r="B187">
-        <v>287.0954557125146</v>
+        <v>287.0015802438515</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>72065953955197.31</v>
+        <v>65113110563566.96</v>
       </c>
       <c r="B188">
-        <v>375.2338898932516</v>
+        <v>375.1146051487686</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>70516442691730.73</v>
+        <v>63712663053519.41</v>
       </c>
       <c r="B189">
-        <v>368.9043578679631</v>
+        <v>368.7918435163217</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>68242933641787.52</v>
+        <v>61657900575946.95</v>
       </c>
       <c r="B190">
-        <v>432.2200938532172</v>
+        <v>432.0885088373859</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>67358656433650.69</v>
+        <v>60858715340730.24</v>
       </c>
       <c r="B191">
-        <v>786.0792635202145</v>
+        <v>785.8474353449893</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>66529145743808.74</v>
+        <v>60109032116154.54</v>
       </c>
       <c r="B192">
-        <v>515.4415945340447</v>
+        <v>515.293580829681</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>64777213785276.6</v>
+        <v>58525713946869.67</v>
       </c>
       <c r="B193">
-        <v>472.983426248262</v>
+        <v>472.8476911823809</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>63790055526669.76</v>
+        <v>57633574794981.15</v>
       </c>
       <c r="B194">
-        <v>636.8582171735463</v>
+        <v>636.6803241708976</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>62773940409617.64</v>
+        <v>56715273994291.16</v>
       </c>
       <c r="B195">
-        <v>490.4331511343764</v>
+        <v>490.2993482067535</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>61230116816799.88</v>
+        <v>55320079000963.69</v>
       </c>
       <c r="B196">
-        <v>459.5185676860909</v>
+        <v>459.3943428335566</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>60108972283296.88</v>
+        <v>54306882168664.92</v>
       </c>
       <c r="B197">
-        <v>411.962028091719</v>
+        <v>411.8545996013281</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>58311936587338.8</v>
+        <v>52682891885839.38</v>
       </c>
       <c r="B198">
-        <v>322.0756820937015</v>
+        <v>321.9932690994564</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>56487963940892.8</v>
+        <v>51034584456779.09</v>
       </c>
       <c r="B199">
-        <v>337.6802064969442</v>
+        <v>337.5959619892611</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>54966288080019.25</v>
+        <v>49659479866568.7</v>
       </c>
       <c r="B200">
-        <v>365.65304497265</v>
+        <v>365.5646353173374</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>53481491612233.22</v>
+        <v>48317719909777.12</v>
       </c>
       <c r="B201">
-        <v>350.1329282970285</v>
+        <v>350.0506950327301</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>51911363090681.3</v>
+        <v>46898867155586.39</v>
       </c>
       <c r="B202">
-        <v>422.7532695580524</v>
+        <v>422.65542321165</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>51025621163498.45</v>
+        <v>46098471577449.38</v>
       </c>
       <c r="B203">
-        <v>405.6392569462226</v>
+        <v>405.5494469126305</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>49395550319124.86</v>
+        <v>44625483629686.48</v>
       </c>
       <c r="B204">
-        <v>286.0130279873033</v>
+        <v>285.9510309019545</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>47571544216953.36</v>
+        <v>42977273973165.34</v>
       </c>
       <c r="B205">
-        <v>375.0448145568105</v>
+        <v>374.9643386243104</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>46858704461214.85</v>
+        <v>42333144356525.59</v>
       </c>
       <c r="B206">
-        <v>527.3349265520635</v>
+        <v>527.2267678506322</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>45794354726866.03</v>
+        <v>41371394039219.38</v>
       </c>
       <c r="B207">
-        <v>465.3682670504204</v>
+        <v>465.2739215276018</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>44890613468800.69</v>
+        <v>40554777157118.08</v>
       </c>
       <c r="B208">
-        <v>572.0199184354854</v>
+        <v>571.9059977193025</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>44224807512790.72</v>
+        <v>39953161766123.96</v>
       </c>
       <c r="B209">
-        <v>586.3452432209866</v>
+        <v>586.2312266258252</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>43382123103300.37</v>
+        <v>39191725857511.2</v>
       </c>
       <c r="B210">
-        <v>319.2250953365372</v>
+        <v>319.1653849884078</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>41506843058425.65</v>
+        <v>37497273521292.23</v>
       </c>
       <c r="B211">
-        <v>310.3724300776177</v>
+        <v>310.3140370073546</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>40707475548551.66</v>
+        <v>36774995123515.84</v>
       </c>
       <c r="B212">
-        <v>642.7899051573069</v>
+        <v>642.6732996269541</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>40240255788714.57</v>
+        <v>36352835277324.03</v>
       </c>
       <c r="B213">
-        <v>507.460246693299</v>
+        <v>507.3714116684947</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>39121528430489.61</v>
+        <v>35342007988597.16</v>
       </c>
       <c r="B214">
-        <v>290.1455332679379</v>
+        <v>290.0959098875808</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>37543572645613.24</v>
+        <v>33916261248941.96</v>
       </c>
       <c r="B215">
-        <v>278.989999191757</v>
+        <v>278.9430704852243</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>36430136426878.13</v>
+        <v>32910238582033.7</v>
       </c>
       <c r="B216">
-        <v>383.0594472281629</v>
+        <v>382.9971081282163</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>35641510879979.29</v>
+        <v>32197697955194.25</v>
       </c>
       <c r="B217">
-        <v>463.6176156693364</v>
+        <v>463.5443435860677</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>34892597313808.72</v>
+        <v>31521042557933.54</v>
       </c>
       <c r="B218">
-        <v>403.9000689278793</v>
+        <v>403.8380355032288</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>33913727202871.81</v>
+        <v>30636624465984.41</v>
       </c>
       <c r="B219">
-        <v>293.4486934523546</v>
+        <v>293.405039599106</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>32581206739607.5</v>
+        <v>29432692302747.41</v>
       </c>
       <c r="B220">
-        <v>281.5643296321896</v>
+        <v>281.5232117317366</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>31599427889306.86</v>
+        <v>28545664212888.55</v>
       </c>
       <c r="B221">
-        <v>327.4971851902081</v>
+        <v>327.4512247702283</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>30651454099385.3</v>
+        <v>27689185969374</v>
       </c>
       <c r="B222">
-        <v>360.9263941559977</v>
+        <v>360.8769811859407</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>29900940075964.1</v>
+        <v>27011114357235.26</v>
       </c>
       <c r="B223">
-        <v>491.6573518959358</v>
+        <v>491.5914697121018</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>29435121628787.25</v>
+        <v>26590260702299.93</v>
       </c>
       <c r="B224">
-        <v>495.2690746999198</v>
+        <v>495.2049049470605</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>28712288365916.51</v>
+        <v>25937204933614.24</v>
       </c>
       <c r="B225">
-        <v>293.4218755536847</v>
+        <v>293.3851192191068</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>27478056341017.83</v>
+        <v>24822127062621.84</v>
       </c>
       <c r="B226">
-        <v>307.8614409432045</v>
+        <v>307.8229199628904</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>26927195938827.79</v>
+        <v>24324451272151.12</v>
       </c>
       <c r="B227">
-        <v>395.3128203908809</v>
+        <v>395.2659635592913</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>26115732907530.27</v>
+        <v>23591337998311.1</v>
       </c>
       <c r="B228">
-        <v>654.3855571458588</v>
+        <v>654.3071868633092</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>26129020226593.69</v>
+        <v>23603342335188.16</v>
       </c>
       <c r="B229">
-        <v>-1784.413179994054</v>
+        <v>-1784.203778253019</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>26408591316328.62</v>
+        <v>23855919237549.35</v>
       </c>
       <c r="B230">
-        <v>32163.19135258151</v>
+        <v>32159.4971787316</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>26112598602864.36</v>
+        <v>23588506332557.3</v>
       </c>
       <c r="B231">
-        <v>748.8023469636362</v>
+        <v>748.7157600097448</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>25711141616584.76</v>
+        <v>23225813459296.46</v>
       </c>
       <c r="B232">
-        <v>398.1428608299443</v>
+        <v>398.0982005430674</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>24821045035233.43</v>
+        <v>22421667927982.1</v>
       </c>
       <c r="B233">
-        <v>329.6142159788354</v>
+        <v>329.5774219126287</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>24205075201243.79</v>
+        <v>21865182151613.85</v>
       </c>
       <c r="B234">
-        <v>403.8448488305903</v>
+        <v>403.8012950364333</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>23622313627796.43</v>
+        <v>21338700517011.26</v>
       </c>
       <c r="B235">
-        <v>347.5689452801003</v>
+        <v>347.5327029596622</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>22845787270110.61</v>
+        <v>20637171070337.96</v>
       </c>
       <c r="B236">
-        <v>337.2702608511803</v>
+        <v>337.235661516028</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>22267567009315.81</v>
+        <v>20114798455315.62</v>
       </c>
       <c r="B237">
-        <v>427.0558243141702</v>
+        <v>427.0132639331613</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>21802946229594.35</v>
+        <v>19695055208641.26</v>
       </c>
       <c r="B238">
-        <v>237.5539718615021</v>
+        <v>237.5318591165407</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>20431946576725.79</v>
+        <v>18456489941931.88</v>
       </c>
       <c r="B239">
-        <v>155.6928584886497</v>
+        <v>155.678601903215</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>19178298345925.96</v>
+        <v>17323953500854.05</v>
       </c>
       <c r="B240">
-        <v>226.1447508448775</v>
+        <v>226.1245996896028</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>18735838373968.41</v>
+        <v>16924241480275.39</v>
       </c>
       <c r="B241">
-        <v>288.7346611550284</v>
+        <v>288.7110677750946</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>17880508998500.98</v>
+        <v>16151553591789.34</v>
       </c>
       <c r="B242">
-        <v>336.5720371493184</v>
+        <v>336.544222423269</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>17673331271480.42</v>
+        <v>15964394154685.3</v>
       </c>
       <c r="B243">
-        <v>393.1242427486432</v>
+        <v>393.0940948776042</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>16981387074708.53</v>
+        <v>15339310703243.47</v>
       </c>
       <c r="B244">
-        <v>192.1003652921514</v>
+        <v>192.0861367177498</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>15905360966074.4</v>
+        <v>14367265807439.4</v>
       </c>
       <c r="B245">
-        <v>259.7802484786246</v>
+        <v>259.7607304275671</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>15756862803966.43</v>
+        <v>14233118417458.71</v>
       </c>
       <c r="B246">
-        <v>1574.423285300964</v>
+        <v>1574.311850054573</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>15705200526997.13</v>
+        <v>14186448793110.69</v>
       </c>
       <c r="B247">
-        <v>363.9129374563757</v>
+        <v>363.8886513053786</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>14893733252334.05</v>
+        <v>13453404692272.75</v>
       </c>
       <c r="B248">
-        <v>282.3668413736593</v>
+        <v>282.3473451333332</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>14650279688567.3</v>
+        <v>13233480406889.83</v>
       </c>
       <c r="B249">
-        <v>3567.968205545938</v>
+        <v>3567.72830009504</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>14811612118710.75</v>
+        <v>13379220341370.59</v>
       </c>
       <c r="B250">
-        <v>-3484.283392566979</v>
+        <v>-3484.056586111099</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>14735299248975.67</v>
+        <v>13310282950193.55</v>
       </c>
       <c r="B251">
-        <v>508.4474322571214</v>
+        <v>508.4149364073538</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>14231992739631.1</v>
+        <v>12855621131471.33</v>
       </c>
       <c r="B252">
-        <v>235.4522946837881</v>
+        <v>235.437537242328</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>13526392556539.76</v>
+        <v>12218220802241.38</v>
       </c>
       <c r="B253">
-        <v>420.4786299307336</v>
+        <v>420.4517761922305</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>13588612001886.21</v>
+        <v>12274426259950.31</v>
       </c>
       <c r="B254">
-        <v>349.1602856425757</v>
+        <v>349.1404895926706</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>12748033014481.39</v>
+        <v>11515098327144.29</v>
       </c>
       <c r="B255">
-        <v>247.3581859237352</v>
+        <v>247.3433734971777</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>12557877323195.46</v>
+        <v>11343324030338.68</v>
       </c>
       <c r="B256">
-        <v>1452.610680944565</v>
+        <v>1452.527791775627</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>12575132216106.02</v>
+        <v>11358910967500.42</v>
       </c>
       <c r="B257">
-        <v>947.4514694673637</v>
+        <v>947.399476610588</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>12292425579832.28</v>
+        <v>11103532659371.53</v>
       </c>
       <c r="B258">
-        <v>251.0810300221831</v>
+        <v>251.0676948390966</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>11595972175321.91</v>
+        <v>10474405880815.57</v>
       </c>
       <c r="B259">
-        <v>162.8309168150488</v>
+        <v>162.8224957001453</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>10868129456941.44</v>
+        <v>9816928393078.363</v>
       </c>
       <c r="B260">
-        <v>203.991089359481</v>
+        <v>203.9808168270134</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>10530422744602.49</v>
+        <v>9511871408625.109</v>
       </c>
       <c r="B261">
-        <v>375.0324614904262</v>
+        <v>375.0146022258356</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>10306555522634.35</v>
+        <v>9309648337732.836</v>
       </c>
       <c r="B262">
-        <v>261.2411628729798</v>
+        <v>261.2295139153873</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>9741377449497.477</v>
+        <v>8799115166177.844</v>
       </c>
       <c r="B263">
-        <v>150.700213299005</v>
+        <v>150.6937527661468</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>9013740172709.186</v>
+        <v>8141834144422.152</v>
       </c>
       <c r="B264">
-        <v>133.8752920734135</v>
+        <v>133.8698250399275</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>8394789885338.689</v>
+        <v>7582734381039.172</v>
       </c>
       <c r="B265">
-        <v>166.4868728319675</v>
+        <v>166.4804438743041</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>8005277494235.858</v>
+        <v>7230888185296.25</v>
       </c>
       <c r="B266">
-        <v>272.699388853959</v>
+        <v>272.6893782009585</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>7807676175412.262</v>
+        <v>7052395558676.429</v>
       </c>
       <c r="B267">
-        <v>323.6277538909019</v>
+        <v>323.616563215592</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>7522767815659.631</v>
+        <v>6795039322147.786</v>
       </c>
       <c r="B268">
-        <v>465.1247190321871</v>
+        <v>465.1085332237749</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>7484203029056.475</v>
+        <v>6760204001791.853</v>
       </c>
       <c r="B269">
-        <v>-5355.421618686654</v>
+        <v>-5355.239561733793</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>7550717820577.794</v>
+        <v>6820286386910.667</v>
       </c>
       <c r="B270">
-        <v>636.3415993780048</v>
+        <v>636.3211311481526</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>7246886536532.387</v>
+        <v>6545837825562.425</v>
       </c>
       <c r="B271">
-        <v>336.0898382279216</v>
+        <v>336.0786618726083</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>7119470831692.764</v>
+        <v>6430744379745.473</v>
       </c>
       <c r="B272">
-        <v>1213.727109351125</v>
+        <v>1213.687649885387</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>7129570695486.388</v>
+        <v>6439867489943.49</v>
       </c>
       <c r="B273">
-        <v>-989.4660529788117</v>
+        <v>-989.4339000473929</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>7263580286969.631</v>
+        <v>6560917148025.092</v>
       </c>
       <c r="B274">
-        <v>-2526.869080630182</v>
+        <v>-2526.78923723397</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>7187061448312.871</v>
+        <v>6491798351855.877</v>
       </c>
       <c r="B275">
-        <v>1670.004032527436</v>
+        <v>1669.949761901093</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>7177507902612.141</v>
+        <v>6483168721096.779</v>
       </c>
       <c r="B276">
-        <v>319.3030709261955</v>
+        <v>319.2934186487194</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>6737488077045.714</v>
+        <v>6085703622529.208</v>
       </c>
       <c r="B277">
-        <v>249.0414424572892</v>
+        <v>249.0335464084776</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>6636434255546.254</v>
+        <v>5994423031185.017</v>
       </c>
       <c r="B278">
-        <v>593.6346193477841</v>
+        <v>593.6170231734278</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>6513901579922.699</v>
+        <v>5883740983414.199</v>
       </c>
       <c r="B279">
-        <v>-5561.088802883694</v>
+        <v>-5560.919793276145</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>6659860968590.451</v>
+        <v>6015584066417.097</v>
       </c>
       <c r="B280">
-        <v>-7340.510438145297</v>
+        <v>-7340.30037413847</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>6532047078181.19</v>
+        <v>5900131549902.763</v>
       </c>
       <c r="B281">
-        <v>254.3442255989878</v>
+        <v>254.337074389356</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>6146222645345.797</v>
+        <v>5551622485977.552</v>
       </c>
       <c r="B282">
-        <v>163.6583854727306</v>
+        <v>163.6538622464454</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>5780943170172.771</v>
+        <v>5221672464394.91</v>
       </c>
       <c r="B283">
-        <v>289.3869899162397</v>
+        <v>289.3790621401156</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>5746692371241.489</v>
+        <v>5190734422703.187</v>
       </c>
       <c r="B284">
-        <v>226.963326646466</v>
+        <v>226.9579251265394</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>5274544849690.542</v>
+        <v>4764254251762.844</v>
       </c>
       <c r="B285">
-        <v>135.1699431849738</v>
+        <v>135.1666475113111</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>4966260756726.036</v>
+        <v>4485789180739.681</v>
       </c>
       <c r="B286">
-        <v>209.6134253362246</v>
+        <v>209.6086235500449</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>4800695357582.862</v>
+        <v>4336238542793.819</v>
       </c>
       <c r="B287">
-        <v>-2765.267969419005</v>
+        <v>-2765.203907774177</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>5000982132091.271</v>
+        <v>4517152065267.674</v>
       </c>
       <c r="B288">
-        <v>-621.8591337553564</v>
+        <v>-621.8458570340683</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>4961535067434.538</v>
+        <v>4481520593455.458</v>
       </c>
       <c r="B289">
-        <v>286.3441480657779</v>
+        <v>286.3381209739188</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>4654438638819.335</v>
+        <v>4204129085427.44</v>
       </c>
       <c r="B290">
-        <v>254.0395507746778</v>
+        <v>254.0339662312474</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>4595100894123.655</v>
+        <v>4150531068881.376</v>
       </c>
       <c r="B291">
-        <v>257.6517685567203</v>
+        <v>257.6467338089873</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>4297747829370.313</v>
+        <v>3881941335750.142</v>
       </c>
       <c r="B292">
-        <v>129.8686772690276</v>
+        <v>129.8662129921064</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>3933240325471.322</v>
+        <v>3552694072435.497</v>
       </c>
       <c r="B293">
-        <v>257.4817187282883</v>
+        <v>257.4766870219364</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>3992231744974.282</v>
+        <v>3605978947579.999</v>
       </c>
       <c r="B294">
-        <v>3214.522409452874</v>
+        <v>3214.466901275389</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>3908401601477.771</v>
+        <v>3530258134792.778</v>
       </c>
       <c r="B295">
-        <v>-822.5963690477029</v>
+        <v>-822.5809782266718</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>4087257732166.578</v>
+        <v>3691812640024.562</v>
       </c>
       <c r="B296">
-        <v>1758.056990347953</v>
+        <v>1758.027943853061</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>3861904158509.695</v>
+        <v>3488258658584.985</v>
       </c>
       <c r="B297">
-        <v>1336.907769476965</v>
+        <v>1336.882253788831</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>4029484051039.411</v>
+        <v>3639627660402.025</v>
       </c>
       <c r="B298">
-        <v>-398.9923723713115</v>
+        <v>-398.9853987799408</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>4063887170219.477</v>
+        <v>3670702811756.087</v>
       </c>
       <c r="B299">
-        <v>-1469.138301343609</v>
+        <v>-1469.111609206498</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>4084807462953.767</v>
+        <v>3689599395547.985</v>
       </c>
       <c r="B300">
-        <v>-764.598217900298</v>
+        <v>-764.5839856436472</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>4170735639580.844</v>
+        <v>3767215411152.005</v>
       </c>
       <c r="B301">
-        <v>-485.3746237024914</v>
+        <v>-485.3657304919549</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_Sinton_Mode.xlsx
+++ b/Lifetime_Sinton_Mode.xlsx
@@ -393,2402 +393,2396 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2.029498807102842E+16</v>
+        <v>1718743183676298</v>
       </c>
       <c r="B2">
-        <v>96.823678788411</v>
+        <v>136.9683925810431</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1.883143759659196E+16</v>
+        <v>1664640412252630</v>
       </c>
       <c r="B3">
-        <v>100.8283613502906</v>
+        <v>143.0136267672677</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1.735300191366612E+16</v>
+        <v>1616930804925882</v>
       </c>
       <c r="B4">
-        <v>101.8904006031313</v>
+        <v>140.3149348216256</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>1.594216199176305E+16</v>
+        <v>1560682689967884</v>
       </c>
       <c r="B5">
-        <v>104.7694263539641</v>
+        <v>139.3825017861036</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1.465418155447296E+16</v>
+        <v>1514205582351002</v>
       </c>
       <c r="B6">
-        <v>108.8946298525309</v>
+        <v>159.8254022323976</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1.348567375152574E+16</v>
+        <v>1473792099968206</v>
       </c>
       <c r="B7">
-        <v>112.660724739436</v>
+        <v>155.3902398196978</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1.242433198390352E+16</v>
+        <v>1424862413050778</v>
       </c>
       <c r="B8">
-        <v>115.9781448213224</v>
+        <v>150.8626321376582</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1.145989746170802E+16</v>
+        <v>1383365308758617</v>
       </c>
       <c r="B9">
-        <v>120.7005063624061</v>
+        <v>163.5888767313699</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>1.061016785146037E+16</v>
+        <v>1343383440978140</v>
       </c>
       <c r="B10">
-        <v>126.465082239819</v>
+        <v>168.2590410340374</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>9845525217272062</v>
+        <v>1304813642830187</v>
       </c>
       <c r="B11">
-        <v>129.7782779241508</v>
+        <v>174.0885448827165</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>9142383721148630</v>
+        <v>1269316819984603</v>
       </c>
       <c r="B12">
-        <v>133.8231474949245</v>
+        <v>192.9184892931317</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>8518170395694137</v>
+        <v>1239274249437774</v>
       </c>
       <c r="B13">
-        <v>140.4132729209766</v>
+        <v>187.8625059046505</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>7960166946067989</v>
+        <v>1202288948537669</v>
       </c>
       <c r="B14">
-        <v>145.6304207159895</v>
+        <v>181.3524855560763</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>7449603852749927</v>
+        <v>1171443689831108</v>
       </c>
       <c r="B15">
-        <v>148.8657244953637</v>
+        <v>196.5628856026358</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>6978683385287186</v>
+        <v>1141005174580041</v>
       </c>
       <c r="B16">
-        <v>153.7949278968827</v>
+        <v>215.229985574757</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>6557122200830397</v>
+        <v>1116309858065316</v>
       </c>
       <c r="B17">
-        <v>160.6802050092383</v>
+        <v>249.2717935632816</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6174319843139646</v>
+        <v>1094431022094024</v>
       </c>
       <c r="B18">
-        <v>164.5784826201601</v>
+        <v>218.9340290452696</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5815962972352836</v>
+        <v>1064321217106152</v>
       </c>
       <c r="B19">
-        <v>168.6079693758144</v>
+        <v>203.0191943836479</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5491379348784380</v>
+        <v>1039909376042238</v>
       </c>
       <c r="B20">
-        <v>176.6446784706577</v>
+        <v>202.164580476724</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5199490836588972</v>
+        <v>1010824914809595</v>
       </c>
       <c r="B21">
-        <v>181.9636869327499</v>
+        <v>176.594894141793</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>4923908182543817</v>
+        <v>980380026877822.2</v>
       </c>
       <c r="B22">
-        <v>185.1683175832235</v>
+        <v>215.7615346724655</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>4670411560396624</v>
+        <v>963569261502312.1</v>
       </c>
       <c r="B23">
-        <v>192.4690407301573</v>
+        <v>244.0638356416345</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>4440498492198954</v>
+        <v>939320603660618.2</v>
       </c>
       <c r="B24">
-        <v>197.8055425721938</v>
+        <v>188.3188122264182</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>4222458429127240</v>
+        <v>911694814321086.9</v>
       </c>
       <c r="B25">
-        <v>199.2479470045897</v>
+        <v>214.7288188509238</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>4017230931248834</v>
+        <v>895164322637520</v>
       </c>
       <c r="B26">
-        <v>204.687786301513</v>
+        <v>291.8338221225883</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>3830272459658670</v>
+        <v>879794094631648.2</v>
       </c>
       <c r="B27">
-        <v>210.9457394354501</v>
+        <v>219.5475187899145</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>3654078542401392</v>
+        <v>853488339986471.9</v>
       </c>
       <c r="B28">
-        <v>216.9259754416912</v>
+        <v>209.3399695086129</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>3493376102736804</v>
+        <v>837392833388060.8</v>
       </c>
       <c r="B29">
-        <v>226.9719448478901</v>
+        <v>285.8587740944283</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>3346254057302323</v>
+        <v>823022647636028.1</v>
       </c>
       <c r="B30">
-        <v>230.2522776049665</v>
+        <v>258.7138422390039</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>3202716301920993</v>
+        <v>804308266047797</v>
       </c>
       <c r="B31">
-        <v>231.7704672698763</v>
+        <v>225.56920046389</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>3069884393846304</v>
+        <v>785939544314765.1</v>
       </c>
       <c r="B32">
-        <v>236.634824180551</v>
+        <v>230.4039497955524</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>2943254542268576</v>
+        <v>768832436453180.6</v>
       </c>
       <c r="B33">
-        <v>242.3868995137277</v>
+        <v>250.805665269907</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>2827028484704904</v>
+        <v>754058855612983.9</v>
       </c>
       <c r="B34">
-        <v>249.8482484336067</v>
+        <v>238.4092236621186</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>2716954898190332</v>
+        <v>735938524137567.8</v>
       </c>
       <c r="B35">
-        <v>251.5708611952826</v>
+        <v>260.176370686142</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>2611029311725861</v>
+        <v>724641270031149.2</v>
       </c>
       <c r="B36">
-        <v>255.624939890757</v>
+        <v>322.19385185054</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>2512668938233396</v>
+        <v>712548043018704.4</v>
       </c>
       <c r="B37">
-        <v>262.0719256465763</v>
+        <v>287.9462261875519</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>2419275163925846</v>
+        <v>698905563244814.1</v>
       </c>
       <c r="B38">
-        <v>273.9301941274014</v>
+        <v>253.3558207836252</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>2336034509770160</v>
+        <v>683858677069801.5</v>
       </c>
       <c r="B39">
-        <v>276.6450280604</v>
+        <v>235.4606427798131</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>2250391990702134</v>
+        <v>668700386882594.2</v>
       </c>
       <c r="B40">
-        <v>276.0051466161297</v>
+        <v>308.2201216527057</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>2172965667156729</v>
+        <v>661295309090162.8</v>
       </c>
       <c r="B41">
-        <v>278.4057311757032</v>
+        <v>303.5254504109396</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>2094291348809432</v>
+        <v>646041755768708</v>
       </c>
       <c r="B42">
-        <v>273.0949677851402</v>
+        <v>262.2520719838172</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>2019591083524186</v>
+        <v>635675552459949.6</v>
       </c>
       <c r="B43">
-        <v>288.3133501229134</v>
+        <v>321.7808510890777</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>1954194396471762</v>
+        <v>625496637178809.8</v>
       </c>
       <c r="B44">
-        <v>306.9763582632285</v>
+        <v>278.5132819460345</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>1892272197631608</v>
+        <v>612318802716430.9</v>
       </c>
       <c r="B45">
-        <v>301.0166616392287</v>
+        <v>295.8069792111945</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>1828468983976190</v>
+        <v>603968694987478.8</v>
       </c>
       <c r="B46">
-        <v>298.7891875042938</v>
+        <v>282.9675388847326</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>1769880286515352</v>
+        <v>590120940542464.4</v>
       </c>
       <c r="B47">
-        <v>308.7503559483205</v>
+        <v>275.6257358038159</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>1713821000424611</v>
+        <v>581702059530730.2</v>
       </c>
       <c r="B48">
-        <v>308.3053321464154</v>
+        <v>346.1806154489147</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>1658703422431100</v>
+        <v>572645376778518.4</v>
       </c>
       <c r="B49">
-        <v>304.5459911496912</v>
+        <v>273.9907538933495</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>1604891415361329</v>
+        <v>559965881087224.2</v>
       </c>
       <c r="B50">
-        <v>318.9268997250282</v>
+        <v>255.3400927358664</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>1558060208155664</v>
+        <v>549837970777725</v>
       </c>
       <c r="B51">
-        <v>334.278602184142</v>
+        <v>315.1360299572767</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>1511672154662291</v>
+        <v>541820336457295.4</v>
       </c>
       <c r="B52">
-        <v>343.545507360511</v>
+        <v>281.2131926142186</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>1470056021096046</v>
+        <v>529800036402127.8</v>
       </c>
       <c r="B53">
-        <v>350.4904894444554</v>
+        <v>260.2422854783128</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>1427786510665152</v>
+        <v>520648064747280.4</v>
       </c>
       <c r="B54">
-        <v>325.2143558433444</v>
+        <v>332.390150120507</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>1382250148753011</v>
+        <v>513509722530285.8</v>
       </c>
       <c r="B55">
-        <v>325.6629913374213</v>
+        <v>270.3857549607861</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>1342898133077238</v>
+        <v>500896650272470.5</v>
       </c>
       <c r="B56">
-        <v>357.7211494465384</v>
+        <v>218.1244861196593</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>1307169425393212</v>
+        <v>489627373255771.5</v>
       </c>
       <c r="B57">
-        <v>359.1003038676467</v>
+        <v>435.5865515871303</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>1270095664724274</v>
+        <v>489206379617175.8</v>
       </c>
       <c r="B58">
-        <v>346.6370935108927</v>
+        <v>649.2756842870535</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>1233888424109698</v>
+        <v>481791339239488.6</v>
       </c>
       <c r="B59">
-        <v>349.2475687338716</v>
+        <v>325.8789633086499</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>1199435850049949</v>
+        <v>473830640486248.9</v>
       </c>
       <c r="B60">
-        <v>345.6087253024554</v>
+        <v>373.5766818304778</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>1164478379615000</v>
+        <v>468600369618710.4</v>
       </c>
       <c r="B61">
-        <v>354.0115636998191</v>
+        <v>278.0353218458655</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>1133648260094136</v>
+        <v>456302494020253.5</v>
       </c>
       <c r="B62">
-        <v>378.0125050489091</v>
+        <v>239.0573174882088</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>1104498974439108</v>
+        <v>448749289602953.7</v>
       </c>
       <c r="B63">
-        <v>364.6534847792096</v>
+        <v>363.4748400854073</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>1073070258207887</v>
+        <v>443462560970763.4</v>
       </c>
       <c r="B64">
-        <v>356.295168893765</v>
+        <v>358.2737745642832</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>1044264070803474</v>
+        <v>435876422646099.6</v>
       </c>
       <c r="B65">
-        <v>382.1390640719784</v>
+        <v>353.8777610367747</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>1018416642862936</v>
+        <v>430652728608767.7</v>
       </c>
       <c r="B66">
-        <v>372.3435951211695</v>
+        <v>368.957266113899</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>989561013938402.1</v>
+        <v>423737378944088.4</v>
       </c>
       <c r="B67">
-        <v>359.0176438507411</v>
+        <v>377.2321619955584</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>963290604859644.6</v>
+        <v>418970615615787</v>
       </c>
       <c r="B68">
-        <v>374.2777508689081</v>
+        <v>314.7806473935916</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>938086374977186.1</v>
+        <v>409895059098561.2</v>
       </c>
       <c r="B69">
-        <v>385.5196081506471</v>
+        <v>235.4980035490533</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>914624526395972</v>
+        <v>400868939379125.8</v>
       </c>
       <c r="B70">
-        <v>390.5157284295624</v>
+        <v>355.1363548458831</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>891244495902349.2</v>
+        <v>398155802014188.2</v>
       </c>
       <c r="B71">
-        <v>424.2699941780755</v>
+        <v>518.4190725930812</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>872611444720048.8</v>
+        <v>392881539686758</v>
       </c>
       <c r="B72">
-        <v>440.2253326717442</v>
+        <v>371.8502236613948</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>851600641723211.5</v>
+        <v>387167592910775.2</v>
       </c>
       <c r="B73">
-        <v>387.6478731689479</v>
+        <v>376.8812567171119</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>828674629859616.8</v>
+        <v>382197689284257.5</v>
       </c>
       <c r="B74">
-        <v>380.4022056809866</v>
+        <v>386.3770741893599</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>808032301819601.4</v>
+        <v>376880088205958.8</v>
       </c>
       <c r="B75">
-        <v>386.3079922347215</v>
+        <v>324.5031268096376</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>786841050536275.4</v>
+        <v>370119060163246.6</v>
       </c>
       <c r="B76">
-        <v>394.4549036316832</v>
+        <v>277.6318895021046</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>768137193745549.9</v>
+        <v>363015548968046</v>
       </c>
       <c r="B77">
-        <v>435.5295051264993</v>
+        <v>414.8620515642139</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>751567334992138</v>
+        <v>361018778045292.2</v>
       </c>
       <c r="B78">
-        <v>452.807906471083</v>
+        <v>395.848297185546</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>734941336330010.9</v>
+        <v>353530614162551.2</v>
       </c>
       <c r="B79">
-        <v>423.8303129690251</v>
+        <v>255.062741246983</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>716886411337499.8</v>
+        <v>346603821280869.1</v>
       </c>
       <c r="B80">
-        <v>394.7870505799531</v>
+        <v>421.9531736438441</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>698623710902106.1</v>
+        <v>344987771102047.1</v>
       </c>
       <c r="B81">
-        <v>404.1869103856681</v>
+        <v>572.0830283525161</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>682317072600849.8</v>
+        <v>340332226701680.7</v>
       </c>
       <c r="B82">
-        <v>412.0688420280727</v>
+        <v>325.8838264405353</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>665507056449772.5</v>
+        <v>334126676225516.5</v>
       </c>
       <c r="B83">
-        <v>397.0602618951659</v>
+        <v>299.269287565326</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>648795357117496.8</v>
+        <v>328720886757594.8</v>
       </c>
       <c r="B84">
-        <v>427.5340602455476</v>
+        <v>383.8960629560175</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>635156475410925.1</v>
+        <v>325221408492487.8</v>
       </c>
       <c r="B85">
-        <v>461.0432007072771</v>
+        <v>315.2959515059151</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>621242343671618.1</v>
+        <v>317993496722400</v>
       </c>
       <c r="B86">
-        <v>433.0447955404246</v>
+        <v>313.5164815383669</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>606464647218124.5</v>
+        <v>314672896498204.6</v>
       </c>
       <c r="B87">
-        <v>395.7496650365329</v>
+        <v>510.7303695121745</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>590593441054750.9</v>
+        <v>311585814080173</v>
       </c>
       <c r="B88">
-        <v>417.5074761116938</v>
+        <v>366.0644423286309</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>578173252460117.4</v>
+        <v>305820650577185.3</v>
       </c>
       <c r="B89">
-        <v>452.8363521447915</v>
+        <v>266.9339454971696</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>565057803302981.1</v>
+        <v>299670751123009.8</v>
       </c>
       <c r="B90">
-        <v>424.1731306616961</v>
+        <v>335.6390946311911</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>551530461464775.1</v>
+        <v>296535153561100.6</v>
       </c>
       <c r="B91">
-        <v>456.5117148716602</v>
+        <v>641.1198451945514</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>540894985855028.9</v>
+        <v>294860471703099.5</v>
       </c>
       <c r="B92">
-        <v>490.4275507183304</v>
+        <v>509.1575927850315</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>529472361952919.4</v>
+        <v>290512364253494.2</v>
       </c>
       <c r="B93">
-        <v>422.8468040051725</v>
+        <v>328.5452240626734</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>515851761834518.5</v>
+        <v>285664390412141.5</v>
       </c>
       <c r="B94">
-        <v>410.7954171186795</v>
+        <v>343.677586085594</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>504357585091351.4</v>
+        <v>281867896937123</v>
       </c>
       <c r="B95">
-        <v>456.2596915789145</v>
+        <v>437.3406046817196</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>493743405808326.8</v>
+        <v>278961545771682.2</v>
       </c>
       <c r="B96">
-        <v>426.7809384192631</v>
+        <v>397.6721264598726</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>481219559872273.6</v>
+        <v>274572439491180.4</v>
       </c>
       <c r="B97">
-        <v>397.8934356556988</v>
+        <v>309.0875765154772</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>469555041952599.8</v>
+        <v>269722891138906.2</v>
       </c>
       <c r="B98">
-        <v>465.347564819077</v>
+        <v>345.4983443601221</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>461038728276640.1</v>
+        <v>266453390257992.9</v>
       </c>
       <c r="B99">
-        <v>533.7520835140633</v>
+        <v>1485.173958712995</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>452279653527273.1</v>
+        <v>267857038830881.2</v>
       </c>
       <c r="B100">
-        <v>512.2751090768627</v>
+        <v>851.3168305775473</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>443381042181280.2</v>
+        <v>263181150001740.3</v>
       </c>
       <c r="B101">
-        <v>481.3168932834719</v>
+        <v>258.0197929163908</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>433855989269133.2</v>
+        <v>257249000086717.8</v>
       </c>
       <c r="B102">
-        <v>403.3575682087646</v>
+        <v>211.9889752133511</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>421868814646003.9</v>
+        <v>250560731424739.8</v>
       </c>
       <c r="B103">
-        <v>377.9685727777021</v>
+        <v>275.1202626947779</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>411533032016593.5</v>
+        <v>247777390902816.1</v>
       </c>
       <c r="B104">
-        <v>390.9929764648995</v>
+        <v>433.7997605041907</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>400818153545264.7</v>
+        <v>244620467966792.6</v>
       </c>
       <c r="B105">
-        <v>422.8554915444173</v>
+        <v>566.4257053746187</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>392575342613940.4</v>
+        <v>243285975978113.7</v>
       </c>
       <c r="B106">
-        <v>519.8553994206303</v>
+        <v>3904.653205258706</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>385714902023727.9</v>
+        <v>243972478499568</v>
       </c>
       <c r="B107">
-        <v>562.1142240154919</v>
+        <v>1802.512250089372</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>378851622930479.9</v>
+        <v>241878321868539.9</v>
       </c>
       <c r="B108">
-        <v>491.2107708253308</v>
+        <v>398.7297735599112</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>370289685581753.9</v>
+        <v>237663607895364.6</v>
       </c>
       <c r="B109">
-        <v>437.5176908357465</v>
+        <v>355.1775230971239</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>361924778903925.1</v>
+        <v>234919262352164.2</v>
       </c>
       <c r="B110">
-        <v>441.6246683286473</v>
+        <v>382.6126030839401</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>353899080397779.4</v>
+        <v>231278140430963</v>
       </c>
       <c r="B111">
-        <v>476.3769085359779</v>
+        <v>306.3310180132632</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>347066834530198.1</v>
+        <v>227067322721363</v>
       </c>
       <c r="B112">
-        <v>466.1429377103929</v>
+        <v>261.7366846949059</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>339008075667130.6</v>
+        <v>222255713333841</v>
       </c>
       <c r="B113">
-        <v>446.8373581814535</v>
+        <v>378.4347395820521</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>331893166999496.1</v>
+        <v>220959375493196.9</v>
       </c>
       <c r="B114">
-        <v>472.3240554002794</v>
+        <v>1756.019175856793</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>324954454505776.7</v>
+        <v>220947084398164.4</v>
       </c>
       <c r="B115">
-        <v>536.4893108093045</v>
+        <v>1696.239804189419</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>319779059674018.3</v>
+        <v>219604702838973.4</v>
       </c>
       <c r="B116">
-        <v>558.4866340137887</v>
+        <v>353.6211969950515</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>313502826473936.5</v>
+        <v>214488509717310.9</v>
       </c>
       <c r="B117">
-        <v>451.4400300751601</v>
+        <v>264.3515887908732</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>305890046490063.8</v>
+        <v>211166393422097.9</v>
       </c>
       <c r="B118">
-        <v>426.8311897888246</v>
+        <v>280.2972156174299</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>299169757391454.3</v>
+        <v>206653503269771.8</v>
       </c>
       <c r="B119">
-        <v>432.9686159318503</v>
+        <v>327.2859144437585</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>292070580303233</v>
+        <v>204599668918666.9</v>
       </c>
       <c r="B120">
-        <v>457.0738142155841</v>
+        <v>653.3964650173726</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>286389739319122.8</v>
+        <v>203396925264413.9</v>
       </c>
       <c r="B121">
-        <v>546.8558871847127</v>
+        <v>1322.250024424607</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>281596532349082</v>
+        <v>202999874640977</v>
       </c>
       <c r="B122">
-        <v>563.1793006440004</v>
+        <v>1039.62703836174</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>276389494919974.2</v>
+        <v>201366198264861.2</v>
       </c>
       <c r="B123">
-        <v>455.2505622698616</v>
+        <v>658.7381858702345</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>269454230160946</v>
+        <v>199820753547233.2</v>
       </c>
       <c r="B124">
-        <v>418.1549208724394</v>
+        <v>532.5282753908135</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>263501724540577.2</v>
+        <v>197463802968825.3</v>
       </c>
       <c r="B125">
-        <v>443.590775231567</v>
+        <v>526.6557918696723</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>257573833216125.8</v>
+        <v>195921387808587.8</v>
       </c>
       <c r="B126">
-        <v>492.7071107510947</v>
+        <v>368.5336427675124</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>253046270271874.8</v>
+        <v>191934911717790.4</v>
       </c>
       <c r="B127">
-        <v>481.3532501621108</v>
+        <v>281.6925478455064</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>247059880305798.3</v>
+        <v>188835211418292.3</v>
       </c>
       <c r="B128">
-        <v>378.4763161298621</v>
+        <v>285.323693124525</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>239990770111012.6</v>
+        <v>185051900435957.8</v>
       </c>
       <c r="B129">
-        <v>390.7849784974688</v>
+        <v>361.8487295224322</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>234777383110857.2</v>
+        <v>183516580710167.4</v>
       </c>
       <c r="B130">
-        <v>541.2797682421838</v>
+        <v>718.5761524901009</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>231315870479227</v>
+        <v>182395852871935.7</v>
       </c>
       <c r="B131">
-        <v>688.7878519862625</v>
+        <v>458.1730077127975</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>228060775963615</v>
+        <v>179376404754937</v>
       </c>
       <c r="B132">
-        <v>630.1473384024983</v>
+        <v>571.3587889088609</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>224077538677595.3</v>
+        <v>179130803579504.2</v>
       </c>
       <c r="B133">
-        <v>546.7377178811292</v>
+        <v>780.7219922373941</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>219863882595950.4</v>
+        <v>176990202783236.5</v>
       </c>
       <c r="B134">
-        <v>468.79773740436</v>
+        <v>590.4139482309894</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>214697634934318.2</v>
+        <v>176013163634748.9</v>
       </c>
       <c r="B135">
-        <v>368.0368831469468</v>
+        <v>1662.781925043778</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>208196702225411.5</v>
+        <v>175889314642566.4</v>
       </c>
       <c r="B136">
-        <v>347.0323730247925</v>
+        <v>698.2101031380486</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>202698944413849.8</v>
+        <v>173393251857389.5</v>
       </c>
       <c r="B137">
-        <v>365.756619100768</v>
+        <v>280.5781991075151</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>197112886713763.6</v>
+        <v>169462265694883</v>
       </c>
       <c r="B138">
-        <v>364.7540291949203</v>
+        <v>277.1890828852927</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>191890954868192</v>
+        <v>167035109809074.7</v>
       </c>
       <c r="B139">
-        <v>467.3681908724847</v>
+        <v>299.4837307155145</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>188901332799066.6</v>
+        <v>163661733098791.7</v>
       </c>
       <c r="B140">
-        <v>578.6926802027282</v>
+        <v>320.5869032013632</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>185362400446771.2</v>
+        <v>161725841067181.3</v>
       </c>
       <c r="B141">
-        <v>618.3217610534449</v>
+        <v>2084.884141987271</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>182905671248000.8</v>
+        <v>162854998224068.4</v>
       </c>
       <c r="B142">
-        <v>694.0806500686377</v>
+        <v>4290.382577262213</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>180091956119302.6</v>
+        <v>161331076276156.2</v>
       </c>
       <c r="B143">
-        <v>556.1936860985494</v>
+        <v>578.4534029392645</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>176429799240802.5</v>
+        <v>159954430633409.4</v>
       </c>
       <c r="B144">
-        <v>506.150845246942</v>
+        <v>363.481761840157</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>173120524543218.7</v>
+        <v>156754433777875.9</v>
       </c>
       <c r="B145">
-        <v>448.4450501368005</v>
+        <v>279.8357507597333</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>168708874481329.3</v>
+        <v>154128705697035.5</v>
       </c>
       <c r="B146">
-        <v>414.5362235299879</v>
+        <v>401.8788946235546</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>164980880048719</v>
+        <v>152765822878687.9</v>
       </c>
       <c r="B147">
-        <v>463.9639795090416</v>
+        <v>488.1438014126728</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>161597077560227.9</v>
+        <v>150873999699867.2</v>
       </c>
       <c r="B148">
-        <v>443.0978171086237</v>
+        <v>672.7574176742849</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>157686911479218.6</v>
+        <v>150433496908499.5</v>
       </c>
       <c r="B149">
-        <v>429.4054971438719</v>
+        <v>4988.742340066387</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>154252648458688.7</v>
+        <v>150560391928368.8</v>
       </c>
       <c r="B150">
-        <v>417.7964436171841</v>
+        <v>1267.398594124562</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>150302806094155.7</v>
+        <v>149198030747093.1</v>
       </c>
       <c r="B151">
-        <v>400.5887547183145</v>
+        <v>777.7091168071385</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>146748553332511.4</v>
+        <v>148565224987109.2</v>
       </c>
       <c r="B152">
-        <v>482.0553119082932</v>
+        <v>784.3445748666406</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>144214353183987.2</v>
+        <v>147228133345649.8</v>
       </c>
       <c r="B153">
-        <v>520.5333588270335</v>
+        <v>487.4261993323419</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>141207530812496.2</v>
+        <v>145423882587188.8</v>
       </c>
       <c r="B154">
-        <v>461.352921758694</v>
+        <v>395.9447522905837</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>138092899340183.2</v>
+        <v>143408387357965.1</v>
       </c>
       <c r="B155">
-        <v>416.1651702148819</v>
+        <v>432.08184063108</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>134571084073386.4</v>
+        <v>141972112370823.2</v>
       </c>
       <c r="B156">
-        <v>459.7207664943929</v>
+        <v>746.4986411427935</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>132238428805838.7</v>
+        <v>141430473551724</v>
       </c>
       <c r="B157">
-        <v>547.6790395924254</v>
+        <v>894.6504783562439</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>129742035698475.1</v>
+        <v>140328032408288.1</v>
       </c>
       <c r="B158">
-        <v>499.9547256536016</v>
+        <v>794.6940543519855</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>127048277416476</v>
+        <v>139594029036940</v>
       </c>
       <c r="B159">
-        <v>435.8526915258882</v>
+        <v>554.8144206633393</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>123912163363779.2</v>
+        <v>137711341406910.7</v>
       </c>
       <c r="B160">
-        <v>428.8083066226015</v>
+        <v>347.6427064991119</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>121268904141749</v>
+        <v>135474287923845.5</v>
       </c>
       <c r="B161">
-        <v>456.6954952883437</v>
+        <v>252.3800073832682</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>118601451723622.4</v>
+        <v>132128757393952.9</v>
       </c>
       <c r="B162">
-        <v>446.5780243923153</v>
+        <v>295.278333618252</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>115957337282407.4</v>
+        <v>130820580149018.8</v>
       </c>
       <c r="B163">
-        <v>416.6041946960667</v>
+        <v>478.4227970396029</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>113034664890522.8</v>
+        <v>129284967252746.1</v>
       </c>
       <c r="B164">
-        <v>433.2494720539506</v>
+        <v>1593.375178967058</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>110739342931270.8</v>
+        <v>129976733905411.3</v>
       </c>
       <c r="B165">
-        <v>508.4435232897281</v>
+        <v>-9236.933368005162</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>108678651376386</v>
+        <v>129431309981307.8</v>
       </c>
       <c r="B166">
-        <v>480.2785450164218</v>
+        <v>1058.204701183068</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>106213692035386.2</v>
+        <v>128704687370085.3</v>
       </c>
       <c r="B167">
-        <v>361.5574808066324</v>
+        <v>666.9313467108097</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>102803309408717.4</v>
+        <v>127424313676140.5</v>
       </c>
       <c r="B168">
-        <v>335.2835036699867</v>
+        <v>577.9714497071427</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>100081370684443.4</v>
+        <v>126411818296875.3</v>
       </c>
       <c r="B169">
-        <v>366.8691197543256</v>
+        <v>473.2720121430585</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>97347338039338.41</v>
+        <v>124646454693238.9</v>
       </c>
       <c r="B170">
-        <v>480.6935021600233</v>
+        <v>340.9613196473718</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>96031083438957.36</v>
+        <v>122609852929805.6</v>
       </c>
       <c r="B171">
-        <v>635.8180240691986</v>
+        <v>415.8361167242785</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>94326628345569.03</v>
+        <v>121580000339742.9</v>
       </c>
       <c r="B172">
-        <v>408.6723658404426</v>
+        <v>627.9127616342432</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>91414836477820.92</v>
+        <v>120596146439365.1</v>
       </c>
       <c r="B173">
-        <v>430.3539866262328</v>
+        <v>653.0011098028546</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>90078272837375.92</v>
+        <v>119659329908802.9</v>
       </c>
       <c r="B174">
-        <v>560.7516666524742</v>
+        <v>298.9939586815917</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>88202067682139.31</v>
+        <v>116433998693842.3</v>
       </c>
       <c r="B175">
-        <v>420.8469557545404</v>
+        <v>210.954712040182</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>85886627087010.39</v>
+        <v>113919170920624.9</v>
       </c>
       <c r="B176">
-        <v>317.9368262253722</v>
+        <v>314.0872622962208</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>82799319714457.89</v>
+        <v>112661927935821</v>
       </c>
       <c r="B177">
-        <v>360.9235047637101</v>
+        <v>402.0980636232331</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>81298434928748.75</v>
+        <v>111005244800278.2</v>
       </c>
       <c r="B178">
-        <v>601.5157556091264</v>
+        <v>441.3349640982433</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>80096200663272.88</v>
+        <v>110046104038247.6</v>
       </c>
       <c r="B179">
-        <v>484.2592697567759</v>
+        <v>489.3402560186834</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>77990446598303.34</v>
+        <v>108666423360756.1</v>
       </c>
       <c r="B180">
-        <v>641.7934787390101</v>
+        <v>1106.956720801207</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>77665809916656.48</v>
+        <v>109025169089558.9</v>
       </c>
       <c r="B181">
-        <v>773.952935983536</v>
+        <v>-277241.6723421911</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>75983456087492.52</v>
+        <v>108670513156308.7</v>
       </c>
       <c r="B182">
-        <v>527.4234270302802</v>
+        <v>1903.625845429637</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>74784502329872.69</v>
+        <v>108431473989474.5</v>
       </c>
       <c r="B183">
-        <v>491.4798085091781</v>
+        <v>-1985.397960315508</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>72940218052680.09</v>
+        <v>109238503731513.7</v>
       </c>
       <c r="B184">
-        <v>432.998912000449</v>
+        <v>2758.993671559182</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>71415430674902.59</v>
+        <v>108019700504627.8</v>
       </c>
       <c r="B185">
-        <v>454.1088039060675</v>
+        <v>611.2064766026712</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>69794917628613.66</v>
+        <v>107400491654985.2</v>
       </c>
       <c r="B186">
-        <v>329.911527151164</v>
+        <v>931.2545072292943</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>67184301303261.45</v>
+        <v>106820280684867.6</v>
       </c>
       <c r="B187">
-        <v>287.0015802438515</v>
+        <v>656.4395390656823</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>65113110563566.96</v>
+        <v>105708133329489.1</v>
       </c>
       <c r="B188">
-        <v>375.1146051487686</v>
+        <v>410.9354815302769</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>63712663053519.41</v>
+        <v>104145007713712.2</v>
       </c>
       <c r="B189">
-        <v>368.7918435163217</v>
+        <v>291.9654253382914</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>61657900575946.95</v>
+        <v>101998419828420.8</v>
       </c>
       <c r="B190">
-        <v>432.0885088373859</v>
+        <v>396.3610359741153</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>60858715340730.24</v>
+        <v>101468701341647.7</v>
       </c>
       <c r="B191">
-        <v>785.8474353449893</v>
+        <v>1216.659665465352</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>60109032116154.54</v>
+        <v>101131065938169.5</v>
       </c>
       <c r="B192">
-        <v>515.293580829681</v>
+        <v>5359.693923266886</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>58525713946869.67</v>
+        <v>101272465679534.4</v>
       </c>
       <c r="B193">
-        <v>472.8476911823809</v>
+        <v>2668.575911328454</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>57633574794981.15</v>
+        <v>100736385899803</v>
       </c>
       <c r="B194">
-        <v>636.6803241708976</v>
+        <v>819.333565351577</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>56715273994291.16</v>
+        <v>99993794259661.12</v>
       </c>
       <c r="B195">
-        <v>490.2993482067535</v>
+        <v>435.6180698010706</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>55320079000963.69</v>
+        <v>98349121613968.02</v>
       </c>
       <c r="B196">
-        <v>459.3943428335566</v>
+        <v>334.8148103952469</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>54306882168664.92</v>
+        <v>96938879025840.33</v>
       </c>
       <c r="B197">
-        <v>411.8545996013281</v>
+        <v>290.5336778849821</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>52682891885839.38</v>
+        <v>94879078659884.56</v>
       </c>
       <c r="B198">
-        <v>321.9932690994564</v>
+        <v>298.1619601263572</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>51034584456779.09</v>
+        <v>93629461494359.73</v>
       </c>
       <c r="B199">
-        <v>337.5959619892611</v>
+        <v>282.6169056406703</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>49659479866568.7</v>
+        <v>91433614570134</v>
       </c>
       <c r="B200">
-        <v>365.5646353173374</v>
+        <v>324.0846962476576</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>48317719909777.12</v>
+        <v>90695322355612</v>
       </c>
       <c r="B201">
-        <v>350.0506950327301</v>
+        <v>505.3210870700049</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>46898867155586.39</v>
+        <v>89567016526566.31</v>
       </c>
       <c r="B202">
-        <v>422.65542321165</v>
+        <v>1137.258712101738</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>46098471577449.38</v>
+        <v>89876250176200.06</v>
       </c>
       <c r="B203">
-        <v>405.5494469126305</v>
+        <v>-11886.2457461057</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>44625483629686.48</v>
+        <v>89645654729224.94</v>
       </c>
       <c r="B204">
-        <v>285.9510309019545</v>
+        <v>1570.53678816907</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>42977273973165.34</v>
+        <v>89282622050958.36</v>
       </c>
       <c r="B205">
-        <v>374.9643386243104</v>
+        <v>546.7006392340837</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>42333144356525.59</v>
+        <v>87947212834898.97</v>
       </c>
       <c r="B206">
-        <v>527.2267678506322</v>
+        <v>419.4847662647135</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>41371394039219.38</v>
+        <v>87102206724729.91</v>
       </c>
       <c r="B207">
-        <v>465.2739215276018</v>
+        <v>458.6930318938677</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>40554777157118.08</v>
+        <v>85972334458837.67</v>
       </c>
       <c r="B208">
-        <v>571.9059977193025</v>
+        <v>454.9559697392178</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>39953161766123.96</v>
+        <v>85136934615245.53</v>
       </c>
       <c r="B209">
-        <v>586.2312266258252</v>
+        <v>870.2751960880209</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>39191725857511.2</v>
+        <v>84954927408770.45</v>
       </c>
       <c r="B210">
-        <v>319.1653849884078</v>
+        <v>799.0769802963366</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>37497273521292.23</v>
+        <v>84031244842123.12</v>
       </c>
       <c r="B211">
-        <v>310.3140370073546</v>
+        <v>653.6451976232455</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>36774995123515.84</v>
+        <v>83617925393708.17</v>
       </c>
       <c r="B212">
-        <v>642.6732996269541</v>
+        <v>1037.920432934874</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>36352835277324.03</v>
+        <v>83193390227742.34</v>
       </c>
       <c r="B213">
-        <v>507.3714116684947</v>
+        <v>502.3341833384089</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>35342007988597.16</v>
+        <v>81895543586803.2</v>
       </c>
       <c r="B214">
-        <v>290.0959098875808</v>
+        <v>510.1527747941558</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>33916261248941.96</v>
+        <v>81523863577325.81</v>
       </c>
       <c r="B215">
-        <v>278.9430704852243</v>
+        <v>853.494005319126</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>32910238582033.7</v>
+        <v>80902158541424.75</v>
       </c>
       <c r="B216">
-        <v>382.9971081282163</v>
+        <v>898.0792644632223</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>32197697955194.25</v>
+        <v>80586994770613.42</v>
       </c>
       <c r="B217">
-        <v>463.5443435860677</v>
+        <v>926.2285389301608</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>31521042557933.54</v>
+        <v>79997301143506.05</v>
       </c>
       <c r="B218">
-        <v>403.8380355032288</v>
+        <v>640.0226641352951</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>30636624465984.41</v>
+        <v>79287084660373.03</v>
       </c>
       <c r="B219">
-        <v>293.405039599106</v>
+        <v>686.742297500198</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>29432692302747.41</v>
+        <v>78796580460551.95</v>
       </c>
       <c r="B220">
-        <v>281.5232117317366</v>
+        <v>416.81383692364</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>28545664212888.55</v>
+        <v>77321016444312.62</v>
       </c>
       <c r="B221">
-        <v>327.4512247702283</v>
+        <v>444.5246942773778</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>27689185969374</v>
+        <v>76987595309956.23</v>
       </c>
       <c r="B222">
-        <v>360.8769811859407</v>
+        <v>2330.33677004819</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>27011114357235.26</v>
+        <v>76977430486474.02</v>
       </c>
       <c r="B223">
-        <v>491.5914697121018</v>
+        <v>1508.517709138101</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>26590260702299.93</v>
+        <v>76456898671653.75</v>
       </c>
       <c r="B224">
-        <v>495.2049049470605</v>
+        <v>834.1244639449305</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>25937204933614.24</v>
+        <v>76024153391081.56</v>
       </c>
       <c r="B225">
-        <v>293.3851192191068</v>
+        <v>571.1502020359112</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>24822127062621.84</v>
+        <v>75072584716324.81</v>
       </c>
       <c r="B226">
-        <v>307.8229199628904</v>
+        <v>397.8705859883468</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>24324451272151.12</v>
+        <v>74061819635972.94</v>
       </c>
       <c r="B227">
-        <v>395.2659635592913</v>
+        <v>386.5610034968894</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>23591337998311.1</v>
+        <v>73080032655339.95</v>
       </c>
       <c r="B228">
-        <v>654.3071868633092</v>
+        <v>427.9079773770021</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>23603342335188.16</v>
+        <v>72285661256607.38</v>
       </c>
       <c r="B229">
-        <v>-1784.203778253019</v>
+        <v>649.0132588371849</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>23855919237549.35</v>
+        <v>71921703658462.97</v>
       </c>
       <c r="B230">
-        <v>32159.4971787316</v>
+        <v>1753.310625263962</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>23588506332557.3</v>
+        <v>71859047907398.16</v>
       </c>
       <c r="B231">
-        <v>748.7157600097448</v>
+        <v>1083.582302111173</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>23225813459296.46</v>
+        <v>71232015300891.17</v>
       </c>
       <c r="B232">
-        <v>398.0982005430674</v>
+        <v>586.4431355755656</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>22421667927982.1</v>
+        <v>70595817230476.36</v>
       </c>
       <c r="B233">
-        <v>329.5774219126287</v>
+        <v>475.6613700780562</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>21865182151613.85</v>
+        <v>69688487603705.1</v>
       </c>
       <c r="B234">
-        <v>403.8012950364333</v>
+        <v>320.8839200078702</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>21338700517011.26</v>
+        <v>68337180303263.73</v>
       </c>
       <c r="B235">
-        <v>347.5327029596622</v>
+        <v>344.2306062771878</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>20637171070337.96</v>
+        <v>67623863882879.88</v>
       </c>
       <c r="B236">
-        <v>337.235661516028</v>
+        <v>545.642269433202</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>20114798455315.62</v>
+        <v>67048262226750.85</v>
       </c>
       <c r="B237">
-        <v>427.0132639331613</v>
+        <v>578.1918131746357</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>19695055208641.26</v>
+        <v>66417859385290.09</v>
       </c>
       <c r="B238">
-        <v>237.5318591165407</v>
+        <v>381.8683569594626</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>18456489941931.88</v>
+        <v>65239403951331.24</v>
       </c>
       <c r="B239">
-        <v>155.678601903215</v>
+        <v>353.0351224549158</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>17323953500854.05</v>
+        <v>64495983181087.55</v>
       </c>
       <c r="B240">
-        <v>226.1245996896028</v>
+        <v>689.0953343345949</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>16924241480275.39</v>
+        <v>64266014361150.67</v>
       </c>
       <c r="B241">
-        <v>288.7110677750946</v>
+        <v>859.2326754396455</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>16151553591789.34</v>
+        <v>63718118734750.02</v>
       </c>
       <c r="B242">
-        <v>336.544222423269</v>
+        <v>700.1211450095484</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>15964394154685.3</v>
+        <v>63319508974811.64</v>
       </c>
       <c r="B243">
-        <v>393.0940948776042</v>
+        <v>1268.02384949114</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>15339310703243.47</v>
+        <v>63198788681453.05</v>
       </c>
       <c r="B244">
-        <v>192.0861367177498</v>
+        <v>1348.523648352183</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>14367265807439.4</v>
+        <v>62832111217204.45</v>
       </c>
       <c r="B245">
-        <v>259.7607304275671</v>
+        <v>1717.213385783954</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>14233118417458.71</v>
+        <v>62818257081787.79</v>
       </c>
       <c r="B246">
-        <v>1574.311850054573</v>
+        <v>1511.136343398673</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>14186448793110.69</v>
+        <v>62399781019797.36</v>
       </c>
       <c r="B247">
-        <v>363.8886513053786</v>
+        <v>744.3317961863972</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>13453404692272.75</v>
+        <v>61946390898009.47</v>
       </c>
       <c r="B248">
-        <v>282.3473451333332</v>
+        <v>903.4817117540393</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>13233480406889.83</v>
+        <v>61686714604663.66</v>
       </c>
       <c r="B249">
-        <v>3567.72830009504</v>
+        <v>809.7222345610991</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>13379220341370.59</v>
+        <v>61154092249774.56</v>
       </c>
       <c r="B250">
-        <v>-3484.056586111099</v>
+        <v>649.4740857198777</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>13310282950193.55</v>
+        <v>60707456812271.95</v>
       </c>
       <c r="B251">
-        <v>508.4149364073538</v>
+        <v>509.2488248170969</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>12855621131471.33</v>
+        <v>59914310202021.43</v>
       </c>
       <c r="B252">
-        <v>235.437537242328</v>
+        <v>481.1999750217319</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>12218220802241.38</v>
+        <v>59412550622651.16</v>
       </c>
       <c r="B253">
-        <v>420.4517761922305</v>
+        <v>734.6418185265177</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>12274426259950.31</v>
+        <v>59073232943834.71</v>
       </c>
       <c r="B254">
-        <v>349.1404895926706</v>
+        <v>646.4051270324688</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>11515098327144.29</v>
+        <v>58462122482583.16</v>
       </c>
       <c r="B255">
-        <v>247.3433734971777</v>
+        <v>572.4365326542203</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>11343324030338.68</v>
+        <v>58011095852409.52</v>
       </c>
       <c r="B256">
-        <v>1452.527791775627</v>
+        <v>651.4011687013084</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>11358910967500.42</v>
+        <v>57535941465641.05</v>
       </c>
       <c r="B257">
-        <v>947.399476610588</v>
+        <v>454.8324497063879</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>11103532659371.53</v>
+        <v>56695504162263.1</v>
       </c>
       <c r="B258">
-        <v>251.0676948390966</v>
+        <v>612.4314184934492</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>10474405880815.57</v>
+        <v>56573167144333.38</v>
       </c>
       <c r="B259">
-        <v>162.8224957001453</v>
+        <v>1248.113870559493</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>9816928393078.363</v>
+        <v>56224104114415.45</v>
       </c>
       <c r="B260">
-        <v>203.9808168270134</v>
+        <v>613.5082551164917</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>9511871408625.109</v>
+        <v>55620073721525.41</v>
       </c>
       <c r="B261">
-        <v>375.0146022258356</v>
+        <v>691.2958150068239</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>9309648337732.836</v>
+        <v>55387343997911.42</v>
       </c>
       <c r="B262">
-        <v>261.2295139153873</v>
+        <v>628.7633785478207</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>8799115166177.844</v>
+        <v>54703944701879.48</v>
       </c>
       <c r="B263">
-        <v>150.6937527661468</v>
+        <v>876.21672755891</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>8141834144422.152</v>
+        <v>54738051411949.82</v>
       </c>
       <c r="B264">
-        <v>133.8698250399275</v>
+        <v>1198.186096115658</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>7582734381039.172</v>
+        <v>54228830079426.59</v>
       </c>
       <c r="B265">
-        <v>166.4804438743041</v>
+        <v>1065.037578118289</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>7230888185296.25</v>
+        <v>54208511568085.8</v>
       </c>
       <c r="B266">
-        <v>272.6893782009585</v>
+        <v>602.7334283438923</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>7052395558676.429</v>
+        <v>53293477079581.93</v>
       </c>
       <c r="B267">
-        <v>323.616563215592</v>
+        <v>388.6283809057511</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>6795039322147.786</v>
+        <v>52782336360974.31</v>
       </c>
       <c r="B268">
-        <v>465.1085332237749</v>
+        <v>410.2705022369511</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>6760204001791.853</v>
+        <v>51955490811592.58</v>
       </c>
       <c r="B269">
-        <v>-5355.239561733793</v>
+        <v>347.280095822431</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>6820286386910.667</v>
+        <v>51226424833246.42</v>
       </c>
       <c r="B270">
-        <v>636.3211311481526</v>
+        <v>948.8306107528022</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>6545837825562.425</v>
+        <v>51394005113061.98</v>
       </c>
       <c r="B271">
-        <v>336.0786618726083</v>
+        <v>-20754.81311153239</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>6430744379745.473</v>
+        <v>51252177782709.45</v>
       </c>
       <c r="B272">
-        <v>1213.687649885387</v>
+        <v>1143.103016522557</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>6439867489943.49</v>
+        <v>50927710613584.85</v>
       </c>
       <c r="B273">
-        <v>-989.4339000473929</v>
+        <v>930.0560519975058</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>6560917148025.092</v>
+        <v>50682697922604.52</v>
       </c>
       <c r="B274">
-        <v>-2526.78923723397</v>
+        <v>2185.301115250107</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>6491798351855.877</v>
+        <v>50686508129077.45</v>
       </c>
       <c r="B275">
-        <v>1669.949761901093</v>
+        <v>1334.347111331276</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>6483168721096.779</v>
+        <v>50287643532284.41</v>
       </c>
       <c r="B276">
-        <v>319.2934186487194</v>
+        <v>687.4762045260779</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>6085703622529.208</v>
+        <v>49925766900082.79</v>
       </c>
       <c r="B277">
-        <v>249.0335464084776</v>
+        <v>709.2516144866532</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>5994423031185.017</v>
+        <v>49555564866327.92</v>
       </c>
       <c r="B278">
-        <v>593.6170231734278</v>
+        <v>568.7808178759103</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>5883740983414.199</v>
+        <v>49019657097479.98</v>
       </c>
       <c r="B279">
-        <v>-5560.919793276145</v>
+        <v>628.5924183831766</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>6015584066417.097</v>
+        <v>48744539440464.39</v>
       </c>
       <c r="B280">
-        <v>-7340.30037413847</v>
+        <v>384.7237373153224</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>5900131549902.763</v>
+        <v>47701975964211.75</v>
       </c>
       <c r="B281">
-        <v>254.337074389356</v>
+        <v>455.0013115157899</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>5551622485977.552</v>
+        <v>47654211704100.04</v>
       </c>
       <c r="B282">
-        <v>163.6538622464454</v>
+        <v>2405.525551722199</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>5221672464394.91</v>
+        <v>47495948719409.55</v>
       </c>
       <c r="B283">
-        <v>289.3790621401156</v>
+        <v>1278.160619173117</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>5190734422703.187</v>
+        <v>47267751771543.66</v>
       </c>
       <c r="B284">
-        <v>226.9579251265394</v>
+        <v>3573.6138390176</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>4764254251762.844</v>
+        <v>47358389195474.17</v>
       </c>
       <c r="B285">
-        <v>135.1666475113111</v>
+        <v>2165.092959620511</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>4485789180739.681</v>
+        <v>47040266274699.55</v>
       </c>
       <c r="B286">
-        <v>209.6086235500449</v>
+        <v>834.7945634792168</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>4336238542793.819</v>
+        <v>46772354270644.35</v>
       </c>
       <c r="B287">
-        <v>-2765.203907774177</v>
+        <v>926.3190005163673</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>4517152065267.674</v>
+        <v>46515142117531.73</v>
       </c>
       <c r="B288">
-        <v>-621.8458570340683</v>
+        <v>456.0030241380966</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>4481520593455.458</v>
+        <v>45711489643843.46</v>
       </c>
       <c r="B289">
-        <v>286.3381209739188</v>
+        <v>399.6026588714034</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>4204129085427.44</v>
+        <v>45325461614307.23</v>
       </c>
       <c r="B290">
-        <v>254.0339662312474</v>
+        <v>570.2954196211418</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>4150531068881.376</v>
+        <v>44884927156103.43</v>
       </c>
       <c r="B291">
-        <v>257.6467338089873</v>
+        <v>803.9397095050097</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>3881941335750.142</v>
+        <v>44744817025037.09</v>
       </c>
       <c r="B292">
-        <v>129.8662129921064</v>
+        <v>7343.770921097404</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>3552694072435.497</v>
+        <v>44821561059576.18</v>
       </c>
       <c r="B293">
-        <v>257.4766870219364</v>
+        <v>6438.03368370579</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>3605978947579.999</v>
+        <v>44672412272604.78</v>
       </c>
       <c r="B294">
-        <v>3214.466901275389</v>
+        <v>1369.546909897357</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>3530258134792.778</v>
+        <v>44482329826036.39</v>
       </c>
       <c r="B295">
-        <v>-822.5809782266718</v>
+        <v>3865.728384602968</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>3691812640024.562</v>
+        <v>44552741104802.8</v>
       </c>
       <c r="B296">
-        <v>1758.027943853061</v>
+        <v>4246.5154808354</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>3488258658584.985</v>
+        <v>44373217187784.86</v>
       </c>
       <c r="B297">
-        <v>1336.882253788831</v>
+        <v>-1642.752154118766</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>3639627660402.025</v>
+        <v>44833660814812.59</v>
       </c>
       <c r="B298">
-        <v>-398.9853987799408</v>
+        <v>-504.8393511287522</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>3670702811756.087</v>
-      </c>
-      <c r="B299">
-        <v>-1469.111609206498</v>
+        <v>44811415588739.29</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>3689599395547.985</v>
-      </c>
-      <c r="B300">
-        <v>-764.5839856436472</v>
+        <v>44391081004728.3</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>3767215411152.005</v>
+        <v>44268141129530.13</v>
       </c>
       <c r="B301">
-        <v>-485.3657304919549</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_Sinton_Mode.xlsx
+++ b/Lifetime_Sinton_Mode.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,906 +393,2234 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.033222629489835E+16</v>
+        <v>3441336093386083</v>
       </c>
       <c r="B2">
-        <v>52.58221429279873</v>
+        <v>9.630052642885738</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2.955131575814721E+16</v>
+        <v>3378942918318218</v>
       </c>
       <c r="B3">
-        <v>53.53751282624825</v>
+        <v>9.651458936954674</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2.867553492815318E+16</v>
+        <v>3301979007118565</v>
       </c>
       <c r="B4">
-        <v>54.5416391085481</v>
+        <v>9.663600190961574</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2.776005774963834E+16</v>
+        <v>3225193752765732</v>
       </c>
       <c r="B5">
-        <v>55.64288225758143</v>
+        <v>9.691540146691501</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2.682687546384932E+16</v>
+        <v>3146555466786846</v>
       </c>
       <c r="B6">
-        <v>56.73828144817648</v>
+        <v>9.70727022961505</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2.592034722153626E+16</v>
+        <v>3071480380884152</v>
       </c>
       <c r="B7">
-        <v>57.80769918695172</v>
+        <v>9.733861622192743</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2.504541506000517E+16</v>
+        <v>2992108308464941</v>
       </c>
       <c r="B8">
-        <v>58.86666820733479</v>
+        <v>9.753425490887569</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>2.417626260476941E+16</v>
+        <v>2917502210722639</v>
       </c>
       <c r="B9">
-        <v>59.92068713067786</v>
+        <v>9.783459061286651</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2.332645955005556E+16</v>
+        <v>2840011644880684</v>
       </c>
       <c r="B10">
-        <v>60.98577357893173</v>
+        <v>9.792438006827959</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>2.249950733156017E+16</v>
+        <v>2764920816046634</v>
       </c>
       <c r="B11">
-        <v>62.02729228658977</v>
+        <v>9.806879252841384</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>2.169866683526856E+16</v>
+        <v>2693169722051226</v>
       </c>
       <c r="B12">
-        <v>63.05410869961635</v>
+        <v>9.830213615579277</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>2.092277429857095E+16</v>
+        <v>2620537276713040</v>
       </c>
       <c r="B13">
-        <v>64.07503098539574</v>
+        <v>9.839042083202131</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>2.016872067616259E+16</v>
+        <v>2552379559964942</v>
       </c>
       <c r="B14">
-        <v>65.08970091075072</v>
+        <v>9.856732333771383</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>1.944225012953878E+16</v>
+        <v>2484336391450275</v>
       </c>
       <c r="B15">
-        <v>66.09144523534522</v>
+        <v>9.87241692705919</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>1.87333902208078E+16</v>
+        <v>2415138320005998</v>
       </c>
       <c r="B16">
-        <v>67.07904462389797</v>
+        <v>9.878796488445838</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>1.805377875263422E+16</v>
+        <v>2350801302822946</v>
       </c>
       <c r="B17">
-        <v>68.07958054927067</v>
+        <v>9.889858377290103</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>1.7392589470408E+16</v>
+        <v>2284983439059234</v>
       </c>
       <c r="B18">
-        <v>69.05237557750041</v>
+        <v>9.889672952862048</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>1.675451060633385E+16</v>
+        <v>2223722375822442</v>
       </c>
       <c r="B19">
-        <v>70.01396884660537</v>
+        <v>9.907519646476398</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>1.613742969400706E+16</v>
+        <v>2163220494404835</v>
       </c>
       <c r="B20">
-        <v>70.94584616016959</v>
+        <v>9.914497994059124</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>1.554246912516899E+16</v>
+        <v>2103038507467298</v>
       </c>
       <c r="B21">
-        <v>71.88656533575353</v>
+        <v>9.912809473951746</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>1.49680700094778E+16</v>
+        <v>2048698253650269</v>
       </c>
       <c r="B22">
-        <v>72.82236600491528</v>
+        <v>9.933295254200114</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>1.441930542508292E+16</v>
+        <v>1989070005036664</v>
       </c>
       <c r="B23">
-        <v>73.75959380885081</v>
+        <v>9.920356751219837</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>1.388517035725536E+16</v>
+        <v>1932242270336658</v>
       </c>
       <c r="B24">
-        <v>74.64935935363395</v>
+        <v>9.912922143179033</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>1.337339243403188E+16</v>
+        <v>1881577628588509</v>
       </c>
       <c r="B25">
-        <v>75.56203901189392</v>
+        <v>9.92315086640623</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>1.287778432241101E+16</v>
+        <v>1830053668136605</v>
       </c>
       <c r="B26">
-        <v>76.45297904900914</v>
+        <v>9.923672382352343</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>1.240163435055053E+16</v>
+        <v>1781207512085930</v>
       </c>
       <c r="B27">
-        <v>77.34981935572365</v>
+        <v>9.935181036471619</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>1.193889057941899E+16</v>
+        <v>1731399154169760</v>
       </c>
       <c r="B28">
-        <v>78.19852177854122</v>
+        <v>9.92732330515639</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>1.149158534145454E+16</v>
+        <v>1681168620833675</v>
       </c>
       <c r="B29">
-        <v>79.05891458756098</v>
+        <v>9.909102181636223</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>1.106540687909361E+16</v>
+        <v>1634383458504390</v>
       </c>
       <c r="B30">
-        <v>79.91938307178366</v>
+        <v>9.907615878380303</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>1.064645623641414E+16</v>
+        <v>1587903730336247</v>
       </c>
       <c r="B31">
-        <v>80.72065668602593</v>
+        <v>9.897519567582544</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>1.024761186250155E+16</v>
+        <v>1544442152818600</v>
       </c>
       <c r="B32">
-        <v>81.5849945510701</v>
+        <v>9.897969126026464</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>9865443879066282</v>
+        <v>1500009326196460</v>
       </c>
       <c r="B33">
-        <v>82.40233230545341</v>
+        <v>9.88229060206079</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>9495146100452546</v>
+        <v>1457084556366572</v>
       </c>
       <c r="B34">
-        <v>83.20322077917676</v>
+        <v>9.870896649394936</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>9138235342150542</v>
+        <v>1418897834705766</v>
       </c>
       <c r="B35">
-        <v>84.0134716402665</v>
+        <v>9.880052295285781</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>8796601953776637</v>
+        <v>1376949359715262</v>
       </c>
       <c r="B36">
-        <v>84.80083297690619</v>
+        <v>9.857209839046181</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>8467660073596511</v>
+        <v>1338880644185308</v>
       </c>
       <c r="B37">
-        <v>85.58051268062169</v>
+        <v>9.854415284758181</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>8147875158174892</v>
+        <v>1301837683139184</v>
       </c>
       <c r="B38">
-        <v>86.29767406159779</v>
+        <v>9.84359928298205</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7838884077074754</v>
+        <v>1263626105413804</v>
       </c>
       <c r="B39">
-        <v>87.03411478468104</v>
+        <v>9.821811920207089</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7544539163212434</v>
+        <v>1227690324301667</v>
       </c>
       <c r="B40">
-        <v>87.78754140183341</v>
+        <v>9.812609897848972</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7260707643483488</v>
+        <v>1191801000101001</v>
       </c>
       <c r="B41">
-        <v>88.52314661033677</v>
+        <v>9.785753964172041</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6986574002884494</v>
+        <v>1157053828092708</v>
       </c>
       <c r="B42">
-        <v>89.22372522155979</v>
+        <v>9.757747975035439</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6723831871562330</v>
+        <v>1124115631920670</v>
       </c>
       <c r="B43">
-        <v>89.91766220140713</v>
+        <v>9.746630324228407</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6467547139570053</v>
+        <v>1093682216279566</v>
       </c>
       <c r="B44">
-        <v>90.55649537347048</v>
+        <v>9.746689138900615</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6223794498068890</v>
+        <v>1063699468500776</v>
       </c>
       <c r="B45">
-        <v>91.25043807898776</v>
+        <v>9.729170692034392</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5988743837137674</v>
+        <v>1032528438453804</v>
       </c>
       <c r="B46">
-        <v>91.88352064882309</v>
+        <v>9.700032266567444</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5763713504730027</v>
+        <v>1004309875184415</v>
       </c>
       <c r="B47">
-        <v>92.54694474476455</v>
+        <v>9.69997934205316</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5543102124391906</v>
+        <v>974385270473082.9</v>
       </c>
       <c r="B48">
-        <v>93.11504423996568</v>
+        <v>9.666179655736366</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5332391160899890</v>
+        <v>946734565035829.6</v>
       </c>
       <c r="B49">
-        <v>93.71668371354571</v>
+        <v>9.637797382310628</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5129106896212443</v>
+        <v>920166890852653.9</v>
       </c>
       <c r="B50">
-        <v>94.31283816591979</v>
+        <v>9.620569350780048</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>4934979506579086</v>
+        <v>892568575734283.9</v>
       </c>
       <c r="B51">
-        <v>94.96726418681885</v>
+        <v>9.594305334477388</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>4747531778247348</v>
+        <v>868387510437407.8</v>
       </c>
       <c r="B52">
-        <v>95.54136180040982</v>
+        <v>9.586868478743883</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>4563715568540811</v>
+        <v>846434418772807.6</v>
       </c>
       <c r="B53">
-        <v>96.07007609945353</v>
+        <v>9.582373947814435</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>4389091013239755</v>
+        <v>820136837068201.6</v>
       </c>
       <c r="B54">
-        <v>96.65606076058063</v>
+        <v>9.535865865942968</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>4218745709545034</v>
+        <v>796065609663913.1</v>
       </c>
       <c r="B55">
-        <v>97.15345701160567</v>
+        <v>9.514865364616904</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>4055328102027633</v>
+        <v>774409353664028.2</v>
       </c>
       <c r="B56">
-        <v>97.65889168922681</v>
+        <v>9.48795977838633</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>3900032262875219</v>
+        <v>752572053837374.6</v>
       </c>
       <c r="B57">
-        <v>98.20649219772068</v>
+        <v>9.450424629582233</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>3747761643819707</v>
+        <v>729003344235464.2</v>
       </c>
       <c r="B58">
-        <v>98.63825837635622</v>
+        <v>9.4108909379762</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>3602180174567276</v>
+        <v>707072167344981.2</v>
       </c>
       <c r="B59">
-        <v>99.06824327953248</v>
+        <v>9.380388393134316</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>3460900648860476</v>
+        <v>689620034594341.1</v>
       </c>
       <c r="B60">
-        <v>99.44152413890889</v>
+        <v>9.373381739770076</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>3326391853959984</v>
+        <v>669361640920713.9</v>
       </c>
       <c r="B61">
-        <v>99.94658709222961</v>
+        <v>9.327443649279338</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>3195284635179984</v>
+        <v>648901296275545.6</v>
       </c>
       <c r="B62">
-        <v>100.3628918892109</v>
+        <v>9.299145917600315</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>3069320714828997</v>
+        <v>630877898001218.9</v>
       </c>
       <c r="B63">
-        <v>100.8119418494788</v>
+        <v>9.280237458025573</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>2947349775127997</v>
+        <v>613318185902516.9</v>
       </c>
       <c r="B64">
-        <v>101.2025795381935</v>
+        <v>9.236075788468876</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>2830257665705634</v>
+        <v>595990307430540</v>
       </c>
       <c r="B65">
-        <v>101.5928582411954</v>
+        <v>9.210286237474447</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>2717504983562560</v>
+        <v>577044728571205.1</v>
       </c>
       <c r="B66">
-        <v>101.9479482714861</v>
+        <v>9.169876095479886</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>2609140871632188</v>
+        <v>559739292149233.4</v>
       </c>
       <c r="B67">
-        <v>102.2537954074345</v>
+        <v>9.124123373653296</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>2503364398128993</v>
+        <v>547753633541538.5</v>
       </c>
       <c r="B68">
-        <v>102.4718412785739</v>
+        <v>9.135025216427278</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>2402433987312919</v>
+        <v>531318879342248.7</v>
       </c>
       <c r="B69">
-        <v>102.729667692593</v>
+        <v>9.092067823367119</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>2304452407063151</v>
+        <v>514068291514588.4</v>
       </c>
       <c r="B70">
-        <v>103.0241958706604</v>
+        <v>9.047475855994266</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>2210624682480130</v>
+        <v>502415837196488.1</v>
       </c>
       <c r="B71">
-        <v>103.3278490368164</v>
+        <v>9.054303754796694</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>2120849559822517</v>
+        <v>488627162650569.8</v>
       </c>
       <c r="B72">
-        <v>103.6090490185752</v>
+        <v>9.003618242073905</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>2033402140330720</v>
+        <v>472768507509387.1</v>
       </c>
       <c r="B73">
-        <v>103.8629936295454</v>
+        <v>8.954709151944737</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>1950228688441182</v>
+        <v>458711666316018.2</v>
       </c>
       <c r="B74">
-        <v>104.0830707064269</v>
+        <v>8.92834080337907</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>1870139626813569</v>
+        <v>447658575256730.5</v>
       </c>
       <c r="B75">
-        <v>104.2653486284809</v>
+        <v>8.909359192520746</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>1792090292544785</v>
+        <v>435787220513866.4</v>
       </c>
       <c r="B76">
-        <v>104.4036155643038</v>
+        <v>8.877181925277277</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>1715823049605577</v>
+        <v>420992226699162.2</v>
       </c>
       <c r="B77">
-        <v>104.545685299358</v>
+        <v>8.820253694086677</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>1643365809610309</v>
+        <v>408949473455256.6</v>
       </c>
       <c r="B78">
-        <v>104.7484245160863</v>
+        <v>8.787622610743172</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>1573923587699157</v>
+        <v>398069141767689.2</v>
       </c>
       <c r="B79">
-        <v>104.8425685530227</v>
+        <v>8.739429751096887</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>1504893853117331</v>
+        <v>386623519863604.4</v>
       </c>
       <c r="B80">
-        <v>104.8973351691287</v>
+        <v>8.706416841711667</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>1440758434857261</v>
+        <v>375710026168300.9</v>
       </c>
       <c r="B81">
-        <v>105.2211731850676</v>
+        <v>8.697007679449866</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>1378298296726368</v>
+        <v>365439234550352.2</v>
       </c>
       <c r="B82">
-        <v>105.2620128730975</v>
+        <v>8.656027740923177</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>1316215342402691</v>
+        <v>354112186033780.7</v>
       </c>
       <c r="B83">
-        <v>105.2386164124916</v>
+        <v>8.574326350756269</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>1259082851523058</v>
+        <v>342642886006649.2</v>
       </c>
       <c r="B84">
-        <v>105.3374367190675</v>
+        <v>8.526025411285231</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>1204399386700691</v>
+        <v>333939796437432.8</v>
       </c>
       <c r="B85">
-        <v>105.3537471390461</v>
+        <v>8.536508166883946</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>1149942089710266</v>
+        <v>324939238116764.5</v>
       </c>
       <c r="B86">
-        <v>105.1001973155416</v>
+        <v>8.486883607492679</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>1096512211070074</v>
+        <v>315016564605235.6</v>
       </c>
       <c r="B87">
-        <v>104.9655914292783</v>
+        <v>8.418437349979913</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>1047770808356868</v>
+        <v>305027067361680</v>
       </c>
       <c r="B88">
-        <v>105.1827094998141</v>
+        <v>8.382160957952323</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>1001549337473142</v>
+        <v>297447024770603.1</v>
       </c>
       <c r="B89">
-        <v>105.3679977106614</v>
+        <v>8.386957415390428</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>955788336551856</v>
+        <v>289655523114714.6</v>
       </c>
       <c r="B90">
-        <v>105.4377025210385</v>
+        <v>8.344637517254082</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>912280567099604.5</v>
+        <v>282262266923519</v>
       </c>
       <c r="B91">
-        <v>105.6039470651833</v>
+        <v>8.329824001674782</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>869496625751933.1</v>
+        <v>272967861677342.3</v>
       </c>
       <c r="B92">
-        <v>105.6755230997214</v>
+        <v>8.269949263147893</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>828178629558680.9</v>
+        <v>264710411022554.1</v>
       </c>
       <c r="B93">
-        <v>105.7753381014437</v>
+        <v>8.216904161797544</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>787609598043869.1</v>
+        <v>257761437200457.8</v>
       </c>
       <c r="B94">
-        <v>105.8367076948627</v>
+        <v>8.18756768406085</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>750275416827731.8</v>
+        <v>250847550368048</v>
       </c>
       <c r="B95">
-        <v>106.1125580193769</v>
+        <v>8.175560712907952</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>715906376068761.6</v>
+        <v>243501483073340.2</v>
       </c>
       <c r="B96">
-        <v>106.4865650501859</v>
+        <v>8.133300880318249</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>683923820711201.2</v>
+        <v>235626008158751.5</v>
       </c>
       <c r="B97">
-        <v>106.6226857362885</v>
+        <v>8.051783292149114</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>650626509108393.5</v>
+        <v>228356619071076.7</v>
       </c>
       <c r="B98">
-        <v>106.1163042301728</v>
+        <v>7.990637486336109</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>619490596207816.6</v>
+        <v>221234866947552.9</v>
       </c>
       <c r="B99">
-        <v>106.5422296297306</v>
+        <v>7.931892599467491</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>590041371969239.4</v>
+        <v>214510167731790.6</v>
       </c>
       <c r="B100">
-        <v>106.5854001940501</v>
+        <v>7.883015358145891</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>561771738868620.3</v>
+        <v>209528757666445.5</v>
       </c>
       <c r="B101">
-        <v>106.8029578660633</v>
+        <v>7.882609015671991</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>534851994592404.9</v>
+        <v>203163105345134.8</v>
       </c>
       <c r="B102">
-        <v>106.8981913511283</v>
+        <v>7.826326331265842</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>507643275111543.9</v>
+        <v>197905405259994.1</v>
       </c>
       <c r="B103">
-        <v>107.5114369520602</v>
+        <v>7.81100756756655</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>482290634912533.1</v>
+        <v>192308448603155.4</v>
       </c>
       <c r="B104">
-        <v>107.9834619143642</v>
+        <v>7.777904382063948</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>458632971345070.7</v>
+        <v>186166850956980.7</v>
       </c>
       <c r="B105">
-        <v>108.9032862357532</v>
+        <v>7.720251078050729</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>435103746435876.5</v>
+        <v>181063761583524.3</v>
       </c>
       <c r="B106">
-        <v>108.9036778001132</v>
+        <v>7.699922235476524</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>413935073015391.1</v>
+        <v>174700155842615.9</v>
       </c>
       <c r="B107">
-        <v>109.9396099558119</v>
+        <v>7.62814080001092</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>393410072476955.9</v>
+        <v>167526584695360.4</v>
       </c>
       <c r="B108">
-        <v>110.7197708562029</v>
+        <v>7.539007232544257</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>375376836939345.8</v>
+        <v>161646145469880.5</v>
       </c>
       <c r="B109">
-        <v>111.375715343876</v>
+        <v>7.497304155416558</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>356655784287373.1</v>
+        <v>157259500158446.1</v>
       </c>
       <c r="B110">
-        <v>111.2706219369044</v>
+        <v>7.480284939396931</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>339044592527404.9</v>
+        <v>152225706403128.6</v>
       </c>
       <c r="B111">
-        <v>111.7471953875754</v>
+        <v>7.415206687593177</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>323235815730093.1</v>
+        <v>148325733251477.4</v>
       </c>
       <c r="B112">
-        <v>112.3381672952716</v>
+        <v>7.431931497785589</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>307378796164355.5</v>
+        <v>144553392059137.4</v>
       </c>
       <c r="B113">
-        <v>112.6890391264243</v>
+        <v>7.438435045853392</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>292859010003465.8</v>
+        <v>141744875685012.5</v>
       </c>
       <c r="B114">
-        <v>113.8360292374058</v>
+        <v>7.444073123858326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>137183176184091.8</v>
+      </c>
+      <c r="B115">
+        <v>7.350477377119714</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>132191405636613.2</v>
+      </c>
+      <c r="B116">
+        <v>7.274498045345902</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>127720771404023</v>
+      </c>
+      <c r="B117">
+        <v>7.214314851631344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>123821899712200</v>
+      </c>
+      <c r="B118">
+        <v>7.142149822227317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>121579645857511.2</v>
+      </c>
+      <c r="B119">
+        <v>7.177197692220719</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>117572730212638.4</v>
+      </c>
+      <c r="B120">
+        <v>7.140929685608152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>114928324350032.1</v>
+      </c>
+      <c r="B121">
+        <v>7.159264673080004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>112075939146819.6</v>
+      </c>
+      <c r="B122">
+        <v>7.11366157267009</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>108264325462912</v>
+      </c>
+      <c r="B123">
+        <v>7.048230548032619</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>103585416836574.9</v>
+      </c>
+      <c r="B124">
+        <v>6.956301136035455</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>101256563401265.3</v>
+      </c>
+      <c r="B125">
+        <v>6.968646468091259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>98969063770670.89</v>
+      </c>
+      <c r="B126">
+        <v>6.958156745278441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>96172936554513.97</v>
+      </c>
+      <c r="B127">
+        <v>6.963086016586109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>92957555536886.45</v>
+      </c>
+      <c r="B128">
+        <v>6.926989543610075</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>89922868294402.31</v>
+      </c>
+      <c r="B129">
+        <v>6.839991297854607</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>86398768750010.92</v>
+      </c>
+      <c r="B130">
+        <v>6.732845035251062</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>85117573239911.02</v>
+      </c>
+      <c r="B131">
+        <v>6.839040402185156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>82316604623688.53</v>
+      </c>
+      <c r="B132">
+        <v>6.783216481846729</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>79906772596688.34</v>
+      </c>
+      <c r="B133">
+        <v>6.720340695235719</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>76664504099309.41</v>
+      </c>
+      <c r="B134">
+        <v>6.609201335728979</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>73442929750358</v>
+      </c>
+      <c r="B135">
+        <v>6.535158971992804</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>72321080043713.61</v>
+      </c>
+      <c r="B136">
+        <v>6.597111763971485</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>69819906140402.12</v>
+      </c>
+      <c r="B137">
+        <v>6.500365227101475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>67645897015382.12</v>
+      </c>
+      <c r="B138">
+        <v>6.467765284138511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>64680802401114.41</v>
+      </c>
+      <c r="B139">
+        <v>6.357226330728089</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>62461544083705.77</v>
+      </c>
+      <c r="B140">
+        <v>6.292874534308542</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>60199130886713.23</v>
+      </c>
+      <c r="B141">
+        <v>6.216879580671598</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>58954494189703</v>
+      </c>
+      <c r="B142">
+        <v>6.246595246007845</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>57510768509581.04</v>
+      </c>
+      <c r="B143">
+        <v>6.224189880245608</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>55508530671699.67</v>
+      </c>
+      <c r="B144">
+        <v>6.147629389584362</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>54114185350736.9</v>
+      </c>
+      <c r="B145">
+        <v>6.13713836772269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>52286413469893.05</v>
+      </c>
+      <c r="B146">
+        <v>6.047983564305452</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>50265850898664.2</v>
+      </c>
+      <c r="B147">
+        <v>5.974591235358383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>49019315739942.76</v>
+      </c>
+      <c r="B148">
+        <v>6.010710330929223</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>47293317623494.72</v>
+      </c>
+      <c r="B149">
+        <v>5.962813239500582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>47060536570721.2</v>
+      </c>
+      <c r="B150">
+        <v>6.052222018546622</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>45117173177601.58</v>
+      </c>
+      <c r="B151">
+        <v>5.947211155537441</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>43995779880514.52</v>
+      </c>
+      <c r="B152">
+        <v>5.985753444000228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>43683638687866.11</v>
+      </c>
+      <c r="B153">
+        <v>6.033985315947271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>42551357353489.97</v>
+      </c>
+      <c r="B154">
+        <v>5.91965102940615</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>41195780348429.4</v>
+      </c>
+      <c r="B155">
+        <v>5.859697143544149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>40468397565868.99</v>
+      </c>
+      <c r="B156">
+        <v>5.910058575743954</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>39686191152091.65</v>
+      </c>
+      <c r="B157">
+        <v>5.886311205954234</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>39081882574241.67</v>
+      </c>
+      <c r="B158">
+        <v>5.908009322798248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>38040813079755.28</v>
+      </c>
+      <c r="B159">
+        <v>5.954144906282313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>36381097738630.01</v>
+      </c>
+      <c r="B160">
+        <v>5.875767668723777</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>36488480218152.64</v>
+      </c>
+      <c r="B161">
+        <v>5.967433177405131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>34391442253787.79</v>
+      </c>
+      <c r="B162">
+        <v>5.746112091685302</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>32756784511964.43</v>
+      </c>
+      <c r="B163">
+        <v>5.697982188994106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>31730374743345.97</v>
+      </c>
+      <c r="B164">
+        <v>5.671901220845959</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>31423595521593.29</v>
+      </c>
+      <c r="B165">
+        <v>5.709714410925478</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>30096482163716.42</v>
+      </c>
+      <c r="B166">
+        <v>5.63370689813884</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>29168395483083.36</v>
+      </c>
+      <c r="B167">
+        <v>5.661217511591099</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>28639300155094.69</v>
+      </c>
+      <c r="B168">
+        <v>5.682313588413368</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>28191958001183.28</v>
+      </c>
+      <c r="B169">
+        <v>5.734324322609133</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>27270713145473.54</v>
+      </c>
+      <c r="B170">
+        <v>5.720226754103645</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>26108691158711.78</v>
+      </c>
+      <c r="B171">
+        <v>5.641473736913507</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>25225765374480.75</v>
+      </c>
+      <c r="B172">
+        <v>5.605087893891111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>24032751766950.93</v>
+      </c>
+      <c r="B173">
+        <v>5.512463157016091</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>23235558530449.97</v>
+      </c>
+      <c r="B174">
+        <v>5.482652490883281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>22468990472181.16</v>
+      </c>
+      <c r="B175">
+        <v>5.435430781484831</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>21651603524629.15</v>
+      </c>
+      <c r="B176">
+        <v>5.437138192309522</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>21303313884912.49</v>
+      </c>
+      <c r="B177">
+        <v>5.518526363318119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>21058633679348.12</v>
+      </c>
+      <c r="B178">
+        <v>5.568879591129994</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>21299409945706.45</v>
+      </c>
+      <c r="B179">
+        <v>5.795010862081959</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>20534180809868.99</v>
+      </c>
+      <c r="B180">
+        <v>5.810457479159097</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>20304622549859.22</v>
+      </c>
+      <c r="B181">
+        <v>5.905296577175822</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>20081499109910.91</v>
+      </c>
+      <c r="B182">
+        <v>5.943450373167263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>19772642931326.46</v>
+      </c>
+      <c r="B183">
+        <v>6.075529033332448</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>19321280215816.62</v>
+      </c>
+      <c r="B184">
+        <v>6.17337191689834</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>18385282247978.15</v>
+      </c>
+      <c r="B185">
+        <v>5.974192825497436</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>17098934834544.46</v>
+      </c>
+      <c r="B186">
+        <v>5.683093045497752</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>16475003764343.67</v>
+      </c>
+      <c r="B187">
+        <v>5.713954523235824</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>15946839258080.44</v>
+      </c>
+      <c r="B188">
+        <v>5.712732412169001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>15479927754010.28</v>
+      </c>
+      <c r="B189">
+        <v>5.61897949061979</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>14832972199506.76</v>
+      </c>
+      <c r="B190">
+        <v>5.535575057217144</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>14761450831665.55</v>
+      </c>
+      <c r="B191">
+        <v>5.743642267556688</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>14860874702626.38</v>
+      </c>
+      <c r="B192">
+        <v>5.927847385330707</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>14752162340771.15</v>
+      </c>
+      <c r="B193">
+        <v>6.026851418217901</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>14082152836652.23</v>
+      </c>
+      <c r="B194">
+        <v>5.932856093672189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>13568341526598.29</v>
+      </c>
+      <c r="B195">
+        <v>5.903181291325966</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>13196658612469.15</v>
+      </c>
+      <c r="B196">
+        <v>5.93739025322956</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>12609729660928.61</v>
+      </c>
+      <c r="B197">
+        <v>5.888970279648941</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>11836714563191.89</v>
+      </c>
+      <c r="B198">
+        <v>5.685067094092769</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>11387378131503.11</v>
+      </c>
+      <c r="B199">
+        <v>5.620400863989508</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>10846112215988.44</v>
+      </c>
+      <c r="B200">
+        <v>5.638833668919122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>10820924952105.63</v>
+      </c>
+      <c r="B201">
+        <v>5.894848496958503</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>10858374816849.97</v>
+      </c>
+      <c r="B202">
+        <v>6.00527278802718</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>10786587417531.88</v>
+      </c>
+      <c r="B203">
+        <v>6.131619082416965</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>10047032698689.62</v>
+      </c>
+      <c r="B204">
+        <v>6.072330850370765</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>10296453551658.93</v>
+      </c>
+      <c r="B205">
+        <v>6.466889885491222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>10243067713045.72</v>
+      </c>
+      <c r="B206">
+        <v>6.507563047809745</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>10128238187029.64</v>
+      </c>
+      <c r="B207">
+        <v>6.678942968328911</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>9644328426099.082</v>
+      </c>
+      <c r="B208">
+        <v>6.716960836477114</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>9810030806065.326</v>
+      </c>
+      <c r="B209">
+        <v>6.996506113547771</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>9628608859827.26</v>
+      </c>
+      <c r="B210">
+        <v>7.014415240860321</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>9334629919589.449</v>
+      </c>
+      <c r="B211">
+        <v>7.109899733284219</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>9264606733189.053</v>
+      </c>
+      <c r="B212">
+        <v>7.307389705238233</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>8836192964444.924</v>
+      </c>
+      <c r="B213">
+        <v>7.16132082853021</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>8565199267845.992</v>
+      </c>
+      <c r="B214">
+        <v>7.227290836503625</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>8453427499158.88</v>
+      </c>
+      <c r="B215">
+        <v>7.35228320150184</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>8437114163836.154</v>
+      </c>
+      <c r="B216">
+        <v>7.588597580785917</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>8083531875227.17</v>
+      </c>
+      <c r="B217">
+        <v>7.756725250095024</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>8164595692967.157</v>
+      </c>
+      <c r="B218">
+        <v>8.201649554170107</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>8131332406228.143</v>
+      </c>
+      <c r="B219">
+        <v>8.222556396645455</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>7954066440708.634</v>
+      </c>
+      <c r="B220">
+        <v>8.473228708443598</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>7561227277238.439</v>
+      </c>
+      <c r="B221">
+        <v>8.659528114683853</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>7373557362660.371</v>
+      </c>
+      <c r="B222">
+        <v>8.627810963972633</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>7195527226846.8</v>
+      </c>
+      <c r="B223">
+        <v>8.472374900089385</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>6821700876149.221</v>
+      </c>
+      <c r="B224">
+        <v>8.5237885160959</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>6773315897058.828</v>
+      </c>
+      <c r="B225">
+        <v>8.965611718630793</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>6905076442400.633</v>
+      </c>
+      <c r="B226">
+        <v>9.244574637464904</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>6868181647116.769</v>
+      </c>
+      <c r="B227">
+        <v>9.502056074516414</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>7012265849118.629</v>
+      </c>
+      <c r="B228">
+        <v>10.23084728043293</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>6734181654291.43</v>
+      </c>
+      <c r="B229">
+        <v>10.239598734975</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>6588647917868.88</v>
+      </c>
+      <c r="B230">
+        <v>10.76546298502656</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>6347664075580.561</v>
+      </c>
+      <c r="B231">
+        <v>11.02732782741993</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>6560488067154.234</v>
+      </c>
+      <c r="B232">
+        <v>11.56439125626376</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>6367353350551.561</v>
+      </c>
+      <c r="B233">
+        <v>11.96501106858532</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>6336316783633.279</v>
+      </c>
+      <c r="B234">
+        <v>13.49868142835646</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>6206146027988.553</v>
+      </c>
+      <c r="B235">
+        <v>13.61307438420017</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>6094145017823.226</v>
+      </c>
+      <c r="B236">
+        <v>13.32731488405262</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>5665201763006.749</v>
+      </c>
+      <c r="B237">
+        <v>13.90158717090347</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>5188181719852.782</v>
+      </c>
+      <c r="B238">
+        <v>14.4895875575773</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>5442056608742.179</v>
+      </c>
+      <c r="B239">
+        <v>15.73694786592069</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>5566046588616.656</v>
+      </c>
+      <c r="B240">
+        <v>16.92372014641143</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>5563963734294.791</v>
+      </c>
+      <c r="B241">
+        <v>18.37539862518807</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>5365623151986.659</v>
+      </c>
+      <c r="B242">
+        <v>18.9820709633304</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>5394210457361.435</v>
+      </c>
+      <c r="B243">
+        <v>21.55763552371412</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>5561420344066.474</v>
+      </c>
+      <c r="B244">
+        <v>24.66410002795134</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>5316283545250.146</v>
+      </c>
+      <c r="B245">
+        <v>23.29392451424656</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>5170127144724.805</v>
+      </c>
+      <c r="B246">
+        <v>25.62893221076029</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>4998931693158.782</v>
+      </c>
+      <c r="B247">
+        <v>32.94535909072464</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>5066255113948.704</v>
+      </c>
+      <c r="B248">
+        <v>34.57678870694849</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>5332830118447.654</v>
+      </c>
+      <c r="B249">
+        <v>39.47322569901022</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>4862022564365.231</v>
+      </c>
+      <c r="B250">
+        <v>69.5527945414849</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>4736085815957.209</v>
+      </c>
+      <c r="B251">
+        <v>794.642354692154</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>4280324429464.663</v>
+      </c>
+      <c r="B252">
+        <v>775.8176910578354</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>4197609226507.269</v>
+      </c>
+      <c r="B253">
+        <v>2717.434236766864</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>4129562120311.399</v>
+      </c>
+      <c r="B254">
+        <v>1038.020266874577</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>3809326573649.306</v>
+      </c>
+      <c r="B255">
+        <v>404.3322862049183</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>3210045459700.859</v>
+      </c>
+      <c r="B256">
+        <v>304.0168877985826</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>2778790279644.576</v>
+      </c>
+      <c r="B257">
+        <v>452.8310728733951</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>2611124697544.733</v>
+      </c>
+      <c r="B258">
+        <v>357.6302670387413</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>2066194635571.871</v>
+      </c>
+      <c r="B259">
+        <v>210.9926391782706</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>1655353931241.231</v>
+      </c>
+      <c r="B260">
+        <v>199.8112920988669</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>1257618994065.072</v>
+      </c>
+      <c r="B261">
+        <v>286.9510396426969</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>1227602862718.929</v>
+      </c>
+      <c r="B262">
+        <v>452.3503784405112</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>992749005861.6178</v>
+      </c>
+      <c r="B263">
+        <v>310.7277364643886</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>915779064577.889</v>
+      </c>
+      <c r="B264">
+        <v>460.2771577164108</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>798561579428.7137</v>
+      </c>
+      <c r="B265">
+        <v>457.1749770511106</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>745298145751.2035</v>
+      </c>
+      <c r="B266">
+        <v>743.3973485374279</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>700712025393.5409</v>
+      </c>
+      <c r="B267">
+        <v>311.7697568051767</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>525939172708.9732</v>
+      </c>
+      <c r="B268">
+        <v>104.3718841543994</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>208896976999.2847</v>
+      </c>
+      <c r="B269">
+        <v>66.64917492638807</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>220033736105.3181</v>
+      </c>
+      <c r="B270">
+        <v>-251.2419799774521</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>294373507019.4919</v>
+      </c>
+      <c r="B271">
+        <v>-287.1537137214844</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>320087654659.0893</v>
+      </c>
+      <c r="B272">
+        <v>-2081.151683764122</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>309384693055.7846</v>
+      </c>
+      <c r="B273">
+        <v>-636.4449454544429</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>367532364932.7856</v>
+      </c>
+      <c r="B274">
+        <v>-311.5364613936674</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>424527423563.0553</v>
+      </c>
+      <c r="B275">
+        <v>-324.1240680696657</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>495365749187.5103</v>
+      </c>
+      <c r="B276">
+        <v>-678.3814072423468</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>495796619040.0302</v>
+      </c>
+      <c r="B277">
+        <v>165.2147325161012</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>202475706747.8017</v>
+      </c>
+      <c r="B278">
+        <v>40.4563921303094</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>7329211592.190951</v>
+      </c>
+      <c r="B279">
+        <v>5.709298958038657</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>77183432397.61139</v>
+      </c>
+      <c r="B280">
+        <v>-53.9201705720144</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_Sinton_Mode.xlsx
+++ b/Lifetime_Sinton_Mode.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,2234 +393,1762 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3441336093386083</v>
+        <v>4333435837322918</v>
       </c>
       <c r="B2">
-        <v>9.630052642885738</v>
+        <v>9.700671391355046</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>3378942918318218</v>
+        <v>4254333258185604</v>
       </c>
       <c r="B3">
-        <v>9.651458936954674</v>
+        <v>9.720948347220558</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3301979007118565</v>
+        <v>4156783624986832</v>
       </c>
       <c r="B4">
-        <v>9.663600190961574</v>
+        <v>9.731602533084942</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>3225193752765732</v>
+        <v>4059488974109248</v>
       </c>
       <c r="B5">
-        <v>9.691540146691501</v>
+        <v>9.758211559480696</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>3146555466786846</v>
+        <v>3959875995406454</v>
       </c>
       <c r="B6">
-        <v>9.70727022961505</v>
+        <v>9.772493249185356</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>3071480380884152</v>
+        <v>3864804698791706</v>
       </c>
       <c r="B7">
-        <v>9.733861622192743</v>
+        <v>9.797760374771842</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2992108308464941</v>
+        <v>3764321862541290</v>
       </c>
       <c r="B8">
-        <v>9.753425490887569</v>
+        <v>9.815860709129419</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>2917502210722639</v>
+        <v>3669900778594772</v>
       </c>
       <c r="B9">
-        <v>9.783459061286651</v>
+        <v>9.844588799306424</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2840011644880684</v>
+        <v>3571858121146216</v>
       </c>
       <c r="B10">
-        <v>9.792438006827959</v>
+        <v>9.852053000097797</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>2764920816046634</v>
+        <v>3476879943933336</v>
       </c>
       <c r="B11">
-        <v>9.806879252841384</v>
+        <v>9.865080209640638</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>2693169722051226</v>
+        <v>3386152108542912</v>
       </c>
       <c r="B12">
-        <v>9.830213615579277</v>
+        <v>9.887098397309199</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>2620537276713040</v>
+        <v>3294335886438536</v>
       </c>
       <c r="B13">
-        <v>9.839042083202131</v>
+        <v>9.894505368587962</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>2552379559964942</v>
+        <v>3208200192457815</v>
       </c>
       <c r="B14">
-        <v>9.856732333771383</v>
+        <v>9.910913576758919</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>2484336391450275</v>
+        <v>3122232445358358</v>
       </c>
       <c r="B15">
-        <v>9.87241692705919</v>
+        <v>9.925275529458991</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>2415138320005998</v>
+        <v>3034829393517568</v>
       </c>
       <c r="B16">
-        <v>9.878796488445838</v>
+        <v>9.930272628433684</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>2350801302822946</v>
+        <v>2953587895612455</v>
       </c>
       <c r="B17">
-        <v>9.889858377290103</v>
+        <v>9.940071554131901</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>2284983439059234</v>
+        <v>2870498094142086</v>
       </c>
       <c r="B18">
-        <v>9.889672952862048</v>
+        <v>9.938529006362325</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>2223722375822442</v>
+        <v>2793180609015878</v>
       </c>
       <c r="B19">
-        <v>9.907519646476398</v>
+        <v>9.95520745898382</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>2163220494404835</v>
+        <v>2716840001341746</v>
       </c>
       <c r="B20">
-        <v>9.914497994059124</v>
+        <v>9.960957347691879</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>2103038507467298</v>
+        <v>2640921537471027</v>
       </c>
       <c r="B21">
-        <v>9.912809473951746</v>
+        <v>9.958025268428447</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>2048698253650269</v>
+        <v>2572388211144929</v>
       </c>
       <c r="B22">
-        <v>9.933295254200114</v>
+        <v>9.97746323708455</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>1989070005036664</v>
+        <v>2497203134478057</v>
       </c>
       <c r="B23">
-        <v>9.920356751219837</v>
+        <v>9.963200092552258</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>1932242270336658</v>
+        <v>2425566218042716</v>
       </c>
       <c r="B24">
-        <v>9.912922143179033</v>
+        <v>9.954574268650102</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>1881577628588509</v>
+        <v>2361712510711194</v>
       </c>
       <c r="B25">
-        <v>9.92315086640623</v>
+        <v>9.963798266673839</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>1830053668136605</v>
+        <v>2296789382481266</v>
       </c>
       <c r="B26">
-        <v>9.923672382352343</v>
+        <v>9.963238144161787</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>1781207512085930</v>
+        <v>2235253131683045</v>
       </c>
       <c r="B27">
-        <v>9.935181036471619</v>
+        <v>9.973762637033539</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>1731399154169760</v>
+        <v>2172517452480322</v>
       </c>
       <c r="B28">
-        <v>9.92732330515639</v>
+        <v>9.964809740916987</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>1681168620833675</v>
+        <v>2109263096693072</v>
       </c>
       <c r="B29">
-        <v>9.909102181636223</v>
+        <v>9.945465825132425</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>1634383458504390</v>
+        <v>2050359265560615</v>
       </c>
       <c r="B30">
-        <v>9.907615878380303</v>
+        <v>9.942995192961282</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>1587903730336247</v>
+        <v>1991851313620502</v>
       </c>
       <c r="B31">
-        <v>9.897519567582544</v>
+        <v>9.93188770412786</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>1544442152818600</v>
+        <v>1937152800984587</v>
       </c>
       <c r="B32">
-        <v>9.897969126026464</v>
+        <v>9.931421323369804</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>1500009326196460</v>
+        <v>1881242175769306</v>
       </c>
       <c r="B33">
-        <v>9.88229060206079</v>
+        <v>9.914744917971907</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>1457084556366572</v>
+        <v>1827239029977242</v>
       </c>
       <c r="B34">
-        <v>9.870896649394936</v>
+        <v>9.902425328466984</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>1418897834705766</v>
+        <v>1779204931562668</v>
       </c>
       <c r="B35">
-        <v>9.880052295285781</v>
+        <v>9.910798744408536</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>1376949359715262</v>
+        <v>1726447899350768</v>
       </c>
       <c r="B36">
-        <v>9.857209839046181</v>
+        <v>9.886989608697576</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>1338880644185308</v>
+        <v>1678578357804306</v>
       </c>
       <c r="B37">
-        <v>9.854415284758181</v>
+        <v>9.883394570724644</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>1301837683139184</v>
+        <v>1632006030227564</v>
       </c>
       <c r="B38">
-        <v>9.84359928298205</v>
+        <v>9.871754588424933</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>1263626105413804</v>
+        <v>1583972096917174</v>
       </c>
       <c r="B39">
-        <v>9.821811920207089</v>
+        <v>9.849093646026828</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>1227690324301667</v>
+        <v>1538806049909391</v>
       </c>
       <c r="B40">
-        <v>9.812609897848972</v>
+        <v>9.839108748493052</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>1191801000101001</v>
+        <v>1493705266102790</v>
       </c>
       <c r="B41">
-        <v>9.785753964172041</v>
+        <v>9.811420321021561</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>1157053828092708</v>
+        <v>1450046339042644</v>
       </c>
       <c r="B42">
-        <v>9.757747975035439</v>
+        <v>9.782614175690808</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>1124115631920670</v>
+        <v>1408666309301402</v>
       </c>
       <c r="B43">
-        <v>9.746630324228407</v>
+        <v>9.770785346169799</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>1093682216279566</v>
+        <v>1370438187439476</v>
       </c>
       <c r="B44">
-        <v>9.746689138900615</v>
+        <v>9.770208268391128</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>1063699468500776</v>
+        <v>1332781022833178</v>
       </c>
       <c r="B45">
-        <v>9.729170692034392</v>
+        <v>9.752006127831473</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>1032528438453804</v>
+        <v>1293636547147717</v>
       </c>
       <c r="B46">
-        <v>9.700032266567444</v>
+        <v>9.722144205840555</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>1004309875184415</v>
+        <v>1258204282122655</v>
       </c>
       <c r="B47">
-        <v>9.69997934205316</v>
+        <v>9.721496305690547</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>974385270473082.9</v>
+        <v>1220634540964966</v>
       </c>
       <c r="B48">
-        <v>9.666179655736366</v>
+        <v>9.686988958904907</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>946734565035829.6</v>
+        <v>1185923934299388</v>
       </c>
       <c r="B49">
-        <v>9.637797382310628</v>
+        <v>9.657974607550159</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>920166890852653.9</v>
+        <v>1152576779090174</v>
       </c>
       <c r="B50">
-        <v>9.620569350780048</v>
+        <v>9.640148791518095</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>892568575734283.9</v>
+        <v>1117940034937580</v>
       </c>
       <c r="B51">
-        <v>9.594305334477388</v>
+        <v>9.613258059818815</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>868387510437407.8</v>
+        <v>1087595441243216</v>
       </c>
       <c r="B52">
-        <v>9.586868478743883</v>
+        <v>9.605319325179348</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>846434418772807.6</v>
+        <v>1060049461028147</v>
       </c>
       <c r="B53">
-        <v>9.582373947814435</v>
+        <v>9.600343877719427</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>820136837068201.6</v>
+        <v>1027055614720511</v>
       </c>
       <c r="B54">
-        <v>9.535865865942968</v>
+        <v>9.553186098994745</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>796065609663913.1</v>
+        <v>996858329149449</v>
       </c>
       <c r="B55">
-        <v>9.514865364616904</v>
+        <v>9.531660802027323</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>774409353664028.2</v>
+        <v>969693317278809.6</v>
       </c>
       <c r="B56">
-        <v>9.48795977838633</v>
+        <v>9.504263173467736</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>752572053837374.6</v>
+        <v>942303800641988</v>
       </c>
       <c r="B57">
-        <v>9.450424629582233</v>
+        <v>9.466199698776226</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>729003344235464.2</v>
+        <v>912745580164960.2</v>
       </c>
       <c r="B58">
-        <v>9.4108909379762</v>
+        <v>9.426108532790597</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>707072167344981.2</v>
+        <v>885243767367030.6</v>
       </c>
       <c r="B59">
-        <v>9.380388393134316</v>
+        <v>9.395125426467489</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>689620034594341.1</v>
+        <v>863360581672022.9</v>
       </c>
       <c r="B60">
-        <v>9.373381739770076</v>
+        <v>9.387752420490413</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>669361640920713.9</v>
+        <v>837960726244667.8</v>
       </c>
       <c r="B61">
-        <v>9.327443649279338</v>
+        <v>9.341312792866582</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>648901296275545.6</v>
+        <v>812309951572493.9</v>
       </c>
       <c r="B62">
-        <v>9.299145917600315</v>
+        <v>9.312559260646925</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>630877898001218.9</v>
+        <v>789716238641972.9</v>
       </c>
       <c r="B63">
-        <v>9.280237458025573</v>
+        <v>9.293263621586785</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>613318185902516.9</v>
+        <v>767705509583212.6</v>
       </c>
       <c r="B64">
-        <v>9.236075788468876</v>
+        <v>9.248682542726931</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>595990307430540</v>
+        <v>745987042476318.5</v>
       </c>
       <c r="B65">
-        <v>9.210286237474447</v>
+        <v>9.222497690276169</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>577044728571205.1</v>
+        <v>722242870011613</v>
       </c>
       <c r="B66">
-        <v>9.169876095479886</v>
+        <v>9.181647281313728</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>559739292149233.4</v>
+        <v>700555989616369.8</v>
       </c>
       <c r="B67">
-        <v>9.124123373653296</v>
+        <v>9.135510862923473</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>547753633541538.5</v>
+        <v>685536733471340.5</v>
       </c>
       <c r="B68">
-        <v>9.135025216427278</v>
+        <v>9.146186301549546</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>531318879342248.7</v>
+        <v>664943595211258.2</v>
       </c>
       <c r="B69">
-        <v>9.092067823367119</v>
+        <v>9.102823165475172</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>514068291514588.4</v>
+        <v>643329803802297.6</v>
       </c>
       <c r="B70">
-        <v>9.047475855994266</v>
+        <v>9.057847948720958</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>502415837196488.1</v>
+        <v>628731017276212.2</v>
       </c>
       <c r="B71">
-        <v>9.054303754796694</v>
+        <v>9.064461773643595</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>488627162650569.8</v>
+        <v>611456836470842.8</v>
       </c>
       <c r="B72">
-        <v>9.003618242073905</v>
+        <v>9.013426825970503</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>472768507509387.1</v>
+        <v>591590726832709</v>
       </c>
       <c r="B73">
-        <v>8.954709151944737</v>
+        <v>8.964146100642555</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>458711666316018.2</v>
+        <v>573982911989223</v>
       </c>
       <c r="B74">
-        <v>8.92834080337907</v>
+        <v>8.937487083646612</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>447658575256730.5</v>
+        <v>560138410482822</v>
       </c>
       <c r="B75">
-        <v>8.909359192520746</v>
+        <v>8.918274198696329</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>435787220513866.4</v>
+        <v>545269751704866.5</v>
       </c>
       <c r="B76">
-        <v>8.877181925277277</v>
+        <v>8.885815735659888</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>420992226699162.2</v>
+        <v>526740383252246.1</v>
       </c>
       <c r="B77">
-        <v>8.820253694086677</v>
+        <v>8.828539193539768</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>408949473455256.6</v>
+        <v>511658841175572.2</v>
       </c>
       <c r="B78">
-        <v>8.787622610743172</v>
+        <v>8.795654785410651</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>398069141767689.2</v>
+        <v>498033732104458.4</v>
       </c>
       <c r="B79">
-        <v>8.739429751096887</v>
+        <v>8.747207410398794</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>386623519863604.4</v>
+        <v>483701438388570</v>
       </c>
       <c r="B80">
-        <v>8.706416841711667</v>
+        <v>8.713941690585161</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>375710026168300.9</v>
+        <v>470036159089654.1</v>
       </c>
       <c r="B81">
-        <v>8.697007679449866</v>
+        <v>8.704315608781441</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>365439234550352.2</v>
+        <v>457176242357170.6</v>
       </c>
       <c r="B82">
-        <v>8.656027740923177</v>
+        <v>8.663100766883339</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>354112186033780.7</v>
+        <v>442994482909200.8</v>
       </c>
       <c r="B83">
-        <v>8.574326350756269</v>
+        <v>8.581111071087236</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>342642886006649.2</v>
+        <v>428635350182442.7</v>
       </c>
       <c r="B84">
-        <v>8.526025411285231</v>
+        <v>8.532561206155528</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>333939796437432.8</v>
+        <v>417739899009302.6</v>
       </c>
       <c r="B85">
-        <v>8.536508166883946</v>
+        <v>8.542893576693254</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>324939238116764.5</v>
+        <v>406472489833860.7</v>
       </c>
       <c r="B86">
-        <v>8.486883607492679</v>
+        <v>8.493056537308549</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>315016564605235.6</v>
+        <v>394051249171360.9</v>
       </c>
       <c r="B87">
-        <v>8.418437349979913</v>
+        <v>8.424369842261063</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>305027067361680</v>
+        <v>381546914310359.1</v>
       </c>
       <c r="B88">
-        <v>8.382160957952323</v>
+        <v>8.387887196419328</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>297447024770603.1</v>
+        <v>372058982337312.8</v>
       </c>
       <c r="B89">
-        <v>8.386957415390428</v>
+        <v>8.392551244670722</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>289655523114714.6</v>
+        <v>362306702349282.4</v>
       </c>
       <c r="B90">
-        <v>8.344637517254082</v>
+        <v>8.3500575873835</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>282262266923519</v>
+        <v>353053202924378.4</v>
       </c>
       <c r="B91">
-        <v>8.329824001674782</v>
+        <v>8.335091275997845</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>272967861677342.3</v>
+        <v>341420633951868.9</v>
       </c>
       <c r="B92">
-        <v>8.269949263147893</v>
+        <v>8.275002940903164</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>264710411022554.1</v>
+        <v>331086288937794.7</v>
       </c>
       <c r="B93">
-        <v>8.216904161797544</v>
+        <v>8.221780249344928</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>257761437200457.8</v>
+        <v>322389821895829.6</v>
       </c>
       <c r="B94">
-        <v>8.18756768406085</v>
+        <v>8.19230261334163</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>250847550368048</v>
+        <v>313737534077351.9</v>
       </c>
       <c r="B95">
-        <v>8.175560712907952</v>
+        <v>8.180160173227387</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>243501483073340.2</v>
+        <v>304544693832738.4</v>
       </c>
       <c r="B96">
-        <v>8.133300880318249</v>
+        <v>8.137739160626854</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>235626008158751.5</v>
+        <v>294689691307403.4</v>
       </c>
       <c r="B97">
-        <v>8.051783292149114</v>
+        <v>8.056034676477264</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>228356619071076.7</v>
+        <v>285593425402880.4</v>
       </c>
       <c r="B98">
-        <v>7.990637486336109</v>
+        <v>7.994728176697374</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>221234866947552.9</v>
+        <v>276682187057281.1</v>
       </c>
       <c r="B99">
-        <v>7.931892599467491</v>
+        <v>7.935827639369013</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>214510167731790.6</v>
+        <v>268268030883282.7</v>
       </c>
       <c r="B100">
-        <v>7.883015358145891</v>
+        <v>7.886812827204209</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>209528757666445.5</v>
+        <v>262035297058562.4</v>
       </c>
       <c r="B101">
-        <v>7.882609015671991</v>
+        <v>7.886318933639648</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>203163105345134.8</v>
+        <v>254070804167768.4</v>
       </c>
       <c r="B102">
-        <v>7.826326331265842</v>
+        <v>7.829896531597061</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>197905405259994.1</v>
+        <v>247492716184557.8</v>
       </c>
       <c r="B103">
-        <v>7.81100756756655</v>
+        <v>7.814480395356147</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>192308448603155.4</v>
+        <v>240490343617011.1</v>
       </c>
       <c r="B104">
-        <v>7.777904382063948</v>
+        <v>7.781261837212575</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>186166850956980.7</v>
+        <v>232806771601976.9</v>
       </c>
       <c r="B105">
-        <v>7.720251078050729</v>
+        <v>7.723478006371976</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>181063761583524.3</v>
+        <v>226422608221287.1</v>
       </c>
       <c r="B106">
-        <v>7.699922235476524</v>
+        <v>7.703051546598391</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>174700155842615.9</v>
+        <v>218461695256684.7</v>
       </c>
       <c r="B107">
-        <v>7.62814080001092</v>
+        <v>7.631125906901011</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>167526584695360.4</v>
+        <v>209487783699024.6</v>
       </c>
       <c r="B108">
-        <v>7.539007232544257</v>
+        <v>7.541836682553907</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>161646145469880.5</v>
+        <v>202131755716415.3</v>
       </c>
       <c r="B109">
-        <v>7.497304155416558</v>
+        <v>7.500025735902387</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>157259500158446.1</v>
+        <v>196644488860026.4</v>
       </c>
       <c r="B110">
-        <v>7.480284939396931</v>
+        <v>7.482928566435977</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>152225706403128.6</v>
+        <v>190347835890208.1</v>
       </c>
       <c r="B111">
-        <v>7.415206687593177</v>
+        <v>7.417744204945656</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>148325733251477.4</v>
+        <v>185469550408748.7</v>
       </c>
       <c r="B112">
-        <v>7.431931497785589</v>
+        <v>7.43441242828053</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>144553392059137.4</v>
+        <v>180750995125078</v>
       </c>
       <c r="B113">
-        <v>7.438435045853392</v>
+        <v>7.440857398490013</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>141744875685012.5</v>
+        <v>177238072400887.8</v>
       </c>
       <c r="B114">
-        <v>7.444073123858326</v>
+        <v>7.446448132555552</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>137183176184091.8</v>
+        <v>171532344077170.6</v>
       </c>
       <c r="B115">
-        <v>7.350477377119714</v>
+        <v>7.352741317967995</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>132191405636613.2</v>
+        <v>165288821751570.6</v>
       </c>
       <c r="B116">
-        <v>7.274498045345902</v>
+        <v>7.276656775530815</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>127720771404023</v>
+        <v>159697236903314.2</v>
       </c>
       <c r="B117">
-        <v>7.214314851631344</v>
+        <v>7.216385538279143</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>123821899712200</v>
+        <v>154820868396764.1</v>
       </c>
       <c r="B118">
-        <v>7.142149822227317</v>
+        <v>7.144142173964172</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>121579645857511.2</v>
+        <v>152016491815364.8</v>
       </c>
       <c r="B119">
-        <v>7.177197692220719</v>
+        <v>7.179163253231209</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>117572730212638.4</v>
+        <v>147005131576883.3</v>
       </c>
       <c r="B120">
-        <v>7.140929685608152</v>
+        <v>7.142819435853291</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>114928324350032.1</v>
+        <v>143697881693910.5</v>
       </c>
       <c r="B121">
-        <v>7.159264673080004</v>
+        <v>7.161119206502271</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>112075939146819.6</v>
+        <v>140130564885965.2</v>
       </c>
       <c r="B122">
-        <v>7.11366157267009</v>
+        <v>7.11545572173512</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>108264325462912</v>
+        <v>135363667063840.7</v>
       </c>
       <c r="B123">
-        <v>7.048230548032619</v>
+        <v>7.049943267804561</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>103585416836574.9</v>
+        <v>129512221143095.2</v>
       </c>
       <c r="B124">
-        <v>6.956301136035455</v>
+        <v>6.957921099179589</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>101256563401265.3</v>
+        <v>126599801785142.6</v>
       </c>
       <c r="B125">
-        <v>6.968646468091259</v>
+        <v>6.970238076220826</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>98969063770670.89</v>
+        <v>123739128559584.8</v>
       </c>
       <c r="B126">
-        <v>6.958156745278441</v>
+        <v>6.959708879938939</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>96172936554513.97</v>
+        <v>120242422285511.4</v>
       </c>
       <c r="B127">
-        <v>6.963086016586109</v>
+        <v>6.964593021842953</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>92957555536886.45</v>
+        <v>116221471433343.1</v>
       </c>
       <c r="B128">
-        <v>6.926989543610075</v>
+        <v>6.928437742872003</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>89922868294402.31</v>
+        <v>112426538370273.7</v>
       </c>
       <c r="B129">
-        <v>6.839991297854607</v>
+        <v>6.841373803977875</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>86398768750010.92</v>
+        <v>108019651481625.8</v>
       </c>
       <c r="B130">
-        <v>6.732845035251062</v>
+        <v>6.734155834814787</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>85117573239911.02</v>
+        <v>106417533769103.7</v>
       </c>
       <c r="B131">
-        <v>6.839040402185156</v>
+        <v>6.840353631404304</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>82316604623688.53</v>
+        <v>102914992636384.1</v>
       </c>
       <c r="B132">
-        <v>6.783216481846729</v>
+        <v>6.784473458183195</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>79906772596688.34</v>
+        <v>99901593558934.97</v>
       </c>
       <c r="B133">
-        <v>6.720340695235719</v>
+        <v>6.721548554922884</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>76664504099309.41</v>
+        <v>95847317670645.97</v>
       </c>
       <c r="B134">
-        <v>6.609201335728979</v>
+        <v>6.610339097607056</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>73442929750358</v>
+        <v>91818977619826.55</v>
       </c>
       <c r="B135">
-        <v>6.535158971992804</v>
+        <v>6.536240466830448</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>72321080043713.61</v>
+        <v>90416201472788.59</v>
       </c>
       <c r="B136">
-        <v>6.597111763971485</v>
+        <v>6.598188291848434</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>69819906140402.12</v>
+        <v>87288725234756.75</v>
       </c>
       <c r="B137">
-        <v>6.500365227101475</v>
+        <v>6.501387028682811</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>67645897015382.12</v>
+        <v>84570365720926.64</v>
       </c>
       <c r="B138">
-        <v>6.467765284138511</v>
+        <v>6.468749280609329</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>64680802401114.41</v>
+        <v>80862883899093.7</v>
       </c>
       <c r="B139">
-        <v>6.357226330728089</v>
+        <v>6.358150706638321</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>62461544083705.77</v>
+        <v>78088010147013.86</v>
       </c>
       <c r="B140">
-        <v>6.292874534308542</v>
+        <v>6.293759311481835</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>60199130886713.23</v>
+        <v>75259205952694.2</v>
       </c>
       <c r="B141">
-        <v>6.216879580671598</v>
+        <v>6.217723547233626</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>58954494189703</v>
+        <v>73702989109449.11</v>
       </c>
       <c r="B142">
-        <v>6.246595246007845</v>
+        <v>6.247427118688422</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>57510768509581.04</v>
+        <v>71897854699517.91</v>
       </c>
       <c r="B143">
-        <v>6.224189880245608</v>
+        <v>6.224997046251122</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>55508530671699.67</v>
+        <v>69394414998685.05</v>
       </c>
       <c r="B144">
-        <v>6.147629389584362</v>
+        <v>6.148398786490995</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>54114185350736.9</v>
+        <v>67651049406503.07</v>
       </c>
       <c r="B145">
-        <v>6.13713836772269</v>
+        <v>6.137887397310931</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>52286413469893.05</v>
+        <v>65365782420949.23</v>
       </c>
       <c r="B146">
-        <v>6.047983564305452</v>
+        <v>6.048695621622898</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>50265850898664.2</v>
+        <v>62839490879400.92</v>
       </c>
       <c r="B147">
-        <v>5.974591235358383</v>
+        <v>5.975268234757583</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>49019315739942.76</v>
+        <v>61280970524406.72</v>
       </c>
       <c r="B148">
-        <v>6.010710330929223</v>
+        <v>6.011374940146796</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>47293317623494.72</v>
+        <v>59123000856934.2</v>
       </c>
       <c r="B149">
-        <v>5.962813239500582</v>
+        <v>5.963450826257197</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>47060536570721.2</v>
+        <v>58831962173583.74</v>
       </c>
       <c r="B150">
-        <v>6.052222018546622</v>
+        <v>6.052865665726318</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>45117173177601.58</v>
+        <v>56402249254133.02</v>
       </c>
       <c r="B151">
-        <v>5.947211155537441</v>
+        <v>5.94781587814517</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>43995779880514.52</v>
+        <v>55000223853891.2</v>
       </c>
       <c r="B152">
-        <v>5.985753444000228</v>
+        <v>5.986349554933269</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>43683638687866.11</v>
+        <v>54609969642049.88</v>
       </c>
       <c r="B153">
-        <v>6.033985315947271</v>
+        <v>6.034581960189892</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>42551357353489.97</v>
+        <v>53194340682785.31</v>
       </c>
       <c r="B154">
-        <v>5.91965102940615</v>
+        <v>5.920219477440148</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>41195780348429.4</v>
+        <v>51499547017399.29</v>
       </c>
       <c r="B155">
-        <v>5.859697143544149</v>
+        <v>5.860242446357956</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>40468397565868.99</v>
+        <v>50590149837264.83</v>
       </c>
       <c r="B156">
-        <v>5.910058575743954</v>
+        <v>5.910599732448662</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>39686191152091.65</v>
+        <v>49612213752748.98</v>
       </c>
       <c r="B157">
-        <v>5.886311205954234</v>
+        <v>5.886839932340307</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>39081882574241.67</v>
+        <v>48856692838245.55</v>
       </c>
       <c r="B158">
-        <v>5.908009322798248</v>
+        <v>5.908531479909654</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>38040813079755.28</v>
+        <v>47555127928431.8</v>
       </c>
       <c r="B159">
-        <v>5.954144906282313</v>
+        <v>5.954655319109983</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>36381097738630.01</v>
+        <v>45480132917155.27</v>
       </c>
       <c r="B160">
-        <v>5.875767668723777</v>
+        <v>5.876251018773816</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>36488480218152.64</v>
+        <v>45614383242352.65</v>
       </c>
       <c r="B161">
-        <v>5.967433177405131</v>
+        <v>5.967924919939369</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>34391442253787.79</v>
+        <v>42992663586334.04</v>
       </c>
       <c r="B162">
-        <v>5.746112091685302</v>
+        <v>5.746555528215455</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>32756784511964.43</v>
+        <v>40949029611403.52</v>
       </c>
       <c r="B163">
-        <v>5.697982188994106</v>
+        <v>5.698402418374325</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>31730374743345.97</v>
+        <v>39665829373158.3</v>
       </c>
       <c r="B164">
-        <v>5.671901220845959</v>
+        <v>5.672308322695085</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>31423595521593.29</v>
+        <v>39282300308071.66</v>
       </c>
       <c r="B165">
-        <v>5.709714410925478</v>
+        <v>5.710119840248876</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>30096482163716.42</v>
+        <v>37623176673875.01</v>
       </c>
       <c r="B166">
-        <v>5.63370689813884</v>
+        <v>5.634088995735986</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>29168395483083.36</v>
+        <v>36462912064386.89</v>
       </c>
       <c r="B167">
-        <v>5.661217511591099</v>
+        <v>5.661590719227807</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>28639300155094.69</v>
+        <v>35801456011056.46</v>
       </c>
       <c r="B168">
-        <v>5.682313588413368</v>
+        <v>5.682682083157863</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>28191958001183.28</v>
+        <v>35242206091626.64</v>
       </c>
       <c r="B169">
-        <v>5.734324322609133</v>
+        <v>5.734689767042751</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>27270713145473.54</v>
+        <v>34090504858740.7</v>
       </c>
       <c r="B170">
-        <v>5.720226754103645</v>
+        <v>5.720578238134808</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>26108691158711.78</v>
+        <v>32637801144724.68</v>
       </c>
       <c r="B171">
-        <v>5.641473736913507</v>
+        <v>5.641805555215424</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>25225765374480.75</v>
+        <v>31534015137382.17</v>
       </c>
       <c r="B172">
-        <v>5.605087893891111</v>
+        <v>5.605406334756917</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>24032751766950.93</v>
+        <v>30042581155704.7</v>
       </c>
       <c r="B173">
-        <v>5.512463157016091</v>
+        <v>5.512761519530715</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>23235558530449.97</v>
+        <v>29045982541229.91</v>
       </c>
       <c r="B174">
-        <v>5.482652490883281</v>
+        <v>5.482939940744731</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>22468990472181.16</v>
+        <v>28087672916648.79</v>
       </c>
       <c r="B175">
-        <v>5.435430781484831</v>
+        <v>5.435706280906744</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>21651603524629.15</v>
+        <v>27065836757385.92</v>
       </c>
       <c r="B176">
-        <v>5.437138192309522</v>
+        <v>5.437404233096212</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>21303313884912.49</v>
+        <v>26630432196035.97</v>
       </c>
       <c r="B177">
-        <v>5.518526363318119</v>
+        <v>5.518792821736371</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>21058633679348.12</v>
+        <v>26324552485822.12</v>
       </c>
       <c r="B178">
-        <v>5.568879591129994</v>
+        <v>5.569146229178754</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>21299409945706.45</v>
+        <v>26625551799424.21</v>
       </c>
       <c r="B179">
-        <v>5.795010862081959</v>
+        <v>5.795290703396599</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>20534180809868.99</v>
+        <v>25668924413785.24</v>
       </c>
       <c r="B180">
-        <v>5.810457479159097</v>
+        <v>5.810727178821025</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>20304622549859.22</v>
+        <v>25381949948813.19</v>
       </c>
       <c r="B181">
-        <v>5.905296577175822</v>
+        <v>5.905568473118845</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>20081499109910.91</v>
+        <v>25103020042528.4</v>
       </c>
       <c r="B182">
-        <v>5.943450373167263</v>
+        <v>5.943720878371208</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>19772642931326.46</v>
+        <v>24716914840632.52</v>
       </c>
       <c r="B183">
-        <v>6.075529033332448</v>
+        <v>6.075800875214981</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>19321280215816.62</v>
+        <v>24152661302944.29</v>
       </c>
       <c r="B184">
-        <v>6.17337191689834</v>
+        <v>6.173640694421803</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>18385282247978.15</v>
+        <v>22982563548435.29</v>
       </c>
       <c r="B185">
-        <v>5.974192825497436</v>
+        <v>5.974438914585802</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>17098934834544.46</v>
+        <v>21374499565855.95</v>
       </c>
       <c r="B186">
-        <v>5.683093045497752</v>
+        <v>5.683311077858959</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>16475003764343.67</v>
+        <v>20594526196218.34</v>
       </c>
       <c r="B187">
-        <v>5.713954523235824</v>
+        <v>5.714166823884644</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>15946839258080.44</v>
+        <v>19934271897518.53</v>
       </c>
       <c r="B188">
-        <v>5.712732412169001</v>
+        <v>5.712938049768233</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>15479927754010.28</v>
+        <v>19350590815344.84</v>
       </c>
       <c r="B189">
-        <v>5.61897949061979</v>
+        <v>5.619175651417814</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>14832972199506.76</v>
+        <v>18541840636698.76</v>
       </c>
       <c r="B190">
-        <v>5.535575057217144</v>
+        <v>5.535760724137104</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>14761450831665.55</v>
+        <v>18452432911281.57</v>
       </c>
       <c r="B191">
-        <v>5.743642267556688</v>
+        <v>5.743835107431781</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>14860874702626.38</v>
+        <v>18576721120340.85</v>
       </c>
       <c r="B192">
-        <v>5.927847385330707</v>
+        <v>5.928047690019225</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>14752162340771.15</v>
+        <v>18440821518547.05</v>
       </c>
       <c r="B193">
-        <v>6.026851418217901</v>
+        <v>6.027052301331086</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>14082152836652.23</v>
+        <v>17603254731175.29</v>
       </c>
       <c r="B194">
-        <v>5.932856093672189</v>
+        <v>5.933044127353809</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>13568341526598.29</v>
+        <v>16960950214894.38</v>
       </c>
       <c r="B195">
-        <v>5.903181291325966</v>
+        <v>5.903361986134283</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>13196658612469.15</v>
+        <v>16496318297986.98</v>
       </c>
       <c r="B196">
-        <v>5.93739025322956</v>
+        <v>5.93756686993571</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>12609729660928.61</v>
+        <v>15762614058911.7</v>
       </c>
       <c r="B197">
-        <v>5.888970279648941</v>
+        <v>5.889136965541361</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>11836714563191.89</v>
+        <v>14796291475078.78</v>
       </c>
       <c r="B198">
-        <v>5.685067094092769</v>
+        <v>5.685218256886913</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>11387378131503.11</v>
+        <v>14234591274685.95</v>
       </c>
       <c r="B199">
-        <v>5.620400863989508</v>
+        <v>5.620544958011147</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>10846112215988.44</v>
+        <v>13557974674756.06</v>
       </c>
       <c r="B200">
-        <v>5.638833668919122</v>
+        <v>5.638971893832683</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>10820924952105.63</v>
+        <v>13526489043723.29</v>
       </c>
       <c r="B201">
-        <v>5.894848496958503</v>
+        <v>5.894993578149056</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>10858374816849.97</v>
+        <v>13573303682340.71</v>
       </c>
       <c r="B202">
-        <v>6.00527278802718</v>
+        <v>6.005421020570508</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>10786587417531.88</v>
+        <v>13483565016607.47</v>
       </c>
       <c r="B203">
-        <v>6.131619082416965</v>
+        <v>6.131768114050313</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>10047032698689.62</v>
+        <v>12559077823368.01</v>
       </c>
       <c r="B204">
-        <v>6.072330850370765</v>
+        <v>6.072468710650276</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>10296453551658.93</v>
+        <v>12870868312309.42</v>
       </c>
       <c r="B205">
-        <v>6.466889885491222</v>
+        <v>6.467041688353953</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>10243067713045.72</v>
+        <v>12804132897274.35</v>
       </c>
       <c r="B206">
-        <v>6.507563047809745</v>
+        <v>6.5077143057798</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>10128238187029.64</v>
+        <v>12660589340673.47</v>
       </c>
       <c r="B207">
-        <v>6.678942968328911</v>
+        <v>6.679095583698265</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>9644328426099.082</v>
+        <v>12055674942564.82</v>
       </c>
       <c r="B208">
-        <v>6.716960836477114</v>
+        <v>6.717107467278518</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>9810030806065.326</v>
+        <v>12262812080577.53</v>
       </c>
       <c r="B209">
-        <v>6.996506113547771</v>
+        <v>6.996662167958021</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>9628608859827.26</v>
+        <v>12036024623564.42</v>
       </c>
       <c r="B210">
-        <v>7.014415240860321</v>
+        <v>7.014567752903072</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>9334629919589.449</v>
+        <v>11668535102026.18</v>
       </c>
       <c r="B211">
-        <v>7.109899733284219</v>
+        <v>7.11004979945776</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>9264606733189.053</v>
+        <v>11581002417023.4</v>
       </c>
       <c r="B212">
-        <v>7.307389705238233</v>
+        <v>7.307542451845621</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>8836192964444.924</v>
+        <v>11045463163442.62</v>
       </c>
       <c r="B213">
-        <v>7.16132082853021</v>
+        <v>7.161463051350403</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>8565199267845.992</v>
+        <v>10706707638213.49</v>
       </c>
       <c r="B214">
-        <v>7.227290836503625</v>
+        <v>7.227430677575041</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>8453427499158.88</v>
+        <v>10566987520238.2</v>
       </c>
       <c r="B215">
-        <v>7.35228320150184</v>
+        <v>7.352424224577944</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>8437114163836.154</v>
+        <v>10546595067842.4</v>
       </c>
       <c r="B216">
-        <v>7.588597580785917</v>
+        <v>7.588742217177129</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>8083531875227.17</v>
+        <v>10104600602437.7</v>
       </c>
       <c r="B217">
-        <v>7.756725250095024</v>
+        <v>7.756867064213986</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>8164595692967.157</v>
+        <v>10205934118683.31</v>
       </c>
       <c r="B218">
-        <v>8.201649554170107</v>
+        <v>8.201801992964443</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>8131332406228.143</v>
+        <v>10164353469419.22</v>
       </c>
       <c r="B219">
-        <v>8.222556396645455</v>
+        <v>8.222707795479675</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>7954066440708.634</v>
+        <v>9942762907169.008</v>
       </c>
       <c r="B220">
-        <v>8.473228708443598</v>
+        <v>8.473380103274193</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>7561227277238.439</v>
+        <v>9451696627052.168</v>
       </c>
       <c r="B221">
-        <v>8.659528114683853</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222">
-        <v>7373557362660.371</v>
-      </c>
-      <c r="B222">
-        <v>8.627810963972633</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223">
-        <v>7195527226846.8</v>
-      </c>
-      <c r="B223">
-        <v>8.472374900089385</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224">
-        <v>6821700876149.221</v>
-      </c>
-      <c r="B224">
-        <v>8.5237885160959</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225">
-        <v>6773315897058.828</v>
-      </c>
-      <c r="B225">
-        <v>8.965611718630793</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226">
-        <v>6905076442400.633</v>
-      </c>
-      <c r="B226">
-        <v>9.244574637464904</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227">
-        <v>6868181647116.769</v>
-      </c>
-      <c r="B227">
-        <v>9.502056074516414</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228">
-        <v>7012265849118.629</v>
-      </c>
-      <c r="B228">
-        <v>10.23084728043293</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229">
-        <v>6734181654291.43</v>
-      </c>
-      <c r="B229">
-        <v>10.239598734975</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230">
-        <v>6588647917868.88</v>
-      </c>
-      <c r="B230">
-        <v>10.76546298502656</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231">
-        <v>6347664075580.561</v>
-      </c>
-      <c r="B231">
-        <v>11.02732782741993</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232">
-        <v>6560488067154.234</v>
-      </c>
-      <c r="B232">
-        <v>11.56439125626376</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233">
-        <v>6367353350551.561</v>
-      </c>
-      <c r="B233">
-        <v>11.96501106858532</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234">
-        <v>6336316783633.279</v>
-      </c>
-      <c r="B234">
-        <v>13.49868142835646</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235">
-        <v>6206146027988.553</v>
-      </c>
-      <c r="B235">
-        <v>13.61307438420017</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236">
-        <v>6094145017823.226</v>
-      </c>
-      <c r="B236">
-        <v>13.32731488405262</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237">
-        <v>5665201763006.749</v>
-      </c>
-      <c r="B237">
-        <v>13.90158717090347</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238">
-        <v>5188181719852.782</v>
-      </c>
-      <c r="B238">
-        <v>14.4895875575773</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239">
-        <v>5442056608742.179</v>
-      </c>
-      <c r="B239">
-        <v>15.73694786592069</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240">
-        <v>5566046588616.656</v>
-      </c>
-      <c r="B240">
-        <v>16.92372014641143</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241">
-        <v>5563963734294.791</v>
-      </c>
-      <c r="B241">
-        <v>18.37539862518807</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242">
-        <v>5365623151986.659</v>
-      </c>
-      <c r="B242">
-        <v>18.9820709633304</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243">
-        <v>5394210457361.435</v>
-      </c>
-      <c r="B243">
-        <v>21.55763552371412</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244">
-        <v>5561420344066.474</v>
-      </c>
-      <c r="B244">
-        <v>24.66410002795134</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245">
-        <v>5316283545250.146</v>
-      </c>
-      <c r="B245">
-        <v>23.29392451424656</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246">
-        <v>5170127144724.805</v>
-      </c>
-      <c r="B246">
-        <v>25.62893221076029</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247">
-        <v>4998931693158.782</v>
-      </c>
-      <c r="B247">
-        <v>32.94535909072464</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248">
-        <v>5066255113948.704</v>
-      </c>
-      <c r="B248">
-        <v>34.57678870694849</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249">
-        <v>5332830118447.654</v>
-      </c>
-      <c r="B249">
-        <v>39.47322569901022</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250">
-        <v>4862022564365.231</v>
-      </c>
-      <c r="B250">
-        <v>69.5527945414849</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251">
-        <v>4736085815957.209</v>
-      </c>
-      <c r="B251">
-        <v>794.642354692154</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252">
-        <v>4280324429464.663</v>
-      </c>
-      <c r="B252">
-        <v>775.8176910578354</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253">
-        <v>4197609226507.269</v>
-      </c>
-      <c r="B253">
-        <v>2717.434236766864</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254">
-        <v>4129562120311.399</v>
-      </c>
-      <c r="B254">
-        <v>1038.020266874577</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255">
-        <v>3809326573649.306</v>
-      </c>
-      <c r="B255">
-        <v>404.3322862049183</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256">
-        <v>3210045459700.859</v>
-      </c>
-      <c r="B256">
-        <v>304.0168877985826</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257">
-        <v>2778790279644.576</v>
-      </c>
-      <c r="B257">
-        <v>452.8310728733951</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258">
-        <v>2611124697544.733</v>
-      </c>
-      <c r="B258">
-        <v>357.6302670387413</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259">
-        <v>2066194635571.871</v>
-      </c>
-      <c r="B259">
-        <v>210.9926391782706</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260">
-        <v>1655353931241.231</v>
-      </c>
-      <c r="B260">
-        <v>199.8112920988669</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261">
-        <v>1257618994065.072</v>
-      </c>
-      <c r="B261">
-        <v>286.9510396426969</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262">
-        <v>1227602862718.929</v>
-      </c>
-      <c r="B262">
-        <v>452.3503784405112</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263">
-        <v>992749005861.6178</v>
-      </c>
-      <c r="B263">
-        <v>310.7277364643886</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264">
-        <v>915779064577.889</v>
-      </c>
-      <c r="B264">
-        <v>460.2771577164108</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265">
-        <v>798561579428.7137</v>
-      </c>
-      <c r="B265">
-        <v>457.1749770511106</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266">
-        <v>745298145751.2035</v>
-      </c>
-      <c r="B266">
-        <v>743.3973485374279</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267">
-        <v>700712025393.5409</v>
-      </c>
-      <c r="B267">
-        <v>311.7697568051767</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268">
-        <v>525939172708.9732</v>
-      </c>
-      <c r="B268">
-        <v>104.3718841543994</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269">
-        <v>208896976999.2847</v>
-      </c>
-      <c r="B269">
-        <v>66.64917492638807</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270">
-        <v>220033736105.3181</v>
-      </c>
-      <c r="B270">
-        <v>-251.2419799774521</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271">
-        <v>294373507019.4919</v>
-      </c>
-      <c r="B271">
-        <v>-287.1537137214844</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272">
-        <v>320087654659.0893</v>
-      </c>
-      <c r="B272">
-        <v>-2081.151683764122</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273">
-        <v>309384693055.7846</v>
-      </c>
-      <c r="B273">
-        <v>-636.4449454544429</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274">
-        <v>367532364932.7856</v>
-      </c>
-      <c r="B274">
-        <v>-311.5364613936674</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275">
-        <v>424527423563.0553</v>
-      </c>
-      <c r="B275">
-        <v>-324.1240680696657</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276">
-        <v>495365749187.5103</v>
-      </c>
-      <c r="B276">
-        <v>-678.3814072423468</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277">
-        <v>495796619040.0302</v>
-      </c>
-      <c r="B277">
-        <v>165.2147325161012</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278">
-        <v>202475706747.8017</v>
-      </c>
-      <c r="B278">
-        <v>40.4563921303094</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279">
-        <v>7329211592.190951</v>
-      </c>
-      <c r="B279">
-        <v>5.709298958038657</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280">
-        <v>77183432397.61139</v>
-      </c>
-      <c r="B280">
-        <v>-53.9201705720144</v>
+        <v>8.659674969580559</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_Sinton_Mode.xlsx
+++ b/Lifetime_Sinton_Mode.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,1762 +393,2074 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>4333435837322918</v>
+        <v>2.83355423249052E+16</v>
       </c>
       <c r="B2">
-        <v>9.700671391355046</v>
+        <v>514.3380596114838</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>4254333258185604</v>
+        <v>2.516602980444679E+16</v>
       </c>
       <c r="B3">
-        <v>9.720948347220558</v>
+        <v>524.1637963163213</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>4156783624986832</v>
+        <v>2.257729882615543E+16</v>
       </c>
       <c r="B4">
-        <v>9.731602533084942</v>
+        <v>577.3063671288993</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4059488974109248</v>
+        <v>2.043175498543968E+16</v>
       </c>
       <c r="B5">
-        <v>9.758211559480696</v>
+        <v>628.1642742465257</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>3959875995406454</v>
+        <v>1.863513145726835E+16</v>
       </c>
       <c r="B6">
-        <v>9.772493249185356</v>
+        <v>679.1540272136259</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>3864804698791706</v>
+        <v>1.710617957526767E+16</v>
       </c>
       <c r="B7">
-        <v>9.797760374771842</v>
+        <v>727.9941379178445</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>3764321862541290</v>
+        <v>1.578721159564384E+16</v>
       </c>
       <c r="B8">
-        <v>9.815860709129419</v>
+        <v>774.9489281176164</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>3669900778594772</v>
+        <v>1.463710067733334E+16</v>
       </c>
       <c r="B9">
-        <v>9.844588799306424</v>
+        <v>818.9298047829726</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>3571858121146216</v>
+        <v>1.362094949145417E+16</v>
       </c>
       <c r="B10">
-        <v>9.852053000097797</v>
+        <v>865.7357610184999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>3476879943933336</v>
+        <v>1.273021505160606E+16</v>
       </c>
       <c r="B11">
-        <v>9.865080209640638</v>
+        <v>911.4643633386347</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>3386152108542912</v>
+        <v>1.192817671139385E+16</v>
       </c>
       <c r="B12">
-        <v>9.887098397309199</v>
+        <v>948.7250003900476</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>3294335886438536</v>
+        <v>1.120638568395309E+16</v>
       </c>
       <c r="B13">
-        <v>9.894505368587962</v>
+        <v>990.5909761380794</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>3208200192457815</v>
+        <v>1.055706191465882E+16</v>
       </c>
       <c r="B14">
-        <v>9.910913576758919</v>
+        <v>1030.245088262978</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>3122232445358358</v>
+        <v>9964432755826102</v>
       </c>
       <c r="B15">
-        <v>9.925275529458991</v>
+        <v>1067.084637372316</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>3034829393517568</v>
+        <v>9425296722180698</v>
       </c>
       <c r="B16">
-        <v>9.930272628433684</v>
+        <v>1109.856535900944</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>2953587895612455</v>
+        <v>8935159218412562</v>
       </c>
       <c r="B17">
-        <v>9.940071554131901</v>
+        <v>1146.627913089032</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>2870498094142086</v>
+        <v>8480839252665462</v>
       </c>
       <c r="B18">
-        <v>9.938529006362325</v>
+        <v>1180.5986093275</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>2793180609015878</v>
+        <v>8064518079839175</v>
       </c>
       <c r="B19">
-        <v>9.95520745898382</v>
+        <v>1216.12386934781</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>2716840001341746</v>
+        <v>7677122118323970</v>
       </c>
       <c r="B20">
-        <v>9.960957347691879</v>
+        <v>1248.599745862113</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>2640921537471027</v>
+        <v>7319309534166748</v>
       </c>
       <c r="B21">
-        <v>9.958025268428447</v>
+        <v>1289.542547614482</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>2572388211144929</v>
+        <v>6989203509370700</v>
       </c>
       <c r="B22">
-        <v>9.97746323708455</v>
+        <v>1318.623033313732</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>2497203134478057</v>
+        <v>6676903445440264</v>
       </c>
       <c r="B23">
-        <v>9.963200092552258</v>
+        <v>1344.781708067814</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>2425566218042716</v>
+        <v>6387439897676368</v>
       </c>
       <c r="B24">
-        <v>9.954574268650102</v>
+        <v>1380.259860551658</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>2361712510711194</v>
+        <v>6116025209592006</v>
       </c>
       <c r="B25">
-        <v>9.963798266673839</v>
+        <v>1410.01243710563</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>2296789382481266</v>
+        <v>5861726623172096</v>
       </c>
       <c r="B26">
-        <v>9.963238144161787</v>
+        <v>1442.555866698907</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>2235253131683045</v>
+        <v>5623537339188617</v>
       </c>
       <c r="B27">
-        <v>9.973762637033539</v>
+        <v>1469.371929114543</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>2172517452480322</v>
+        <v>5397873522398365</v>
       </c>
       <c r="B28">
-        <v>9.964809740916987</v>
+        <v>1491.537396472854</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>2109263096693072</v>
+        <v>5184914564820528</v>
       </c>
       <c r="B29">
-        <v>9.945465825132425</v>
+        <v>1519.70953868639</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>2050359265560615</v>
+        <v>4984365789993502</v>
       </c>
       <c r="B30">
-        <v>9.942995192961282</v>
+        <v>1554.538752113011</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>1991851313620502</v>
+        <v>4796307247745877</v>
       </c>
       <c r="B31">
-        <v>9.93188770412786</v>
+        <v>1587.736990736685</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>1937152800984587</v>
+        <v>4618239383782433</v>
       </c>
       <c r="B32">
-        <v>9.931421323369804</v>
+        <v>1602.689260421658</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>1881242175769306</v>
+        <v>4447062620520279</v>
       </c>
       <c r="B33">
-        <v>9.914744917971907</v>
+        <v>1632.177773288152</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>1827239029977242</v>
+        <v>4288015557415019</v>
       </c>
       <c r="B34">
-        <v>9.902425328466984</v>
+        <v>1660.78108777771</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>1779204931562668</v>
+        <v>4134133066238010</v>
       </c>
       <c r="B35">
-        <v>9.910798744408536</v>
+        <v>1678.846962177548</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>1726447899350768</v>
+        <v>3989562548346133</v>
       </c>
       <c r="B36">
-        <v>9.886989608697576</v>
+        <v>1718.386528807669</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>1678578357804306</v>
+        <v>3852744116340306</v>
       </c>
       <c r="B37">
-        <v>9.883394570724644</v>
+        <v>1728.663494070906</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>1632006030227564</v>
+        <v>3719439075210944</v>
       </c>
       <c r="B38">
-        <v>9.871754588424933</v>
+        <v>1732.01884669036</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>1583972096917174</v>
+        <v>3592472112500986</v>
       </c>
       <c r="B39">
-        <v>9.849093646026828</v>
+        <v>1763.520472621791</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>1538806049909391</v>
+        <v>3472542241976108</v>
       </c>
       <c r="B40">
-        <v>9.839108748493052</v>
+        <v>1781.301908263986</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>1493705266102790</v>
+        <v>3356199913063623</v>
       </c>
       <c r="B41">
-        <v>9.811420321021561</v>
+        <v>1796.91649227851</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>1450046339042644</v>
+        <v>3246170325856890</v>
       </c>
       <c r="B42">
-        <v>9.782614175690808</v>
+        <v>1838.785588317509</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>1408666309301402</v>
+        <v>3142234866788788</v>
       </c>
       <c r="B43">
-        <v>9.770785346169799</v>
+        <v>1868.133832536782</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>1370438187439476</v>
+        <v>3042309735559861</v>
       </c>
       <c r="B44">
-        <v>9.770208268391128</v>
+        <v>1858.710451485989</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>1332781022833178</v>
+        <v>2943856502017090</v>
       </c>
       <c r="B45">
-        <v>9.752006127831473</v>
+        <v>1863.322876044399</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>1293636547147717</v>
+        <v>2850826331029400</v>
       </c>
       <c r="B46">
-        <v>9.722144205840555</v>
+        <v>1902.728131146039</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>1258204282122655</v>
+        <v>2762264531170130</v>
       </c>
       <c r="B47">
-        <v>9.721496305690547</v>
+        <v>1937.384559761707</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>1220634540964966</v>
+        <v>2678023022831776</v>
       </c>
       <c r="B48">
-        <v>9.686988958904907</v>
+        <v>1930.250671443689</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>1185923934299388</v>
+        <v>2594112075549196</v>
       </c>
       <c r="B49">
-        <v>9.657974607550159</v>
+        <v>1920.709359658888</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>1152576779090174</v>
+        <v>2514330175720123</v>
       </c>
       <c r="B50">
-        <v>9.640148791518095</v>
+        <v>1989.628908810723</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>1117940034937580</v>
+        <v>2440949435044826</v>
       </c>
       <c r="B51">
-        <v>9.613258059818815</v>
+        <v>2003.54150953188</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>1087595441243216</v>
+        <v>2366670109722012</v>
       </c>
       <c r="B52">
-        <v>9.605319325179348</v>
+        <v>1977.141790930315</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>1060049461028147</v>
+        <v>2295871111065168</v>
       </c>
       <c r="B53">
-        <v>9.600343877719427</v>
+        <v>2007.994654745967</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>1027055614720511</v>
+        <v>2228094253454954</v>
       </c>
       <c r="B54">
-        <v>9.553186098994745</v>
+        <v>2037.575643613232</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>996858329149449</v>
+        <v>2163338596571684</v>
       </c>
       <c r="B55">
-        <v>9.531660802027323</v>
+        <v>2061.116881609062</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>969693317278809.6</v>
+        <v>2100883302807750</v>
       </c>
       <c r="B56">
-        <v>9.504263173467736</v>
+        <v>2070.688219339495</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>942303800641988</v>
+        <v>2040371240152610</v>
       </c>
       <c r="B57">
-        <v>9.466199698776226</v>
+        <v>2073.998540766501</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>912745580164960.2</v>
+        <v>1981648409703582</v>
       </c>
       <c r="B58">
-        <v>9.426108532790597</v>
+        <v>2070.8444939123</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>885243767367030.6</v>
+        <v>1924391605775368</v>
       </c>
       <c r="B59">
-        <v>9.395125426467489</v>
+        <v>2040.281101669748</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>863360581672022.9</v>
+        <v>1867332660550636</v>
       </c>
       <c r="B60">
-        <v>9.387752420490413</v>
+        <v>2061.700757943967</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>837960726244667.8</v>
+        <v>1814617809754438</v>
       </c>
       <c r="B61">
-        <v>9.341312792866582</v>
+        <v>2144.925750170851</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>812309951572493.9</v>
+        <v>1764796860173993</v>
       </c>
       <c r="B62">
-        <v>9.312559260646925</v>
+        <v>2114.637361371379</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>789716238641972.9</v>
+        <v>1713468845227312</v>
       </c>
       <c r="B63">
-        <v>9.293263621586785</v>
+        <v>2040.023625100414</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>767705509583212.6</v>
+        <v>1662997831238077</v>
       </c>
       <c r="B64">
-        <v>9.248682542726931</v>
+        <v>2076.743187866004</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>745987042476318.5</v>
+        <v>1616415276772771</v>
       </c>
       <c r="B65">
-        <v>9.222497690276169</v>
+        <v>2140.11948629286</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>722242870011613</v>
+        <v>1571456432358420</v>
       </c>
       <c r="B66">
-        <v>9.181647281313728</v>
+        <v>2162.815730259533</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>700555989616369.8</v>
+        <v>1528353905229581</v>
       </c>
       <c r="B67">
-        <v>9.135510862923473</v>
+        <v>2155.18718424677</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>685536733471340.5</v>
+        <v>1485507288512447</v>
       </c>
       <c r="B68">
-        <v>9.146186301549546</v>
+        <v>2111.245085749997</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>664943595211258.2</v>
+        <v>1443075561856316</v>
       </c>
       <c r="B69">
-        <v>9.102823165475172</v>
+        <v>2131.910958426584</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>643329803802297.6</v>
+        <v>1403467859330063</v>
       </c>
       <c r="B70">
-        <v>9.057847948720958</v>
+        <v>2215.230236815012</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>628731017276212.2</v>
+        <v>1366288823519190</v>
       </c>
       <c r="B71">
-        <v>9.064461773643595</v>
+        <v>2228.855981503558</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>611456836470842.8</v>
+        <v>1329172253519400</v>
       </c>
       <c r="B72">
-        <v>9.013426825970503</v>
+        <v>2176.597827574091</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>591590726832709</v>
+        <v>1292276217659843</v>
       </c>
       <c r="B73">
-        <v>8.964146100642555</v>
+        <v>2175.184372405705</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>573982911989223</v>
+        <v>1257167379097123</v>
       </c>
       <c r="B74">
-        <v>8.937487083646612</v>
+        <v>2201.081085286621</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>560138410482822</v>
+        <v>1223051740940154</v>
       </c>
       <c r="B75">
-        <v>8.918274198696329</v>
+        <v>2206.268144483457</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>545269751704866.5</v>
+        <v>1189979774828535</v>
       </c>
       <c r="B76">
-        <v>8.885815735659888</v>
+        <v>2217.166112063546</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>526740383252246.1</v>
+        <v>1158002240172263</v>
       </c>
       <c r="B77">
-        <v>8.828539193539768</v>
+        <v>2196.350162220296</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>511658841175572.2</v>
+        <v>1126078365152130</v>
       </c>
       <c r="B78">
-        <v>8.795654785410651</v>
+        <v>2182.057609384937</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>498033732104458.4</v>
+        <v>1095455450724798</v>
       </c>
       <c r="B79">
-        <v>8.747207410398794</v>
+        <v>2227.06087007125</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>483701438388570</v>
+        <v>1066462032966472</v>
       </c>
       <c r="B80">
-        <v>8.713941690585161</v>
+        <v>2242.331675547657</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>470036159089654.1</v>
+        <v>1037812239506294</v>
       </c>
       <c r="B81">
-        <v>8.704315608781441</v>
+        <v>2183.152775934605</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>457176242357170.6</v>
+        <v>1008846805660947</v>
       </c>
       <c r="B82">
-        <v>8.663100766883339</v>
+        <v>2184.334675097571</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>442994482909200.8</v>
+        <v>981835362775788.2</v>
       </c>
       <c r="B83">
-        <v>8.581111071087236</v>
+        <v>2240.617175530598</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>428635350182442.7</v>
+        <v>955737132456622.8</v>
       </c>
       <c r="B84">
-        <v>8.532561206155528</v>
+        <v>2229.238590219</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>417739899009302.6</v>
+        <v>929873522099791.8</v>
       </c>
       <c r="B85">
-        <v>8.542893576693254</v>
+        <v>2215.68141794215</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>406472489833860.7</v>
+        <v>904872116409700.5</v>
       </c>
       <c r="B86">
-        <v>8.493056537308549</v>
+        <v>2215.147362548683</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>394051249171360.9</v>
+        <v>880364174612104.9</v>
       </c>
       <c r="B87">
-        <v>8.424369842261063</v>
+        <v>2227.044209551173</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>381546914310359.1</v>
+        <v>856961016349189.8</v>
       </c>
       <c r="B88">
-        <v>8.387887196419328</v>
+        <v>2251.590359631359</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>372058982337312.8</v>
+        <v>834235146417772.5</v>
       </c>
       <c r="B89">
-        <v>8.392551244670722</v>
+        <v>2252.050463353886</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>362306702349282.4</v>
+        <v>812064464788237.5</v>
       </c>
       <c r="B90">
-        <v>8.3500575873835</v>
+        <v>2240.753740688305</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>353053202924378.4</v>
+        <v>790311438361347.9</v>
       </c>
       <c r="B91">
-        <v>8.335091275997845</v>
+        <v>2259.67937545669</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>341420633951868.9</v>
+        <v>769675377482417.1</v>
       </c>
       <c r="B92">
-        <v>8.275002940903164</v>
+        <v>2229.474449063955</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>331086288937794.7</v>
+        <v>748469893242930.1</v>
       </c>
       <c r="B93">
-        <v>8.221780249344928</v>
+        <v>2231.384895095533</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>322389821895829.6</v>
+        <v>729021453876306.4</v>
       </c>
       <c r="B94">
-        <v>8.19230261334163</v>
+        <v>2248.530661291922</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>313737534077351.9</v>
+        <v>709174276006809.9</v>
       </c>
       <c r="B95">
-        <v>8.180160173227387</v>
+        <v>2146.217014366476</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>304544693832738.4</v>
+        <v>688973349851096</v>
       </c>
       <c r="B96">
-        <v>8.137739160626854</v>
+        <v>2065.685382171541</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>294689691307403.4</v>
+        <v>668750128785430.9</v>
       </c>
       <c r="B97">
-        <v>8.056034676477264</v>
+        <v>2091.76469622308</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>285593425402880.4</v>
+        <v>650224959195520</v>
       </c>
       <c r="B98">
-        <v>7.994728176697374</v>
+        <v>2138.299035152444</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>276682187057281.1</v>
+        <v>631895009946134</v>
       </c>
       <c r="B99">
-        <v>7.935827639369013</v>
+        <v>2213.149276571739</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>268268030883282.7</v>
+        <v>615620119830998.6</v>
       </c>
       <c r="B100">
-        <v>7.886812827204209</v>
+        <v>2251.626751638421</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>262035297058562.4</v>
+        <v>598757564555052.2</v>
       </c>
       <c r="B101">
-        <v>7.886318933639648</v>
+        <v>2231.317615648006</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>254070804167768.4</v>
+        <v>583096997028959.9</v>
       </c>
       <c r="B102">
-        <v>7.829896531597061</v>
+        <v>2208.787805023665</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>247492716184557.8</v>
+        <v>566762025699225.9</v>
       </c>
       <c r="B103">
-        <v>7.814480395356147</v>
+        <v>2211.319873886269</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>240490343617011.1</v>
+        <v>552033396359543.9</v>
       </c>
       <c r="B104">
-        <v>7.781261837212575</v>
+        <v>2207.919848083107</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>232806771601976.9</v>
+        <v>536459092512197.2</v>
       </c>
       <c r="B105">
-        <v>7.723478006371976</v>
+        <v>2110.45326133683</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>226422608221287.1</v>
+        <v>521225397336958</v>
       </c>
       <c r="B106">
-        <v>7.703051546598391</v>
+        <v>2065.52996549898</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>218461695256684.7</v>
+        <v>505874923213070.9</v>
       </c>
       <c r="B107">
-        <v>7.631125906901011</v>
+        <v>2045.972140111517</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>209487783699024.6</v>
+        <v>491258204973291.5</v>
       </c>
       <c r="B108">
-        <v>7.541836682553907</v>
+        <v>2128.895127930703</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>202131755716415.3</v>
+        <v>477907132004569.2</v>
       </c>
       <c r="B109">
-        <v>7.500025735902387</v>
+        <v>2178.453718323511</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>196644488860026.4</v>
+        <v>464669462732979.4</v>
       </c>
       <c r="B110">
-        <v>7.482928566435977</v>
+        <v>2174.45393613633</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>190347835890208.1</v>
+        <v>452007324265571.8</v>
       </c>
       <c r="B111">
-        <v>7.417744204945656</v>
+        <v>2249.068442423007</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>185469550408748.7</v>
+        <v>440311249942457.4</v>
       </c>
       <c r="B112">
-        <v>7.43441242828053</v>
+        <v>2221.813611949339</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>180750995125078</v>
+        <v>427988332210606.1</v>
       </c>
       <c r="B113">
-        <v>7.440857398490013</v>
+        <v>2090.348835232045</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>177238072400887.8</v>
+        <v>415496164063182.5</v>
       </c>
       <c r="B114">
-        <v>7.446448132555552</v>
+        <v>1991.738675786138</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>171532344077170.6</v>
+        <v>402704827051686.8</v>
       </c>
       <c r="B115">
-        <v>7.352741317967995</v>
+        <v>2056.373432231468</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>165288821751570.6</v>
+        <v>391761260531725.8</v>
       </c>
       <c r="B116">
-        <v>7.276656775530815</v>
+        <v>2178.100927974236</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>159697236903314.2</v>
+        <v>380905348355993</v>
       </c>
       <c r="B117">
-        <v>7.216385538279143</v>
+        <v>2061.997551218894</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>154820868396764.1</v>
+        <v>369372422972992.1</v>
       </c>
       <c r="B118">
-        <v>7.144142173964172</v>
+        <v>2000.204764921591</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>152016491815364.8</v>
+        <v>358523671015032.6</v>
       </c>
       <c r="B119">
-        <v>7.179163253231209</v>
+        <v>2036.169793951181</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>147005131576883.3</v>
+        <v>348031830918190.3</v>
       </c>
       <c r="B120">
-        <v>7.142819435853291</v>
+        <v>2016.944236488363</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>143697881693910.5</v>
+        <v>337610124103728</v>
       </c>
       <c r="B121">
-        <v>7.161119206502271</v>
+        <v>1995.787189305679</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>140130564885965.2</v>
+        <v>327529471117190.2</v>
       </c>
       <c r="B122">
-        <v>7.11545572173512</v>
+        <v>2042.942373129227</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>135363667063840.7</v>
+        <v>318179046447534.1</v>
       </c>
       <c r="B123">
-        <v>7.049943267804561</v>
+        <v>2031.665965690065</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>129512221143095.2</v>
+        <v>308548348688266.3</v>
       </c>
       <c r="B124">
-        <v>6.957921099179589</v>
+        <v>2015.478103175078</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>126599801785142.6</v>
+        <v>299624610255889.9</v>
       </c>
       <c r="B125">
-        <v>6.970238076220826</v>
+        <v>2002.952960405758</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>123739128559584.8</v>
+        <v>290417866604624.5</v>
       </c>
       <c r="B126">
-        <v>6.959708879938939</v>
+        <v>1923.691332381536</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>120242422285511.4</v>
+        <v>281327160535146.8</v>
       </c>
       <c r="B127">
-        <v>6.964593021842953</v>
+        <v>1878.838080770258</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>116221471433343.1</v>
+        <v>272270027146909.5</v>
       </c>
       <c r="B128">
-        <v>6.928437742872003</v>
+        <v>1847.455747815111</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>112426538370273.7</v>
+        <v>263465229428417.1</v>
       </c>
       <c r="B129">
-        <v>6.841373803977875</v>
+        <v>1916.745296116015</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>108019651481625.8</v>
+        <v>255610544078695.4</v>
       </c>
       <c r="B130">
-        <v>6.734155834814787</v>
+        <v>2034.749356083937</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>106417533769103.7</v>
+        <v>248239767948502</v>
       </c>
       <c r="B131">
-        <v>6.840353631404304</v>
+        <v>2031.749824726514</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>102914992636384.1</v>
+        <v>240802293816186.7</v>
       </c>
       <c r="B132">
-        <v>6.784473458183195</v>
+        <v>1836.168981923061</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>99901593558934.97</v>
+        <v>232345131726101.8</v>
       </c>
       <c r="B133">
-        <v>6.721548554922884</v>
+        <v>1774.948348220932</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>95847317670645.97</v>
+        <v>224936913849818</v>
       </c>
       <c r="B134">
-        <v>6.610339097607056</v>
+        <v>1830.799988893911</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>91818977619826.55</v>
+        <v>217454180161770.2</v>
       </c>
       <c r="B135">
-        <v>6.536240466830448</v>
+        <v>1878.196166914013</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>90416201472788.59</v>
+        <v>210904595447789.7</v>
       </c>
       <c r="B136">
-        <v>6.598188291848434</v>
+        <v>2019.420865681671</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>87288725234756.75</v>
+        <v>204796275411616.2</v>
       </c>
       <c r="B137">
-        <v>6.501387028682811</v>
+        <v>1897.805091345683</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>84570365720926.64</v>
+        <v>197825639820008.3</v>
       </c>
       <c r="B138">
-        <v>6.468749280609329</v>
+        <v>1818.828494767025</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>80862883899093.7</v>
+        <v>191613906862207.6</v>
       </c>
       <c r="B139">
-        <v>6.358150706638321</v>
+        <v>2007.116529947117</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>78088010147013.86</v>
+        <v>186255008436532.3</v>
       </c>
       <c r="B140">
-        <v>6.293759311481835</v>
+        <v>1989.82687540532</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>75259205952694.2</v>
+        <v>180269147525840.9</v>
       </c>
       <c r="B141">
-        <v>6.217723547233626</v>
+        <v>1839.622365840036</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>73702989109449.11</v>
+        <v>174378320543495.7</v>
       </c>
       <c r="B142">
-        <v>6.247427118688422</v>
+        <v>1792.272059735988</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>71897854699517.91</v>
+        <v>168477046915298.2</v>
       </c>
       <c r="B143">
-        <v>6.224997046251122</v>
+        <v>1641.705137142339</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>69394414998685.05</v>
+        <v>161940387796524</v>
       </c>
       <c r="B144">
-        <v>6.148398786490995</v>
+        <v>1526.037676495357</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>67651049406503.07</v>
+        <v>155615519770035.5</v>
       </c>
       <c r="B145">
-        <v>6.137887397310931</v>
+        <v>1518.867037049819</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>65365782420949.23</v>
+        <v>149522841996884.9</v>
       </c>
       <c r="B146">
-        <v>6.048695621622898</v>
+        <v>1633.09383391425</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>62839490879400.92</v>
+        <v>144518687442534.3</v>
       </c>
       <c r="B147">
-        <v>5.975268234757583</v>
+        <v>1843.686042030324</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>61280970524406.72</v>
+        <v>140022490788093.1</v>
       </c>
       <c r="B148">
-        <v>6.011374940146796</v>
+        <v>1862.799480272325</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>59123000856934.2</v>
+        <v>135408353204607.7</v>
       </c>
       <c r="B149">
-        <v>5.963450826257197</v>
+        <v>1695.538309273202</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>58831962173583.74</v>
+        <v>130343268373216.9</v>
       </c>
       <c r="B150">
-        <v>6.052865665726318</v>
+        <v>1653.657598354476</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>56402249254133.02</v>
+        <v>125855224344949.1</v>
       </c>
       <c r="B151">
-        <v>5.94781587814517</v>
+        <v>1677.957991958971</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>55000223853891.2</v>
+        <v>121252663445259.4</v>
       </c>
       <c r="B152">
-        <v>5.986349554933269</v>
+        <v>1588.475695179745</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>54609969642049.88</v>
+        <v>116603699216701.8</v>
       </c>
       <c r="B153">
-        <v>6.034581960189892</v>
+        <v>1593.477218917501</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>53194340682785.31</v>
+        <v>112383777102055.3</v>
       </c>
       <c r="B154">
-        <v>5.920219477440148</v>
+        <v>1514.952165381908</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>51499547017399.29</v>
+        <v>107612713167095.9</v>
       </c>
       <c r="B155">
-        <v>5.860242446357956</v>
+        <v>1677.411676616474</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>50590149837264.83</v>
+        <v>104608309089241.5</v>
       </c>
       <c r="B156">
-        <v>5.910599732448662</v>
+        <v>1895.276025463024</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>49612213752748.98</v>
+        <v>100923171965033.4</v>
       </c>
       <c r="B157">
-        <v>5.886839932340307</v>
+        <v>1640.856263923969</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>48856692838245.55</v>
+        <v>97153732651869.34</v>
       </c>
       <c r="B158">
-        <v>5.908531479909654</v>
+        <v>1569.371243850767</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>47555127928431.8</v>
+        <v>93420146505923.88</v>
       </c>
       <c r="B159">
-        <v>5.954655319109983</v>
+        <v>1649.568625531762</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>45480132917155.27</v>
+        <v>90289803754780.86</v>
       </c>
       <c r="B160">
-        <v>5.876251018773816</v>
+        <v>1583.121447830195</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>45614383242352.65</v>
+        <v>86507774602885.11</v>
       </c>
       <c r="B161">
-        <v>5.967924919939369</v>
+        <v>1371.275092710873</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>42992663586334.04</v>
+        <v>82643823500634.78</v>
       </c>
       <c r="B162">
-        <v>5.746555528215455</v>
+        <v>1382.749137208908</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>40949029611403.52</v>
+        <v>79263921658962.67</v>
       </c>
       <c r="B163">
-        <v>5.698402418374325</v>
+        <v>1486.976154801068</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>39665829373158.3</v>
+        <v>76183203890798.81</v>
       </c>
       <c r="B164">
-        <v>5.672308322695085</v>
+        <v>1444.344608134997</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>39282300308071.66</v>
+        <v>72871122973967.78</v>
       </c>
       <c r="B165">
-        <v>5.710119840248876</v>
+        <v>1236.740498643795</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>37623176673875.01</v>
+        <v>69041867358090.47</v>
       </c>
       <c r="B166">
-        <v>5.634088995735986</v>
+        <v>1239.027088049363</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>36462912064386.89</v>
+        <v>66117538323147.64</v>
       </c>
       <c r="B167">
-        <v>5.661590719227807</v>
+        <v>1437.757950582026</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>35801456011056.46</v>
+        <v>63468296617951.95</v>
       </c>
       <c r="B168">
-        <v>5.682682083157863</v>
+        <v>1334.736312017892</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>35242206091626.64</v>
+        <v>60354334399770.23</v>
       </c>
       <c r="B169">
-        <v>5.734689767042751</v>
+        <v>1301.820218120977</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>34090504858740.7</v>
+        <v>57849283157083.73</v>
       </c>
       <c r="B170">
-        <v>5.720578238134808</v>
+        <v>1585.540861248493</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>32637801144724.68</v>
+        <v>55932289348772.57</v>
       </c>
       <c r="B171">
-        <v>5.641805555215424</v>
+        <v>1667.868980711697</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>31534015137382.17</v>
+        <v>53784819132950.01</v>
       </c>
       <c r="B172">
-        <v>5.605406334756917</v>
+        <v>1473.570643290246</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>30042581155704.7</v>
+        <v>51508531242165.43</v>
       </c>
       <c r="B173">
-        <v>5.512761519530715</v>
+        <v>1438.945702142137</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>29045982541229.91</v>
+        <v>49446341331281.16</v>
       </c>
       <c r="B174">
-        <v>5.482939940744731</v>
+        <v>1319.792728583878</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>28087672916648.79</v>
+        <v>46967745072066.16</v>
       </c>
       <c r="B175">
-        <v>5.435706280906744</v>
+        <v>1181.299995920937</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>27065836757385.92</v>
+        <v>44627505538179.7</v>
       </c>
       <c r="B176">
-        <v>5.437404233096212</v>
+        <v>1186.204763254697</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>26630432196035.97</v>
+        <v>42407947439500.06</v>
       </c>
       <c r="B177">
-        <v>5.518792821736371</v>
+        <v>1149.840956400257</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>26324552485822.12</v>
+        <v>40157458440745.95</v>
       </c>
       <c r="B178">
-        <v>5.569146229178754</v>
+        <v>1167.063409276626</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>26625551799424.21</v>
+        <v>38237579382090.77</v>
       </c>
       <c r="B179">
-        <v>5.795290703396599</v>
+        <v>1337.595283151097</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>25668924413785.24</v>
+        <v>36692737325558.01</v>
       </c>
       <c r="B180">
-        <v>5.810727178821025</v>
+        <v>1400.052882940042</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>25381949948813.19</v>
+        <v>35061156678314.89</v>
       </c>
       <c r="B181">
-        <v>5.905568473118845</v>
+        <v>1336.614527017143</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>25103020042528.4</v>
+        <v>33513501948777.4</v>
       </c>
       <c r="B182">
-        <v>5.943720878371208</v>
+        <v>1387.860665289552</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>24716914840632.52</v>
+        <v>32134467755011.2</v>
       </c>
       <c r="B183">
-        <v>6.075800875214981</v>
+        <v>1738.449775442747</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>24152661302944.29</v>
+        <v>31273174073377.37</v>
       </c>
       <c r="B184">
-        <v>6.173640694421803</v>
+        <v>1606.122247123061</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>22982563548435.29</v>
+        <v>29774554800388.53</v>
       </c>
       <c r="B185">
-        <v>5.974438914585802</v>
+        <v>1242.161630660452</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>21374499565855.95</v>
+        <v>28368015877588.98</v>
       </c>
       <c r="B186">
-        <v>5.683311077858959</v>
+        <v>1215.666066939157</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>20594526196218.34</v>
+        <v>26946308114996.86</v>
       </c>
       <c r="B187">
-        <v>5.714166823884644</v>
+        <v>1229.045814279972</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>19934271897518.53</v>
+        <v>25710757290812.11</v>
       </c>
       <c r="B188">
-        <v>5.712938049768233</v>
+        <v>1114.91031843466</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>19350590815344.84</v>
+        <v>24151335522024.96</v>
       </c>
       <c r="B189">
-        <v>5.619175651417814</v>
+        <v>1199.937973560453</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>18541840636698.76</v>
+        <v>23271346313106.29</v>
       </c>
       <c r="B190">
-        <v>5.535760724137104</v>
+        <v>1620.373751771802</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>18452432911281.57</v>
+        <v>22410695641834.1</v>
       </c>
       <c r="B191">
-        <v>5.743835107431781</v>
+        <v>1422.877308762558</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>18576721120340.85</v>
+        <v>21362414112794.18</v>
       </c>
       <c r="B192">
-        <v>5.928047690019225</v>
+        <v>1161.718490501482</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>18440821518547.05</v>
+        <v>20181993411784.37</v>
       </c>
       <c r="B193">
-        <v>6.027052301331086</v>
+        <v>1397.31150961254</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>17603254731175.29</v>
+        <v>19611868450870.48</v>
       </c>
       <c r="B194">
-        <v>5.933044127353809</v>
+        <v>1750.580821737885</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>16960950214894.38</v>
+        <v>18824182091832.96</v>
       </c>
       <c r="B195">
-        <v>5.903361986134283</v>
+        <v>1254.940962485294</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>16496318297986.98</v>
+        <v>17793861916912.21</v>
       </c>
       <c r="B196">
-        <v>5.93756686993571</v>
+        <v>1158.054512682318</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>15762614058911.7</v>
+        <v>16961907008309.89</v>
       </c>
       <c r="B197">
-        <v>5.889136965541361</v>
+        <v>1048.075766492604</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>14796291475078.78</v>
+        <v>15832378601362.54</v>
       </c>
       <c r="B198">
-        <v>5.685218256886913</v>
+        <v>1010.632803541803</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>14234591274685.95</v>
+        <v>15063211181536.46</v>
       </c>
       <c r="B199">
-        <v>5.620544958011147</v>
+        <v>1220.460688902459</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>13557974674756.06</v>
+        <v>14336499863273.88</v>
       </c>
       <c r="B200">
-        <v>5.638971893832683</v>
+        <v>1168.497819930349</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>13526489043723.29</v>
+        <v>13576187625487.07</v>
       </c>
       <c r="B201">
-        <v>5.894993578149056</v>
+        <v>1188.919388973994</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>13573303682340.71</v>
+        <v>12952525511884.93</v>
       </c>
       <c r="B202">
-        <v>6.005421020570508</v>
+        <v>1587.340357053276</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>13483565016607.47</v>
+        <v>12587208743254.96</v>
       </c>
       <c r="B203">
-        <v>6.131768114050313</v>
+        <v>1294.763626682662</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>12559077823368.01</v>
+        <v>11774264346492.75</v>
       </c>
       <c r="B204">
-        <v>6.072468710650276</v>
+        <v>1008.810547952572</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>12870868312309.42</v>
+        <v>11172631108543.29</v>
       </c>
       <c r="B205">
-        <v>6.467041688353953</v>
+        <v>1085.689056389417</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>12804132897274.35</v>
+        <v>10527016911892.33</v>
       </c>
       <c r="B206">
-        <v>6.5077143057798</v>
+        <v>1092.487893360658</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>12660589340673.47</v>
+        <v>10004769700215.4</v>
       </c>
       <c r="B207">
-        <v>6.679095583698265</v>
+        <v>1366.660699041518</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>12055674942564.82</v>
+        <v>9639760778371.756</v>
       </c>
       <c r="B208">
-        <v>6.717107467278518</v>
+        <v>1685.639867933312</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>12262812080577.53</v>
+        <v>9311656640561.023</v>
       </c>
       <c r="B209">
-        <v>6.996662167958021</v>
+        <v>1283.713431314121</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>12036024623564.42</v>
+        <v>8760613799531.859</v>
       </c>
       <c r="B210">
-        <v>7.014567752903072</v>
+        <v>943.7365961739645</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>11668535102026.18</v>
+        <v>8186568987069.694</v>
       </c>
       <c r="B211">
-        <v>7.11004979945776</v>
+        <v>833.0717424560106</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>11581002417023.4</v>
+        <v>7569585331434.194</v>
       </c>
       <c r="B212">
-        <v>7.307542451845621</v>
+        <v>1010.81023860945</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>11045463163442.62</v>
+        <v>7278946856696.43</v>
       </c>
       <c r="B213">
-        <v>7.161463051350403</v>
+        <v>3689.156529615322</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>10706707638213.49</v>
+        <v>7330449813071.24</v>
       </c>
       <c r="B214">
-        <v>7.227430677575041</v>
+        <v>14357.37229589974</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>10566987520238.2</v>
+        <v>7217065720020.88</v>
       </c>
       <c r="B215">
-        <v>7.352424224577944</v>
+        <v>1479.737853081871</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>10546595067842.4</v>
+        <v>6739325943769.156</v>
       </c>
       <c r="B216">
-        <v>7.588742217177129</v>
+        <v>1263.036915096412</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>10104600602437.7</v>
+        <v>6570365457643.779</v>
       </c>
       <c r="B217">
-        <v>7.756867064213986</v>
+        <v>1138.196204750531</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>10205934118683.31</v>
+        <v>6039685328080.271</v>
       </c>
       <c r="B218">
-        <v>8.201801992964443</v>
+        <v>967.7762891239742</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>10164353469419.22</v>
+        <v>5813982117826.751</v>
       </c>
       <c r="B219">
-        <v>8.222707795479675</v>
+        <v>1178.703121569599</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>9942762907169.008</v>
+        <v>5441863349173.27</v>
       </c>
       <c r="B220">
-        <v>8.473380103274193</v>
+        <v>611.8795609010471</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>9451696627052.168</v>
+        <v>4736067639120.263</v>
       </c>
       <c r="B221">
-        <v>8.659674969580559</v>
+        <v>614.3812763284827</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>4507571534013.061</v>
+      </c>
+      <c r="B222">
+        <v>991.279401044608</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>4184943839567.202</v>
+      </c>
+      <c r="B223">
+        <v>1941.821416097109</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>4246365642909.53</v>
+      </c>
+      <c r="B224">
+        <v>1882.609341536604</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>3911568208964.754</v>
+      </c>
+      <c r="B225">
+        <v>1091.967307060907</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>3812211558019.808</v>
+      </c>
+      <c r="B226">
+        <v>11498.51902131511</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>3871385639368.135</v>
+      </c>
+      <c r="B227">
+        <v>1549.612016685877</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>3509418384993.871</v>
+      </c>
+      <c r="B228">
+        <v>2170.021910761024</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>3675377706843.563</v>
+      </c>
+      <c r="B229">
+        <v>-958.8640228495647</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>3973984546049.358</v>
+      </c>
+      <c r="B230">
+        <v>-3640.807773282378</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>3807668933673.977</v>
+      </c>
+      <c r="B231">
+        <v>1132.012528231867</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>3566312843438.339</v>
+      </c>
+      <c r="B232">
+        <v>818.0426208704504</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>3279289231202.243</v>
+      </c>
+      <c r="B233">
+        <v>588.253391840581</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>2890668877190.84</v>
+      </c>
+      <c r="B234">
+        <v>505.2260919748181</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>2585839163043.463</v>
+      </c>
+      <c r="B235">
+        <v>805.4751137013581</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>2501577145826.607</v>
+      </c>
+      <c r="B236">
+        <v>886.4068724017151</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>2243794037363.554</v>
+      </c>
+      <c r="B237">
+        <v>799.3183702811288</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>2161352465099.187</v>
+      </c>
+      <c r="B238">
+        <v>6709.690662909971</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>2204752607299.118</v>
+      </c>
+      <c r="B239">
+        <v>1536.628144567116</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>1987454819823.453</v>
+      </c>
+      <c r="B240">
+        <v>605.1867719512813</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>1806727509384.397</v>
+      </c>
+      <c r="B241">
+        <v>561.8009082660964</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>1597680843107.718</v>
+      </c>
+      <c r="B242">
+        <v>707.7467761590159</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>1533128356823.728</v>
+      </c>
+      <c r="B243">
+        <v>1199.468033584158</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>1442766204581.006</v>
+      </c>
+      <c r="B244">
+        <v>1751.993954100871</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>1433320213316.203</v>
+      </c>
+      <c r="B245">
+        <v>3841.732997966963</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>1397547442645.741</v>
+      </c>
+      <c r="B246">
+        <v>633.9801229864369</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>1166146616057.711</v>
+      </c>
+      <c r="B247">
+        <v>368.8313979247275</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>1014345332788.923</v>
+      </c>
+      <c r="B248">
+        <v>1192.56085859062</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>1063058665913.765</v>
+      </c>
+      <c r="B249">
+        <v>612.5671482750611</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>804012946092.1278</v>
+      </c>
+      <c r="B250">
+        <v>293.9293997235544</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>731528818412.9215</v>
+      </c>
+      <c r="B251">
+        <v>464.7673009672775</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>613248035120.2869</v>
+      </c>
+      <c r="B252">
+        <v>4068.023073936587</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>713258110379.6326</v>
+      </c>
+      <c r="B253">
+        <v>366.524056970338</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>377392076052.8795</v>
+      </c>
+      <c r="B254">
+        <v>95.19365833394055</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>232764762207.7057</v>
+      </c>
+      <c r="B255">
+        <v>169.7483012579917</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>211198429515.6056</v>
+      </c>
+      <c r="B256">
+        <v>-1577.124333407628</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>248995093016.1746</v>
+      </c>
+      <c r="B257">
+        <v>-871.5952799067811</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>245822533121.1111</v>
+      </c>
+      <c r="B258">
+        <v>132.0077141860724</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>23298502495.07804</v>
+      </c>
+      <c r="B259">
+        <v>24.36597487237652</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>129932300237.1893</v>
+      </c>
+      <c r="B260">
+        <v>-73.84054175221665</v>
       </c>
     </row>
   </sheetData>

--- a/Lifetime_Sinton_Mode.xlsx
+++ b/Lifetime_Sinton_Mode.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B260"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,2074 +393,1762 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2.83355423249052E+16</v>
+        <v>4333435837322918</v>
       </c>
       <c r="B2">
-        <v>514.3380596114838</v>
+        <v>9.700671391355046</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2.516602980444679E+16</v>
+        <v>4254333258185604</v>
       </c>
       <c r="B3">
-        <v>524.1637963163213</v>
+        <v>9.720948347220558</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2.257729882615543E+16</v>
+        <v>4156783624986832</v>
       </c>
       <c r="B4">
-        <v>577.3063671288993</v>
+        <v>9.731602533084942</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2.043175498543968E+16</v>
+        <v>4059488974109248</v>
       </c>
       <c r="B5">
-        <v>628.1642742465257</v>
+        <v>9.758211559480696</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1.863513145726835E+16</v>
+        <v>3959875995406454</v>
       </c>
       <c r="B6">
-        <v>679.1540272136259</v>
+        <v>9.772493249185356</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1.710617957526767E+16</v>
+        <v>3864804698791706</v>
       </c>
       <c r="B7">
-        <v>727.9941379178445</v>
+        <v>9.797760374771842</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1.578721159564384E+16</v>
+        <v>3764321862541290</v>
       </c>
       <c r="B8">
-        <v>774.9489281176164</v>
+        <v>9.815860709129419</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1.463710067733334E+16</v>
+        <v>3669900778594772</v>
       </c>
       <c r="B9">
-        <v>818.9298047829726</v>
+        <v>9.844588799306424</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>1.362094949145417E+16</v>
+        <v>3571858121146216</v>
       </c>
       <c r="B10">
-        <v>865.7357610184999</v>
+        <v>9.852053000097797</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>1.273021505160606E+16</v>
+        <v>3476879943933336</v>
       </c>
       <c r="B11">
-        <v>911.4643633386347</v>
+        <v>9.865080209640638</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>1.192817671139385E+16</v>
+        <v>3386152108542912</v>
       </c>
       <c r="B12">
-        <v>948.7250003900476</v>
+        <v>9.887098397309199</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>1.120638568395309E+16</v>
+        <v>3294335886438536</v>
       </c>
       <c r="B13">
-        <v>990.5909761380794</v>
+        <v>9.894505368587962</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>1.055706191465882E+16</v>
+        <v>3208200192457815</v>
       </c>
       <c r="B14">
-        <v>1030.245088262978</v>
+        <v>9.910913576758919</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>9964432755826102</v>
+        <v>3122232445358358</v>
       </c>
       <c r="B15">
-        <v>1067.084637372316</v>
+        <v>9.925275529458991</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>9425296722180698</v>
+        <v>3034829393517568</v>
       </c>
       <c r="B16">
-        <v>1109.856535900944</v>
+        <v>9.930272628433684</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>8935159218412562</v>
+        <v>2953587895612455</v>
       </c>
       <c r="B17">
-        <v>1146.627913089032</v>
+        <v>9.940071554131901</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>8480839252665462</v>
+        <v>2870498094142086</v>
       </c>
       <c r="B18">
-        <v>1180.5986093275</v>
+        <v>9.938529006362325</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>8064518079839175</v>
+        <v>2793180609015878</v>
       </c>
       <c r="B19">
-        <v>1216.12386934781</v>
+        <v>9.95520745898382</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>7677122118323970</v>
+        <v>2716840001341746</v>
       </c>
       <c r="B20">
-        <v>1248.599745862113</v>
+        <v>9.960957347691879</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>7319309534166748</v>
+        <v>2640921537471027</v>
       </c>
       <c r="B21">
-        <v>1289.542547614482</v>
+        <v>9.958025268428447</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6989203509370700</v>
+        <v>2572388211144929</v>
       </c>
       <c r="B22">
-        <v>1318.623033313732</v>
+        <v>9.97746323708455</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6676903445440264</v>
+        <v>2497203134478057</v>
       </c>
       <c r="B23">
-        <v>1344.781708067814</v>
+        <v>9.963200092552258</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6387439897676368</v>
+        <v>2425566218042716</v>
       </c>
       <c r="B24">
-        <v>1380.259860551658</v>
+        <v>9.954574268650102</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6116025209592006</v>
+        <v>2361712510711194</v>
       </c>
       <c r="B25">
-        <v>1410.01243710563</v>
+        <v>9.963798266673839</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5861726623172096</v>
+        <v>2296789382481266</v>
       </c>
       <c r="B26">
-        <v>1442.555866698907</v>
+        <v>9.963238144161787</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5623537339188617</v>
+        <v>2235253131683045</v>
       </c>
       <c r="B27">
-        <v>1469.371929114543</v>
+        <v>9.973762637033539</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5397873522398365</v>
+        <v>2172517452480322</v>
       </c>
       <c r="B28">
-        <v>1491.537396472854</v>
+        <v>9.964809740916987</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5184914564820528</v>
+        <v>2109263096693072</v>
       </c>
       <c r="B29">
-        <v>1519.70953868639</v>
+        <v>9.945465825132425</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>4984365789993502</v>
+        <v>2050359265560615</v>
       </c>
       <c r="B30">
-        <v>1554.538752113011</v>
+        <v>9.942995192961282</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>4796307247745877</v>
+        <v>1991851313620502</v>
       </c>
       <c r="B31">
-        <v>1587.736990736685</v>
+        <v>9.93188770412786</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>4618239383782433</v>
+        <v>1937152800984587</v>
       </c>
       <c r="B32">
-        <v>1602.689260421658</v>
+        <v>9.931421323369804</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>4447062620520279</v>
+        <v>1881242175769306</v>
       </c>
       <c r="B33">
-        <v>1632.177773288152</v>
+        <v>9.914744917971907</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>4288015557415019</v>
+        <v>1827239029977242</v>
       </c>
       <c r="B34">
-        <v>1660.78108777771</v>
+        <v>9.902425328466984</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>4134133066238010</v>
+        <v>1779204931562668</v>
       </c>
       <c r="B35">
-        <v>1678.846962177548</v>
+        <v>9.910798744408536</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>3989562548346133</v>
+        <v>1726447899350768</v>
       </c>
       <c r="B36">
-        <v>1718.386528807669</v>
+        <v>9.886989608697576</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>3852744116340306</v>
+        <v>1678578357804306</v>
       </c>
       <c r="B37">
-        <v>1728.663494070906</v>
+        <v>9.883394570724644</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>3719439075210944</v>
+        <v>1632006030227564</v>
       </c>
       <c r="B38">
-        <v>1732.01884669036</v>
+        <v>9.871754588424933</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>3592472112500986</v>
+        <v>1583972096917174</v>
       </c>
       <c r="B39">
-        <v>1763.520472621791</v>
+        <v>9.849093646026828</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>3472542241976108</v>
+        <v>1538806049909391</v>
       </c>
       <c r="B40">
-        <v>1781.301908263986</v>
+        <v>9.839108748493052</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>3356199913063623</v>
+        <v>1493705266102790</v>
       </c>
       <c r="B41">
-        <v>1796.91649227851</v>
+        <v>9.811420321021561</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>3246170325856890</v>
+        <v>1450046339042644</v>
       </c>
       <c r="B42">
-        <v>1838.785588317509</v>
+        <v>9.782614175690808</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>3142234866788788</v>
+        <v>1408666309301402</v>
       </c>
       <c r="B43">
-        <v>1868.133832536782</v>
+        <v>9.770785346169799</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>3042309735559861</v>
+        <v>1370438187439476</v>
       </c>
       <c r="B44">
-        <v>1858.710451485989</v>
+        <v>9.770208268391128</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>2943856502017090</v>
+        <v>1332781022833178</v>
       </c>
       <c r="B45">
-        <v>1863.322876044399</v>
+        <v>9.752006127831473</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>2850826331029400</v>
+        <v>1293636547147717</v>
       </c>
       <c r="B46">
-        <v>1902.728131146039</v>
+        <v>9.722144205840555</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>2762264531170130</v>
+        <v>1258204282122655</v>
       </c>
       <c r="B47">
-        <v>1937.384559761707</v>
+        <v>9.721496305690547</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>2678023022831776</v>
+        <v>1220634540964966</v>
       </c>
       <c r="B48">
-        <v>1930.250671443689</v>
+        <v>9.686988958904907</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>2594112075549196</v>
+        <v>1185923934299388</v>
       </c>
       <c r="B49">
-        <v>1920.709359658888</v>
+        <v>9.657974607550159</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>2514330175720123</v>
+        <v>1152576779090174</v>
       </c>
       <c r="B50">
-        <v>1989.628908810723</v>
+        <v>9.640148791518095</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>2440949435044826</v>
+        <v>1117940034937580</v>
       </c>
       <c r="B51">
-        <v>2003.54150953188</v>
+        <v>9.613258059818815</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>2366670109722012</v>
+        <v>1087595441243216</v>
       </c>
       <c r="B52">
-        <v>1977.141790930315</v>
+        <v>9.605319325179348</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>2295871111065168</v>
+        <v>1060049461028147</v>
       </c>
       <c r="B53">
-        <v>2007.994654745967</v>
+        <v>9.600343877719427</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>2228094253454954</v>
+        <v>1027055614720511</v>
       </c>
       <c r="B54">
-        <v>2037.575643613232</v>
+        <v>9.553186098994745</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>2163338596571684</v>
+        <v>996858329149449</v>
       </c>
       <c r="B55">
-        <v>2061.116881609062</v>
+        <v>9.531660802027323</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>2100883302807750</v>
+        <v>969693317278809.6</v>
       </c>
       <c r="B56">
-        <v>2070.688219339495</v>
+        <v>9.504263173467736</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>2040371240152610</v>
+        <v>942303800641988</v>
       </c>
       <c r="B57">
-        <v>2073.998540766501</v>
+        <v>9.466199698776226</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>1981648409703582</v>
+        <v>912745580164960.2</v>
       </c>
       <c r="B58">
-        <v>2070.8444939123</v>
+        <v>9.426108532790597</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>1924391605775368</v>
+        <v>885243767367030.6</v>
       </c>
       <c r="B59">
-        <v>2040.281101669748</v>
+        <v>9.395125426467489</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>1867332660550636</v>
+        <v>863360581672022.9</v>
       </c>
       <c r="B60">
-        <v>2061.700757943967</v>
+        <v>9.387752420490413</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>1814617809754438</v>
+        <v>837960726244667.8</v>
       </c>
       <c r="B61">
-        <v>2144.925750170851</v>
+        <v>9.341312792866582</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>1764796860173993</v>
+        <v>812309951572493.9</v>
       </c>
       <c r="B62">
-        <v>2114.637361371379</v>
+        <v>9.312559260646925</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>1713468845227312</v>
+        <v>789716238641972.9</v>
       </c>
       <c r="B63">
-        <v>2040.023625100414</v>
+        <v>9.293263621586785</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>1662997831238077</v>
+        <v>767705509583212.6</v>
       </c>
       <c r="B64">
-        <v>2076.743187866004</v>
+        <v>9.248682542726931</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>1616415276772771</v>
+        <v>745987042476318.5</v>
       </c>
       <c r="B65">
-        <v>2140.11948629286</v>
+        <v>9.222497690276169</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>1571456432358420</v>
+        <v>722242870011613</v>
       </c>
       <c r="B66">
-        <v>2162.815730259533</v>
+        <v>9.181647281313728</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>1528353905229581</v>
+        <v>700555989616369.8</v>
       </c>
       <c r="B67">
-        <v>2155.18718424677</v>
+        <v>9.135510862923473</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>1485507288512447</v>
+        <v>685536733471340.5</v>
       </c>
       <c r="B68">
-        <v>2111.245085749997</v>
+        <v>9.146186301549546</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>1443075561856316</v>
+        <v>664943595211258.2</v>
       </c>
       <c r="B69">
-        <v>2131.910958426584</v>
+        <v>9.102823165475172</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>1403467859330063</v>
+        <v>643329803802297.6</v>
       </c>
       <c r="B70">
-        <v>2215.230236815012</v>
+        <v>9.057847948720958</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>1366288823519190</v>
+        <v>628731017276212.2</v>
       </c>
       <c r="B71">
-        <v>2228.855981503558</v>
+        <v>9.064461773643595</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>1329172253519400</v>
+        <v>611456836470842.8</v>
       </c>
       <c r="B72">
-        <v>2176.597827574091</v>
+        <v>9.013426825970503</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>1292276217659843</v>
+        <v>591590726832709</v>
       </c>
       <c r="B73">
-        <v>2175.184372405705</v>
+        <v>8.964146100642555</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>1257167379097123</v>
+        <v>573982911989223</v>
       </c>
       <c r="B74">
-        <v>2201.081085286621</v>
+        <v>8.937487083646612</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>1223051740940154</v>
+        <v>560138410482822</v>
       </c>
       <c r="B75">
-        <v>2206.268144483457</v>
+        <v>8.918274198696329</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>1189979774828535</v>
+        <v>545269751704866.5</v>
       </c>
       <c r="B76">
-        <v>2217.166112063546</v>
+        <v>8.885815735659888</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>1158002240172263</v>
+        <v>526740383252246.1</v>
       </c>
       <c r="B77">
-        <v>2196.350162220296</v>
+        <v>8.828539193539768</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>1126078365152130</v>
+        <v>511658841175572.2</v>
       </c>
       <c r="B78">
-        <v>2182.057609384937</v>
+        <v>8.795654785410651</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>1095455450724798</v>
+        <v>498033732104458.4</v>
       </c>
       <c r="B79">
-        <v>2227.06087007125</v>
+        <v>8.747207410398794</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>1066462032966472</v>
+        <v>483701438388570</v>
       </c>
       <c r="B80">
-        <v>2242.331675547657</v>
+        <v>8.713941690585161</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>1037812239506294</v>
+        <v>470036159089654.1</v>
       </c>
       <c r="B81">
-        <v>2183.152775934605</v>
+        <v>8.704315608781441</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>1008846805660947</v>
+        <v>457176242357170.6</v>
       </c>
       <c r="B82">
-        <v>2184.334675097571</v>
+        <v>8.663100766883339</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>981835362775788.2</v>
+        <v>442994482909200.8</v>
       </c>
       <c r="B83">
-        <v>2240.617175530598</v>
+        <v>8.581111071087236</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>955737132456622.8</v>
+        <v>428635350182442.7</v>
       </c>
       <c r="B84">
-        <v>2229.238590219</v>
+        <v>8.532561206155528</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>929873522099791.8</v>
+        <v>417739899009302.6</v>
       </c>
       <c r="B85">
-        <v>2215.68141794215</v>
+        <v>8.542893576693254</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>904872116409700.5</v>
+        <v>406472489833860.7</v>
       </c>
       <c r="B86">
-        <v>2215.147362548683</v>
+        <v>8.493056537308549</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>880364174612104.9</v>
+        <v>394051249171360.9</v>
       </c>
       <c r="B87">
-        <v>2227.044209551173</v>
+        <v>8.424369842261063</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>856961016349189.8</v>
+        <v>381546914310359.1</v>
       </c>
       <c r="B88">
-        <v>2251.590359631359</v>
+        <v>8.387887196419328</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>834235146417772.5</v>
+        <v>372058982337312.8</v>
       </c>
       <c r="B89">
-        <v>2252.050463353886</v>
+        <v>8.392551244670722</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>812064464788237.5</v>
+        <v>362306702349282.4</v>
       </c>
       <c r="B90">
-        <v>2240.753740688305</v>
+        <v>8.3500575873835</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>790311438361347.9</v>
+        <v>353053202924378.4</v>
       </c>
       <c r="B91">
-        <v>2259.67937545669</v>
+        <v>8.335091275997845</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>769675377482417.1</v>
+        <v>341420633951868.9</v>
       </c>
       <c r="B92">
-        <v>2229.474449063955</v>
+        <v>8.275002940903164</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>748469893242930.1</v>
+        <v>331086288937794.7</v>
       </c>
       <c r="B93">
-        <v>2231.384895095533</v>
+        <v>8.221780249344928</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>729021453876306.4</v>
+        <v>322389821895829.6</v>
       </c>
       <c r="B94">
-        <v>2248.530661291922</v>
+        <v>8.19230261334163</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>709174276006809.9</v>
+        <v>313737534077351.9</v>
       </c>
       <c r="B95">
-        <v>2146.217014366476</v>
+        <v>8.180160173227387</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>688973349851096</v>
+        <v>304544693832738.4</v>
       </c>
       <c r="B96">
-        <v>2065.685382171541</v>
+        <v>8.137739160626854</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>668750128785430.9</v>
+        <v>294689691307403.4</v>
       </c>
       <c r="B97">
-        <v>2091.76469622308</v>
+        <v>8.056034676477264</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>650224959195520</v>
+        <v>285593425402880.4</v>
       </c>
       <c r="B98">
-        <v>2138.299035152444</v>
+        <v>7.994728176697374</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>631895009946134</v>
+        <v>276682187057281.1</v>
       </c>
       <c r="B99">
-        <v>2213.149276571739</v>
+        <v>7.935827639369013</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>615620119830998.6</v>
+        <v>268268030883282.7</v>
       </c>
       <c r="B100">
-        <v>2251.626751638421</v>
+        <v>7.886812827204209</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>598757564555052.2</v>
+        <v>262035297058562.4</v>
       </c>
       <c r="B101">
-        <v>2231.317615648006</v>
+        <v>7.886318933639648</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>583096997028959.9</v>
+        <v>254070804167768.4</v>
       </c>
       <c r="B102">
-        <v>2208.787805023665</v>
+        <v>7.829896531597061</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>566762025699225.9</v>
+        <v>247492716184557.8</v>
       </c>
       <c r="B103">
-        <v>2211.319873886269</v>
+        <v>7.814480395356147</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>552033396359543.9</v>
+        <v>240490343617011.1</v>
       </c>
       <c r="B104">
-        <v>2207.919848083107</v>
+        <v>7.781261837212575</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>536459092512197.2</v>
+        <v>232806771601976.9</v>
       </c>
       <c r="B105">
-        <v>2110.45326133683</v>
+        <v>7.723478006371976</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>521225397336958</v>
+        <v>226422608221287.1</v>
       </c>
       <c r="B106">
-        <v>2065.52996549898</v>
+        <v>7.703051546598391</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>505874923213070.9</v>
+        <v>218461695256684.7</v>
       </c>
       <c r="B107">
-        <v>2045.972140111517</v>
+        <v>7.631125906901011</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>491258204973291.5</v>
+        <v>209487783699024.6</v>
       </c>
       <c r="B108">
-        <v>2128.895127930703</v>
+        <v>7.541836682553907</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>477907132004569.2</v>
+        <v>202131755716415.3</v>
       </c>
       <c r="B109">
-        <v>2178.453718323511</v>
+        <v>7.500025735902387</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>464669462732979.4</v>
+        <v>196644488860026.4</v>
       </c>
       <c r="B110">
-        <v>2174.45393613633</v>
+        <v>7.482928566435977</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>452007324265571.8</v>
+        <v>190347835890208.1</v>
       </c>
       <c r="B111">
-        <v>2249.068442423007</v>
+        <v>7.417744204945656</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>440311249942457.4</v>
+        <v>185469550408748.7</v>
       </c>
       <c r="B112">
-        <v>2221.813611949339</v>
+        <v>7.43441242828053</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>427988332210606.1</v>
+        <v>180750995125078</v>
       </c>
       <c r="B113">
-        <v>2090.348835232045</v>
+        <v>7.440857398490013</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>415496164063182.5</v>
+        <v>177238072400887.8</v>
       </c>
       <c r="B114">
-        <v>1991.738675786138</v>
+        <v>7.446448132555552</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>402704827051686.8</v>
+        <v>171532344077170.6</v>
       </c>
       <c r="B115">
-        <v>2056.373432231468</v>
+        <v>7.352741317967995</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>391761260531725.8</v>
+        <v>165288821751570.6</v>
       </c>
       <c r="B116">
-        <v>2178.100927974236</v>
+        <v>7.276656775530815</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>380905348355993</v>
+        <v>159697236903314.2</v>
       </c>
       <c r="B117">
-        <v>2061.997551218894</v>
+        <v>7.216385538279143</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>369372422972992.1</v>
+        <v>154820868396764.1</v>
       </c>
       <c r="B118">
-        <v>2000.204764921591</v>
+        <v>7.144142173964172</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>358523671015032.6</v>
+        <v>152016491815364.8</v>
       </c>
       <c r="B119">
-        <v>2036.169793951181</v>
+        <v>7.179163253231209</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>348031830918190.3</v>
+        <v>147005131576883.3</v>
       </c>
       <c r="B120">
-        <v>2016.944236488363</v>
+        <v>7.142819435853291</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>337610124103728</v>
+        <v>143697881693910.5</v>
       </c>
       <c r="B121">
-        <v>1995.787189305679</v>
+        <v>7.161119206502271</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>327529471117190.2</v>
+        <v>140130564885965.2</v>
       </c>
       <c r="B122">
-        <v>2042.942373129227</v>
+        <v>7.11545572173512</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>318179046447534.1</v>
+        <v>135363667063840.7</v>
       </c>
       <c r="B123">
-        <v>2031.665965690065</v>
+        <v>7.049943267804561</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>308548348688266.3</v>
+        <v>129512221143095.2</v>
       </c>
       <c r="B124">
-        <v>2015.478103175078</v>
+        <v>6.957921099179589</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>299624610255889.9</v>
+        <v>126599801785142.6</v>
       </c>
       <c r="B125">
-        <v>2002.952960405758</v>
+        <v>6.970238076220826</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>290417866604624.5</v>
+        <v>123739128559584.8</v>
       </c>
       <c r="B126">
-        <v>1923.691332381536</v>
+        <v>6.959708879938939</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>281327160535146.8</v>
+        <v>120242422285511.4</v>
       </c>
       <c r="B127">
-        <v>1878.838080770258</v>
+        <v>6.964593021842953</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>272270027146909.5</v>
+        <v>116221471433343.1</v>
       </c>
       <c r="B128">
-        <v>1847.455747815111</v>
+        <v>6.928437742872003</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>263465229428417.1</v>
+        <v>112426538370273.7</v>
       </c>
       <c r="B129">
-        <v>1916.745296116015</v>
+        <v>6.841373803977875</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>255610544078695.4</v>
+        <v>108019651481625.8</v>
       </c>
       <c r="B130">
-        <v>2034.749356083937</v>
+        <v>6.734155834814787</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>248239767948502</v>
+        <v>106417533769103.7</v>
       </c>
       <c r="B131">
-        <v>2031.749824726514</v>
+        <v>6.840353631404304</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>240802293816186.7</v>
+        <v>102914992636384.1</v>
       </c>
       <c r="B132">
-        <v>1836.168981923061</v>
+        <v>6.784473458183195</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>232345131726101.8</v>
+        <v>99901593558934.97</v>
       </c>
       <c r="B133">
-        <v>1774.948348220932</v>
+        <v>6.721548554922884</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>224936913849818</v>
+        <v>95847317670645.97</v>
       </c>
       <c r="B134">
-        <v>1830.799988893911</v>
+        <v>6.610339097607056</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>217454180161770.2</v>
+        <v>91818977619826.55</v>
       </c>
       <c r="B135">
-        <v>1878.196166914013</v>
+        <v>6.536240466830448</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>210904595447789.7</v>
+        <v>90416201472788.59</v>
       </c>
       <c r="B136">
-        <v>2019.420865681671</v>
+        <v>6.598188291848434</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>204796275411616.2</v>
+        <v>87288725234756.75</v>
       </c>
       <c r="B137">
-        <v>1897.805091345683</v>
+        <v>6.501387028682811</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>197825639820008.3</v>
+        <v>84570365720926.64</v>
       </c>
       <c r="B138">
-        <v>1818.828494767025</v>
+        <v>6.468749280609329</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>191613906862207.6</v>
+        <v>80862883899093.7</v>
       </c>
       <c r="B139">
-        <v>2007.116529947117</v>
+        <v>6.358150706638321</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>186255008436532.3</v>
+        <v>78088010147013.86</v>
       </c>
       <c r="B140">
-        <v>1989.82687540532</v>
+        <v>6.293759311481835</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>180269147525840.9</v>
+        <v>75259205952694.2</v>
       </c>
       <c r="B141">
-        <v>1839.622365840036</v>
+        <v>6.217723547233626</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>174378320543495.7</v>
+        <v>73702989109449.11</v>
       </c>
       <c r="B142">
-        <v>1792.272059735988</v>
+        <v>6.247427118688422</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>168477046915298.2</v>
+        <v>71897854699517.91</v>
       </c>
       <c r="B143">
-        <v>1641.705137142339</v>
+        <v>6.224997046251122</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>161940387796524</v>
+        <v>69394414998685.05</v>
       </c>
       <c r="B144">
-        <v>1526.037676495357</v>
+        <v>6.148398786490995</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>155615519770035.5</v>
+        <v>67651049406503.07</v>
       </c>
       <c r="B145">
-        <v>1518.867037049819</v>
+        <v>6.137887397310931</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>149522841996884.9</v>
+        <v>65365782420949.23</v>
       </c>
       <c r="B146">
-        <v>1633.09383391425</v>
+        <v>6.048695621622898</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>144518687442534.3</v>
+        <v>62839490879400.92</v>
       </c>
       <c r="B147">
-        <v>1843.686042030324</v>
+        <v>5.975268234757583</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>140022490788093.1</v>
+        <v>61280970524406.72</v>
       </c>
       <c r="B148">
-        <v>1862.799480272325</v>
+        <v>6.011374940146796</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>135408353204607.7</v>
+        <v>59123000856934.2</v>
       </c>
       <c r="B149">
-        <v>1695.538309273202</v>
+        <v>5.963450826257197</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>130343268373216.9</v>
+        <v>58831962173583.74</v>
       </c>
       <c r="B150">
-        <v>1653.657598354476</v>
+        <v>6.052865665726318</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>125855224344949.1</v>
+        <v>56402249254133.02</v>
       </c>
       <c r="B151">
-        <v>1677.957991958971</v>
+        <v>5.94781587814517</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>121252663445259.4</v>
+        <v>55000223853891.2</v>
       </c>
       <c r="B152">
-        <v>1588.475695179745</v>
+        <v>5.986349554933269</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>116603699216701.8</v>
+        <v>54609969642049.88</v>
       </c>
       <c r="B153">
-        <v>1593.477218917501</v>
+        <v>6.034581960189892</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>112383777102055.3</v>
+        <v>53194340682785.31</v>
       </c>
       <c r="B154">
-        <v>1514.952165381908</v>
+        <v>5.920219477440148</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>107612713167095.9</v>
+        <v>51499547017399.29</v>
       </c>
       <c r="B155">
-        <v>1677.411676616474</v>
+        <v>5.860242446357956</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>104608309089241.5</v>
+        <v>50590149837264.83</v>
       </c>
       <c r="B156">
-        <v>1895.276025463024</v>
+        <v>5.910599732448662</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>100923171965033.4</v>
+        <v>49612213752748.98</v>
       </c>
       <c r="B157">
-        <v>1640.856263923969</v>
+        <v>5.886839932340307</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>97153732651869.34</v>
+        <v>48856692838245.55</v>
       </c>
       <c r="B158">
-        <v>1569.371243850767</v>
+        <v>5.908531479909654</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>93420146505923.88</v>
+        <v>47555127928431.8</v>
       </c>
       <c r="B159">
-        <v>1649.568625531762</v>
+        <v>5.954655319109983</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>90289803754780.86</v>
+        <v>45480132917155.27</v>
       </c>
       <c r="B160">
-        <v>1583.121447830195</v>
+        <v>5.876251018773816</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>86507774602885.11</v>
+        <v>45614383242352.65</v>
       </c>
       <c r="B161">
-        <v>1371.275092710873</v>
+        <v>5.967924919939369</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>82643823500634.78</v>
+        <v>42992663586334.04</v>
       </c>
       <c r="B162">
-        <v>1382.749137208908</v>
+        <v>5.746555528215455</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>79263921658962.67</v>
+        <v>40949029611403.52</v>
       </c>
       <c r="B163">
-        <v>1486.976154801068</v>
+        <v>5.698402418374325</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>76183203890798.81</v>
+        <v>39665829373158.3</v>
       </c>
       <c r="B164">
-        <v>1444.344608134997</v>
+        <v>5.672308322695085</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>72871122973967.78</v>
+        <v>39282300308071.66</v>
       </c>
       <c r="B165">
-        <v>1236.740498643795</v>
+        <v>5.710119840248876</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>69041867358090.47</v>
+        <v>37623176673875.01</v>
       </c>
       <c r="B166">
-        <v>1239.027088049363</v>
+        <v>5.634088995735986</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>66117538323147.64</v>
+        <v>36462912064386.89</v>
       </c>
       <c r="B167">
-        <v>1437.757950582026</v>
+        <v>5.661590719227807</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>63468296617951.95</v>
+        <v>35801456011056.46</v>
       </c>
       <c r="B168">
-        <v>1334.736312017892</v>
+        <v>5.682682083157863</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>60354334399770.23</v>
+        <v>35242206091626.64</v>
       </c>
       <c r="B169">
-        <v>1301.820218120977</v>
+        <v>5.734689767042751</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>57849283157083.73</v>
+        <v>34090504858740.7</v>
       </c>
       <c r="B170">
-        <v>1585.540861248493</v>
+        <v>5.720578238134808</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>55932289348772.57</v>
+        <v>32637801144724.68</v>
       </c>
       <c r="B171">
-        <v>1667.868980711697</v>
+        <v>5.641805555215424</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>53784819132950.01</v>
+        <v>31534015137382.17</v>
       </c>
       <c r="B172">
-        <v>1473.570643290246</v>
+        <v>5.605406334756917</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>51508531242165.43</v>
+        <v>30042581155704.7</v>
       </c>
       <c r="B173">
-        <v>1438.945702142137</v>
+        <v>5.512761519530715</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>49446341331281.16</v>
+        <v>29045982541229.91</v>
       </c>
       <c r="B174">
-        <v>1319.792728583878</v>
+        <v>5.482939940744731</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>46967745072066.16</v>
+        <v>28087672916648.79</v>
       </c>
       <c r="B175">
-        <v>1181.299995920937</v>
+        <v>5.435706280906744</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>44627505538179.7</v>
+        <v>27065836757385.92</v>
       </c>
       <c r="B176">
-        <v>1186.204763254697</v>
+        <v>5.437404233096212</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>42407947439500.06</v>
+        <v>26630432196035.97</v>
       </c>
       <c r="B177">
-        <v>1149.840956400257</v>
+        <v>5.518792821736371</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>40157458440745.95</v>
+        <v>26324552485822.12</v>
       </c>
       <c r="B178">
-        <v>1167.063409276626</v>
+        <v>5.569146229178754</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>38237579382090.77</v>
+        <v>26625551799424.21</v>
       </c>
       <c r="B179">
-        <v>1337.595283151097</v>
+        <v>5.795290703396599</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>36692737325558.01</v>
+        <v>25668924413785.24</v>
       </c>
       <c r="B180">
-        <v>1400.052882940042</v>
+        <v>5.810727178821025</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>35061156678314.89</v>
+        <v>25381949948813.19</v>
       </c>
       <c r="B181">
-        <v>1336.614527017143</v>
+        <v>5.905568473118845</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>33513501948777.4</v>
+        <v>25103020042528.4</v>
       </c>
       <c r="B182">
-        <v>1387.860665289552</v>
+        <v>5.943720878371208</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>32134467755011.2</v>
+        <v>24716914840632.52</v>
       </c>
       <c r="B183">
-        <v>1738.449775442747</v>
+        <v>6.075800875214981</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>31273174073377.37</v>
+        <v>24152661302944.29</v>
       </c>
       <c r="B184">
-        <v>1606.122247123061</v>
+        <v>6.173640694421803</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>29774554800388.53</v>
+        <v>22982563548435.29</v>
       </c>
       <c r="B185">
-        <v>1242.161630660452</v>
+        <v>5.974438914585802</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>28368015877588.98</v>
+        <v>21374499565855.95</v>
       </c>
       <c r="B186">
-        <v>1215.666066939157</v>
+        <v>5.683311077858959</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>26946308114996.86</v>
+        <v>20594526196218.34</v>
       </c>
       <c r="B187">
-        <v>1229.045814279972</v>
+        <v>5.714166823884644</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>25710757290812.11</v>
+        <v>19934271897518.53</v>
       </c>
       <c r="B188">
-        <v>1114.91031843466</v>
+        <v>5.712938049768233</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>24151335522024.96</v>
+        <v>19350590815344.84</v>
       </c>
       <c r="B189">
-        <v>1199.937973560453</v>
+        <v>5.619175651417814</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>23271346313106.29</v>
+        <v>18541840636698.76</v>
       </c>
       <c r="B190">
-        <v>1620.373751771802</v>
+        <v>5.535760724137104</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>22410695641834.1</v>
+        <v>18452432911281.57</v>
       </c>
       <c r="B191">
-        <v>1422.877308762558</v>
+        <v>5.743835107431781</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>21362414112794.18</v>
+        <v>18576721120340.85</v>
       </c>
       <c r="B192">
-        <v>1161.718490501482</v>
+        <v>5.928047690019225</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>20181993411784.37</v>
+        <v>18440821518547.05</v>
       </c>
       <c r="B193">
-        <v>1397.31150961254</v>
+        <v>6.027052301331086</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>19611868450870.48</v>
+        <v>17603254731175.29</v>
       </c>
       <c r="B194">
-        <v>1750.580821737885</v>
+        <v>5.933044127353809</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>18824182091832.96</v>
+        <v>16960950214894.38</v>
       </c>
       <c r="B195">
-        <v>1254.940962485294</v>
+        <v>5.903361986134283</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>17793861916912.21</v>
+        <v>16496318297986.98</v>
       </c>
       <c r="B196">
-        <v>1158.054512682318</v>
+        <v>5.93756686993571</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>16961907008309.89</v>
+        <v>15762614058911.7</v>
       </c>
       <c r="B197">
-        <v>1048.075766492604</v>
+        <v>5.889136965541361</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>15832378601362.54</v>
+        <v>14796291475078.78</v>
       </c>
       <c r="B198">
-        <v>1010.632803541803</v>
+        <v>5.685218256886913</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>15063211181536.46</v>
+        <v>14234591274685.95</v>
       </c>
       <c r="B199">
-        <v>1220.460688902459</v>
+        <v>5.620544958011147</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>14336499863273.88</v>
+        <v>13557974674756.06</v>
       </c>
       <c r="B200">
-        <v>1168.497819930349</v>
+        <v>5.638971893832683</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>13576187625487.07</v>
+        <v>13526489043723.29</v>
       </c>
       <c r="B201">
-        <v>1188.919388973994</v>
+        <v>5.894993578149056</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>12952525511884.93</v>
+        <v>13573303682340.71</v>
       </c>
       <c r="B202">
-        <v>1587.340357053276</v>
+        <v>6.005421020570508</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>12587208743254.96</v>
+        <v>13483565016607.47</v>
       </c>
       <c r="B203">
-        <v>1294.763626682662</v>
+        <v>6.131768114050313</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>11774264346492.75</v>
+        <v>12559077823368.01</v>
       </c>
       <c r="B204">
-        <v>1008.810547952572</v>
+        <v>6.072468710650276</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>11172631108543.29</v>
+        <v>12870868312309.42</v>
       </c>
       <c r="B205">
-        <v>1085.689056389417</v>
+        <v>6.467041688353953</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>10527016911892.33</v>
+        <v>12804132897274.35</v>
       </c>
       <c r="B206">
-        <v>1092.487893360658</v>
+        <v>6.5077143057798</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>10004769700215.4</v>
+        <v>12660589340673.47</v>
       </c>
       <c r="B207">
-        <v>1366.660699041518</v>
+        <v>6.679095583698265</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>9639760778371.756</v>
+        <v>12055674942564.82</v>
       </c>
       <c r="B208">
-        <v>1685.639867933312</v>
+        <v>6.717107467278518</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>9311656640561.023</v>
+        <v>12262812080577.53</v>
       </c>
       <c r="B209">
-        <v>1283.713431314121</v>
+        <v>6.996662167958021</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>8760613799531.859</v>
+        <v>12036024623564.42</v>
       </c>
       <c r="B210">
-        <v>943.7365961739645</v>
+        <v>7.014567752903072</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>8186568987069.694</v>
+        <v>11668535102026.18</v>
       </c>
       <c r="B211">
-        <v>833.0717424560106</v>
+        <v>7.11004979945776</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>7569585331434.194</v>
+        <v>11581002417023.4</v>
       </c>
       <c r="B212">
-        <v>1010.81023860945</v>
+        <v>7.307542451845621</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>7278946856696.43</v>
+        <v>11045463163442.62</v>
       </c>
       <c r="B213">
-        <v>3689.156529615322</v>
+        <v>7.161463051350403</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>7330449813071.24</v>
+        <v>10706707638213.49</v>
       </c>
       <c r="B214">
-        <v>14357.37229589974</v>
+        <v>7.227430677575041</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>7217065720020.88</v>
+        <v>10566987520238.2</v>
       </c>
       <c r="B215">
-        <v>1479.737853081871</v>
+        <v>7.352424224577944</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>6739325943769.156</v>
+        <v>10546595067842.4</v>
       </c>
       <c r="B216">
-        <v>1263.036915096412</v>
+        <v>7.588742217177129</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>6570365457643.779</v>
+        <v>10104600602437.7</v>
       </c>
       <c r="B217">
-        <v>1138.196204750531</v>
+        <v>7.756867064213986</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>6039685328080.271</v>
+        <v>10205934118683.31</v>
       </c>
       <c r="B218">
-        <v>967.7762891239742</v>
+        <v>8.201801992964443</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>5813982117826.751</v>
+        <v>10164353469419.22</v>
       </c>
       <c r="B219">
-        <v>1178.703121569599</v>
+        <v>8.222707795479675</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>5441863349173.27</v>
+        <v>9942762907169.008</v>
       </c>
       <c r="B220">
-        <v>611.8795609010471</v>
+        <v>8.473380103274193</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>4736067639120.263</v>
+        <v>9451696627052.168</v>
       </c>
       <c r="B221">
-        <v>614.3812763284827</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222">
-        <v>4507571534013.061</v>
-      </c>
-      <c r="B222">
-        <v>991.279401044608</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223">
-        <v>4184943839567.202</v>
-      </c>
-      <c r="B223">
-        <v>1941.821416097109</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224">
-        <v>4246365642909.53</v>
-      </c>
-      <c r="B224">
-        <v>1882.609341536604</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225">
-        <v>3911568208964.754</v>
-      </c>
-      <c r="B225">
-        <v>1091.967307060907</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226">
-        <v>3812211558019.808</v>
-      </c>
-      <c r="B226">
-        <v>11498.51902131511</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227">
-        <v>3871385639368.135</v>
-      </c>
-      <c r="B227">
-        <v>1549.612016685877</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228">
-        <v>3509418384993.871</v>
-      </c>
-      <c r="B228">
-        <v>2170.021910761024</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229">
-        <v>3675377706843.563</v>
-      </c>
-      <c r="B229">
-        <v>-958.8640228495647</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230">
-        <v>3973984546049.358</v>
-      </c>
-      <c r="B230">
-        <v>-3640.807773282378</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231">
-        <v>3807668933673.977</v>
-      </c>
-      <c r="B231">
-        <v>1132.012528231867</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232">
-        <v>3566312843438.339</v>
-      </c>
-      <c r="B232">
-        <v>818.0426208704504</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233">
-        <v>3279289231202.243</v>
-      </c>
-      <c r="B233">
-        <v>588.253391840581</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234">
-        <v>2890668877190.84</v>
-      </c>
-      <c r="B234">
-        <v>505.2260919748181</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235">
-        <v>2585839163043.463</v>
-      </c>
-      <c r="B235">
-        <v>805.4751137013581</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236">
-        <v>2501577145826.607</v>
-      </c>
-      <c r="B236">
-        <v>886.4068724017151</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237">
-        <v>2243794037363.554</v>
-      </c>
-      <c r="B237">
-        <v>799.3183702811288</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238">
-        <v>2161352465099.187</v>
-      </c>
-      <c r="B238">
-        <v>6709.690662909971</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239">
-        <v>2204752607299.118</v>
-      </c>
-      <c r="B239">
-        <v>1536.628144567116</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240">
-        <v>1987454819823.453</v>
-      </c>
-      <c r="B240">
-        <v>605.1867719512813</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241">
-        <v>1806727509384.397</v>
-      </c>
-      <c r="B241">
-        <v>561.8009082660964</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242">
-        <v>1597680843107.718</v>
-      </c>
-      <c r="B242">
-        <v>707.7467761590159</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243">
-        <v>1533128356823.728</v>
-      </c>
-      <c r="B243">
-        <v>1199.468033584158</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244">
-        <v>1442766204581.006</v>
-      </c>
-      <c r="B244">
-        <v>1751.993954100871</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245">
-        <v>1433320213316.203</v>
-      </c>
-      <c r="B245">
-        <v>3841.732997966963</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246">
-        <v>1397547442645.741</v>
-      </c>
-      <c r="B246">
-        <v>633.9801229864369</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247">
-        <v>1166146616057.711</v>
-      </c>
-      <c r="B247">
-        <v>368.8313979247275</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248">
-        <v>1014345332788.923</v>
-      </c>
-      <c r="B248">
-        <v>1192.56085859062</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249">
-        <v>1063058665913.765</v>
-      </c>
-      <c r="B249">
-        <v>612.5671482750611</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250">
-        <v>804012946092.1278</v>
-      </c>
-      <c r="B250">
-        <v>293.9293997235544</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251">
-        <v>731528818412.9215</v>
-      </c>
-      <c r="B251">
-        <v>464.7673009672775</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252">
-        <v>613248035120.2869</v>
-      </c>
-      <c r="B252">
-        <v>4068.023073936587</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253">
-        <v>713258110379.6326</v>
-      </c>
-      <c r="B253">
-        <v>366.524056970338</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254">
-        <v>377392076052.8795</v>
-      </c>
-      <c r="B254">
-        <v>95.19365833394055</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255">
-        <v>232764762207.7057</v>
-      </c>
-      <c r="B255">
-        <v>169.7483012579917</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256">
-        <v>211198429515.6056</v>
-      </c>
-      <c r="B256">
-        <v>-1577.124333407628</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257">
-        <v>248995093016.1746</v>
-      </c>
-      <c r="B257">
-        <v>-871.5952799067811</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258">
-        <v>245822533121.1111</v>
-      </c>
-      <c r="B258">
-        <v>132.0077141860724</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259">
-        <v>23298502495.07804</v>
-      </c>
-      <c r="B259">
-        <v>24.36597487237652</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260">
-        <v>129932300237.1893</v>
-      </c>
-      <c r="B260">
-        <v>-73.84054175221665</v>
+        <v>8.659674969580559</v>
       </c>
     </row>
   </sheetData>
